--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>4. 5. 2021</t>
+  </si>
+  <si>
+    <t>25. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -254,10 +257,10 @@
     <t>Nezná nakaženého</t>
   </si>
   <si>
-    <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD76"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,7 +643,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,16 +734,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -800,10 +806,10 @@
         <v>0.05</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Y2" t="n">
         <v>0.07000000000000001</v>
@@ -815,24 +821,27 @@
         <v>0.09</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD2" t="n">
         <v>0.13</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -886,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W3" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="X3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z3" t="n">
         <v>0.05</v>
@@ -907,24 +916,27 @@
         <v>0.09</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.23</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -951,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -966,7 +978,7 @@
         <v>0.01</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R4" t="n">
         <v>0.02</v>
@@ -984,10 +996,10 @@
         <v>0.06</v>
       </c>
       <c r="W4" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="X4" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Y4" t="n">
         <v>0.07000000000000001</v>
@@ -996,28 +1008,31 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AB4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.08</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AD4" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.06</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M5" t="n">
         <v>0.005</v>
@@ -1061,28 +1076,28 @@
         <v>0.005</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U5" t="n">
         <v>0.005</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W5" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z5" t="n">
         <v>0.06</v>
@@ -1097,18 +1112,21 @@
         <v>0.08</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1165,43 +1183,46 @@
         <v>0.06</v>
       </c>
       <c r="V6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W6" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.09</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AB6" t="n">
         <v>0.14</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
@@ -1245,7 +1266,7 @@
         <v>0.005</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1254,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X7" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Z7" t="n">
         <v>0.06</v>
@@ -1275,24 +1296,27 @@
         <v>0.09</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.16</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1331,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0.005</v>
@@ -1367,25 +1391,28 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.19</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
@@ -1441,25 +1468,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W9" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="Y9" t="n">
         <v>0.03</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AA9" t="n">
         <v>0.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AC9" t="n">
         <v>0.17</v>
@@ -1467,16 +1494,19 @@
       <c r="AD9" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1539,36 +1569,39 @@
         <v>0.05</v>
       </c>
       <c r="X10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y10" t="n">
         <v>0.05</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>0.06</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>0.08</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AC10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD10" t="n">
         <v>0.11</v>
       </c>
-      <c r="AD10" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1613,7 +1646,7 @@
         <v>0.005</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1625,42 +1658,45 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AA11" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.24</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1687,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1717,19 +1753,19 @@
         <v>0.06</v>
       </c>
       <c r="V12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W12" t="n">
         <v>0.06</v>
       </c>
-      <c r="W12" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="X12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y12" t="n">
         <v>0.08</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>0.09</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.08</v>
       </c>
       <c r="AA12" t="n">
         <v>0.1</v>
@@ -1741,18 +1777,21 @@
         <v>0.12</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1779,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1797,7 +1836,7 @@
         <v>0.005</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1809,19 +1848,19 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X13" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA13" t="n">
         <v>0.1</v>
@@ -1830,21 +1869,24 @@
         <v>0.12</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.23</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1895,7 +1937,7 @@
         <v>0.05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="U14" t="n">
         <v>0.06</v>
@@ -1904,10 +1946,10 @@
         <v>0.06</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Y14" t="n">
         <v>0.08</v>
@@ -1922,21 +1964,24 @@
         <v>0.14</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD14" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1984,51 +2029,54 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="U15" t="n">
         <v>0.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AB15" t="n">
         <v>0.16</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2067,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q16" t="n">
         <v>0.01</v>
@@ -2079,10 +2127,10 @@
         <v>0.03</v>
       </c>
       <c r="T16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U16" t="n">
         <v>0.03</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.04</v>
       </c>
       <c r="V16" t="n">
         <v>0.05</v>
@@ -2091,36 +2139,39 @@
         <v>0.06</v>
       </c>
       <c r="X16" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z16" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.08</v>
       </c>
       <c r="AA16" t="n">
         <v>0.09</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AC16" t="n">
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+        <v>0.08</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2165,7 +2216,7 @@
         <v>0.005</v>
       </c>
       <c r="R17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2174,45 +2225,48 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V17" t="n">
         <v>0.005</v>
       </c>
       <c r="W17" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="X17" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AC17" t="n">
         <v>0.08</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>0.13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2239,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2269,19 +2323,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="V18" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W18" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W18" t="n">
-        <v>0.08</v>
-      </c>
       <c r="X18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.09</v>
       </c>
       <c r="AA18" t="n">
         <v>0.11</v>
@@ -2293,18 +2347,21 @@
         <v>0.11</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+        <v>0.08</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2331,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M19" t="n">
         <v>0.005</v>
@@ -2349,7 +2406,7 @@
         <v>0.005</v>
       </c>
       <c r="R19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2361,42 +2418,45 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W19" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X19" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z19" t="n">
         <v>0.08</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB19" t="n">
         <v>0.09</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+        <v>0.13</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2441,7 +2501,7 @@
         <v>0.01</v>
       </c>
       <c r="R20" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="S20" t="n">
         <v>0.07000000000000001</v>
@@ -2456,16 +2516,16 @@
         <v>0.09</v>
       </c>
       <c r="W20" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.09</v>
       </c>
-      <c r="X20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Z20" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AA20" t="n">
         <v>0.14</v>
@@ -2474,21 +2534,24 @@
         <v>0.14</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
+        <v>0.15</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2539,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U21" t="n">
         <v>0.01</v>
@@ -2548,39 +2611,42 @@
         <v>0.005</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="X21" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z21" t="n">
         <v>0.08</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AD21" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2637,42 +2703,45 @@
         <v>0.03</v>
       </c>
       <c r="V22" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W22" t="n">
         <v>0.04</v>
       </c>
-      <c r="W22" t="n">
-        <v>0.05</v>
-      </c>
       <c r="X22" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y22" t="n">
         <v>0.05</v>
       </c>
       <c r="Z22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AA22" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA22" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AB22" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AC22" t="n">
         <v>0.11</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
+        <v>0.14</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2732,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X23" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="Y23" t="n">
         <v>0.03</v>
@@ -2747,7 +2816,7 @@
         <v>0.09</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC23" t="n">
         <v>0.13</v>
@@ -2755,16 +2824,19 @@
       <c r="AD23" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2821,7 +2893,7 @@
         <v>0.04</v>
       </c>
       <c r="V24" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="W24" t="n">
         <v>0.04</v>
@@ -2833,30 +2905,33 @@
         <v>0.06</v>
       </c>
       <c r="Z24" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA24" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AA24" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AB24" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AC24" t="n">
         <v>0.15</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+        <v>0.2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2913,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="X25" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="Y25" t="n">
         <v>0.03</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AA25" t="n">
         <v>0.1</v>
@@ -2937,18 +3012,21 @@
         <v>0.21</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
+        <v>0.46</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2987,34 +3065,34 @@
         <v>0.005</v>
       </c>
       <c r="P26" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="Q26" t="n">
         <v>0.015</v>
       </c>
       <c r="R26" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="S26" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="T26" t="n">
         <v>0.015</v>
       </c>
       <c r="U26" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X26" t="n">
         <v>0.02</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Z26" t="n">
         <v>0.07000000000000001</v>
@@ -3026,21 +3104,24 @@
         <v>0.14</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AD26" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3085,54 +3166,57 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T27" t="n">
         <v>0.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="V27" t="n">
         <v>0.015</v>
       </c>
       <c r="W27" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="X27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Z27" t="n">
         <v>0.03</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AB27" t="n">
         <v>0.22</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AD27" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3159,7 +3243,7 @@
         <v>0.005</v>
       </c>
       <c r="L28" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3192,39 +3276,42 @@
         <v>0.05</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Z28" t="n">
         <v>0.04</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AB28" t="n">
         <v>0.12</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD28" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3251,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M29" t="n">
         <v>0.015</v>
@@ -3269,54 +3356,57 @@
         <v>0.015</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y29" t="n">
         <v>0.015</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.005</v>
       </c>
       <c r="Z29" t="n">
         <v>0.02</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB29" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AD29" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="AE29" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3379,13 +3469,13 @@
         <v>0.05</v>
       </c>
       <c r="X30" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y30" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AA30" t="n">
         <v>0.1</v>
@@ -3397,18 +3487,21 @@
         <v>0.11</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
+        <v>0.12</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3459,25 +3552,25 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V31" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="W31" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="X31" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Y31" t="n">
         <v>0.03</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AA31" t="n">
         <v>0.07000000000000001</v>
@@ -3486,21 +3579,24 @@
         <v>0.09</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
+        <v>0.27</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3545,7 +3641,7 @@
         <v>0.01</v>
       </c>
       <c r="R32" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="S32" t="n">
         <v>0.06</v>
@@ -3560,13 +3656,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="X32" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y32" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.08</v>
       </c>
       <c r="Z32" t="n">
         <v>0.08</v>
@@ -3575,24 +3671,27 @@
         <v>0.08</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC32" t="n">
         <v>0.14</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
+        <v>0.16</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3649,42 +3748,45 @@
         <v>0.005</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W33" t="n">
-        <v>0.005</v>
+        <v>0.03</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z33" t="n">
         <v>0.08</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AB33" t="n">
         <v>0.16</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+        <v>0.22</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3729,7 +3831,7 @@
         <v>0.005</v>
       </c>
       <c r="R34" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="S34" t="n">
         <v>0.05</v>
@@ -3741,42 +3843,45 @@
         <v>0.05</v>
       </c>
       <c r="V34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="X34" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y34" t="n">
         <v>0.1</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.09</v>
       </c>
       <c r="Z34" t="n">
         <v>0.11</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD34" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3830,45 +3935,48 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V35" t="n">
         <v>0.005</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y35" t="n">
         <v>0.05</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AA35" t="n">
         <v>0.08</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
+        <v>0.2</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3928,10 +4036,10 @@
         <v>0.05</v>
       </c>
       <c r="W36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X36" t="n">
         <v>0.06</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="Y36" t="n">
         <v>0.08</v>
@@ -3940,119 +4048,125 @@
         <v>0.08</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AB36" t="n">
         <v>0.1</v>
       </c>
       <c r="AC36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0.13</v>
       </c>
-      <c r="AD36" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="AD37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
         <v>33</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4106,19 +4220,19 @@
         <v>0.04</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="V38" t="n">
         <v>0.05</v>
       </c>
       <c r="W38" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y38" t="n">
         <v>0.06</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="Z38" t="n">
         <v>0.08</v>
@@ -4127,24 +4241,27 @@
         <v>0.1</v>
       </c>
       <c r="AB38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE38" t="n">
         <v>0.11</v>
       </c>
-      <c r="AC38" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4189,7 +4306,7 @@
         <v>0.005</v>
       </c>
       <c r="R39" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -4198,28 +4315,28 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V39" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="W39" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="X39" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC39" t="n">
         <v>0.12</v>
@@ -4227,16 +4344,19 @@
       <c r="AD39" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4287,7 +4407,7 @@
         <v>0.06</v>
       </c>
       <c r="T40" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="U40" t="n">
         <v>0.05</v>
@@ -4299,7 +4419,7 @@
         <v>0.04</v>
       </c>
       <c r="X40" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Y40" t="n">
         <v>0.08</v>
@@ -4314,21 +4434,24 @@
         <v>0.08</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
+        <v>0.05</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4379,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U41" t="n">
         <v>0.005</v>
@@ -4388,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="X41" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y41" t="n">
         <v>0.05</v>
@@ -4409,18 +4532,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
+        <v>0.12</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4480,19 +4606,19 @@
         <v>0.06</v>
       </c>
       <c r="W42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Y42" t="n">
         <v>0.09</v>
       </c>
-      <c r="X42" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0.1</v>
-      </c>
       <c r="Z42" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AB42" t="n">
         <v>0.13</v>
@@ -4501,18 +4627,21 @@
         <v>0.11</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
+        <v>0.09</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4569,42 +4698,45 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W43" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="X43" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA43" t="n">
         <v>0.08</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
+        <v>0.18</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4649,7 +4781,7 @@
         <v>0.01</v>
       </c>
       <c r="R44" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="S44" t="n">
         <v>0.02</v>
@@ -4664,7 +4796,7 @@
         <v>0.04</v>
       </c>
       <c r="W44" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="X44" t="n">
         <v>0.04</v>
@@ -4673,30 +4805,33 @@
         <v>0.06</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AB44" t="n">
         <v>0.1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
+        <v>0.25</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4744,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4753,19 +4888,19 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X45" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AA45" t="n">
         <v>0.12</v>
@@ -4774,21 +4909,24 @@
         <v>0.19</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
+        <v>0.39</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4815,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4836,7 +4974,7 @@
         <v>0.02</v>
       </c>
       <c r="S46" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="T46" t="n">
         <v>0.05</v>
@@ -4845,42 +4983,45 @@
         <v>0.06</v>
       </c>
       <c r="V46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="W46" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="X46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Z46" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AB46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC46" t="n">
         <v>0.08</v>
       </c>
-      <c r="AC46" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AD46" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
+        <v>0.06</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -4907,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M47" t="n">
         <v>0.005</v>
@@ -4925,34 +5066,34 @@
         <v>0.01</v>
       </c>
       <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U47" t="n">
         <v>0.01</v>
       </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0.005</v>
-      </c>
       <c r="V47" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="X47" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB47" t="n">
         <v>0.08</v>
@@ -4961,18 +5102,21 @@
         <v>0.09</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -5023,22 +5167,22 @@
         <v>0.05</v>
       </c>
       <c r="T48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="U48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="V48" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="W48" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X48" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y48" t="n">
         <v>0.08</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0.09</v>
       </c>
       <c r="Z48" t="n">
         <v>0.1</v>
@@ -5047,24 +5191,27 @@
         <v>0.14</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD48" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="49" spans="1:30">
+      <c r="AE48" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5109,7 +5256,7 @@
         <v>0.005</v>
       </c>
       <c r="R49" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5118,45 +5265,48 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V49" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="W49" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X49" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z49" t="n">
         <v>0.05</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD49" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5195,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0.005</v>
@@ -5213,16 +5363,16 @@
         <v>0.02</v>
       </c>
       <c r="V50" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="W50" t="n">
         <v>0.04</v>
       </c>
       <c r="X50" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y50" t="n">
         <v>0.04</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.05</v>
       </c>
       <c r="Z50" t="n">
         <v>0.06</v>
@@ -5234,21 +5384,24 @@
         <v>0.09</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AD50" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AE50" t="n">
         <v>0.15</v>
       </c>
     </row>
-    <row r="51" spans="1:30">
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5311,36 +5464,39 @@
         <v>0.005</v>
       </c>
       <c r="X51" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="Y51" t="n">
         <v>0.03</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AA51" t="n">
         <v>0.09</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC51" t="n">
         <v>0.15</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
+        <v>0.37</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5397,13 +5553,13 @@
         <v>0.05</v>
       </c>
       <c r="V52" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="W52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="X52" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Y52" t="n">
         <v>0.07000000000000001</v>
@@ -5415,24 +5571,27 @@
         <v>0.1</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AC52" t="n">
         <v>0.13</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
+        <v>0.13</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -5477,7 +5636,7 @@
         <v>0.005</v>
       </c>
       <c r="R53" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -5489,42 +5648,45 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W53" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="X53" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC53" t="n">
         <v>0.12</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
+        <v>0.22</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5581,16 +5743,16 @@
         <v>0.05</v>
       </c>
       <c r="V54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="X54" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W54" t="n">
+      <c r="Y54" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="X54" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>0.08</v>
       </c>
       <c r="Z54" t="n">
         <v>0.08</v>
@@ -5602,21 +5764,24 @@
         <v>0.08</v>
       </c>
       <c r="AC54" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE54" t="n">
         <v>0.1</v>
       </c>
-      <c r="AD54" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5673,42 +5838,45 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="X55" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z55" t="n">
         <v>0.06</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB55" t="n">
         <v>0.12</v>
       </c>
       <c r="AC55" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
+        <v>0.26</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5762,13 +5930,13 @@
         <v>0.02</v>
       </c>
       <c r="U56" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="V56" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="W56" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="X56" t="n">
         <v>0.05</v>
@@ -5789,18 +5957,21 @@
         <v>0.14</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+        <v>0.15</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -5854,22 +6025,22 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V57" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="W57" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="X57" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AA57" t="n">
         <v>0.09</v>
@@ -5881,18 +6052,21 @@
         <v>0.1</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
+        <v>0.22</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -5931,10 +6105,10 @@
         <v>0.01</v>
       </c>
       <c r="P58" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="R58" t="n">
         <v>0.02</v>
@@ -5949,22 +6123,22 @@
         <v>0.04</v>
       </c>
       <c r="V58" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W58" t="n">
         <v>0.04</v>
-      </c>
-      <c r="W58" t="n">
-        <v>0.05</v>
       </c>
       <c r="X58" t="n">
         <v>0.04</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB58" t="n">
         <v>0.09</v>
@@ -5975,16 +6149,19 @@
       <c r="AD58" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -6035,22 +6212,22 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U59" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="V59" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="W59" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="X59" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Y59" t="n">
         <v>0.04</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>0.03</v>
       </c>
       <c r="Z59" t="n">
         <v>0.04</v>
@@ -6059,24 +6236,27 @@
         <v>0.06</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
+        <v>0.21</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -6136,7 +6316,7 @@
         <v>0.05</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="X60" t="n">
         <v>0.06</v>
@@ -6145,10 +6325,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB60" t="n">
         <v>0.1</v>
@@ -6157,18 +6337,21 @@
         <v>0.12</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
+        <v>0.16</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -6228,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="X61" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="Y61" t="n">
         <v>0.03</v>
@@ -6243,24 +6426,27 @@
         <v>0.08</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC61" t="n">
         <v>0.12</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30">
+        <v>0.29</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -6323,7 +6509,7 @@
         <v>0.05</v>
       </c>
       <c r="X62" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y62" t="n">
         <v>0.06</v>
@@ -6335,116 +6521,122 @@
         <v>0.09</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
+        <v>0.16</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C64" t="s">
         <v>33</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
-      <c r="U63" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="V63" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="Y63" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s">
-        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -6504,39 +6696,42 @@
         <v>0.06</v>
       </c>
       <c r="W64" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="X64" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Y64" t="n">
         <v>0.06</v>
       </c>
       <c r="Z64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB64" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AA64" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB64" t="n">
+      <c r="AC64" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD64" t="n">
         <v>0.08</v>
       </c>
-      <c r="AC64" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -6587,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -6596,39 +6791,42 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="X65" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AA65" t="n">
         <v>0.09</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AC65" t="n">
         <v>0.12</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
+        <v>0.21</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -6673,7 +6871,7 @@
         <v>0.005</v>
       </c>
       <c r="R66" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0.015</v>
@@ -6688,39 +6886,42 @@
         <v>0.04</v>
       </c>
       <c r="W66" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="X66" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AB66" t="n">
         <v>0.11</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
+        <v>0.14</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -6777,42 +6978,45 @@
         <v>0.005</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W67" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="X67" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA67" t="n">
         <v>0.12</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
+        <v>0.25</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -6839,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -6857,7 +7061,7 @@
         <v>0.005</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S68" t="n">
         <v>0.015</v>
@@ -6872,105 +7076,108 @@
         <v>0.06</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="X68" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z68" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AA68" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y69" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="Z68" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="V69" t="n">
-        <v>0</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X69" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y69" t="n">
-        <v>0.06</v>
       </c>
       <c r="Z69" t="n">
         <v>0.06</v>
@@ -6985,18 +7192,21 @@
         <v>0.1</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
+        <v>0.14</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -7023,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0.005</v>
@@ -7035,7 +7245,7 @@
         <v>0.02</v>
       </c>
       <c r="P70" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Q70" t="n">
         <v>0.05</v>
@@ -7056,16 +7266,16 @@
         <v>0.14</v>
       </c>
       <c r="W70" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="X70" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="Y70" t="n">
         <v>0.17</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AA70" t="n">
         <v>0.2</v>
@@ -7074,21 +7284,24 @@
         <v>0.19</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
+        <v>0.22</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -7115,7 +7328,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -7133,54 +7346,57 @@
         <v>0.005</v>
       </c>
       <c r="R71" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W71" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="X71" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA71" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB71" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC71" t="n">
         <v>0.15</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
+        <v>0.24</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -7231,140 +7447,146 @@
         <v>0.01</v>
       </c>
       <c r="T72" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V72" t="n">
         <v>0.01</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="V72" t="n">
-        <v>0.015</v>
       </c>
       <c r="W72" t="n">
         <v>0.02</v>
       </c>
       <c r="X72" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y72" t="n">
         <v>0.02</v>
       </c>
       <c r="Z72" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X73" t="n">
         <v>0.03</v>
       </c>
-      <c r="AA72" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
-      <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
-        <v>0</v>
-      </c>
-      <c r="R73" t="n">
-        <v>0</v>
-      </c>
-      <c r="S73" t="n">
-        <v>0</v>
-      </c>
-      <c r="T73" t="n">
-        <v>0</v>
-      </c>
-      <c r="U73" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="V73" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="W73" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0.015</v>
-      </c>
       <c r="Y73" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z73" t="n">
         <v>0.05</v>
       </c>
       <c r="AA73" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB73" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
+        <v>0.23</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -7418,19 +7640,19 @@
         <v>0.015</v>
       </c>
       <c r="U74" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="V74" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="W74" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="X74" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Z74" t="n">
         <v>0.03</v>
@@ -7439,24 +7661,27 @@
         <v>0.03</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
+        <v>0.1</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -7516,33 +7741,36 @@
         <v>0.005</v>
       </c>
       <c r="W75" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="X75" t="n">
         <v>0.03</v>
       </c>
       <c r="Y75" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z75" t="n">
         <v>0.05</v>
-      </c>
-      <c r="Z75" t="n">
-        <v>0.04</v>
       </c>
       <c r="AA75" t="n">
         <v>0.08</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC75" t="n">
         <v>0.11</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
+        <v>0.22</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7556,7 +7784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC39"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7564,7 +7792,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7652,13 +7880,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -7739,15 +7970,18 @@
         <v>2059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>2029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -7828,15 +8062,18 @@
         <v>491</v>
       </c>
       <c r="AC3" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>480</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -7917,15 +8154,18 @@
         <v>754</v>
       </c>
       <c r="AC4" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>749</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -8006,15 +8246,18 @@
         <v>814</v>
       </c>
       <c r="AC5" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>800</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
         <v>1399</v>
@@ -8095,15 +8338,18 @@
         <v>953</v>
       </c>
       <c r="AC6" t="n">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
+        <v>935</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" t="n">
         <v>1088</v>
@@ -8184,15 +8430,18 @@
         <v>702</v>
       </c>
       <c r="AC7" t="n">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
+        <v>693</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" t="n">
         <v>614</v>
@@ -8273,15 +8522,18 @@
         <v>404</v>
       </c>
       <c r="AC8" t="n">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>401</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" t="n">
         <v>722</v>
@@ -8362,15 +8614,18 @@
         <v>490</v>
       </c>
       <c r="AC9" t="n">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>477</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
         <v>729</v>
@@ -8451,15 +8706,18 @@
         <v>482</v>
       </c>
       <c r="AC10" t="n">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>479</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
         <v>443</v>
@@ -8540,15 +8798,18 @@
         <v>273</v>
       </c>
       <c r="AC11" t="n">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
+        <v>274</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
         <v>677</v>
@@ -8631,13 +8892,16 @@
       <c r="AC12" t="n">
         <v>459</v>
       </c>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="AD12" t="n">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>359</v>
@@ -8718,15 +8982,18 @@
         <v>220</v>
       </c>
       <c r="AC13" t="n">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>214</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
         <v>171</v>
@@ -8807,15 +9074,18 @@
         <v>130</v>
       </c>
       <c r="AC14" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>126</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" t="n">
         <v>390</v>
@@ -8896,15 +9166,18 @@
         <v>246</v>
       </c>
       <c r="AC15" t="n">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>239</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="n">
         <v>1128</v>
@@ -8987,13 +9260,16 @@
       <c r="AC16" t="n">
         <v>736</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" t="n">
         <v>840</v>
@@ -9074,15 +9350,18 @@
         <v>645</v>
       </c>
       <c r="AC17" t="n">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>681</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" t="n">
         <v>340</v>
@@ -9163,15 +9442,18 @@
         <v>252</v>
       </c>
       <c r="AC18" t="n">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>253</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
         <v>1514</v>
@@ -9252,15 +9534,18 @@
         <v>997</v>
       </c>
       <c r="AC19" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>980</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" t="n">
         <v>1587</v>
@@ -9341,15 +9626,18 @@
         <v>1062</v>
       </c>
       <c r="AC20" t="n">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
+        <v>1049</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -9432,13 +9720,16 @@
       <c r="AC21" t="n">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:29">
+      <c r="AD21" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -9521,13 +9812,16 @@
       <c r="AC22" t="n">
         <v>378</v>
       </c>
-    </row>
-    <row r="23" spans="1:29">
+      <c r="AD22" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -9608,15 +9902,18 @@
         <v>364</v>
       </c>
       <c r="AC23" t="n">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
+        <v>356</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -9699,13 +9996,16 @@
       <c r="AC24" t="n">
         <v>235</v>
       </c>
-    </row>
-    <row r="25" spans="1:29">
+      <c r="AD24" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -9786,15 +10086,18 @@
         <v>372</v>
       </c>
       <c r="AC25" t="n">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29">
+        <v>371</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -9875,15 +10178,18 @@
         <v>450</v>
       </c>
       <c r="AC26" t="n">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
+        <v>443</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" t="n">
         <v>1726</v>
@@ -9964,15 +10270,18 @@
         <v>1084</v>
       </c>
       <c r="AC27" t="n">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
+        <v>1058</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" t="n">
         <v>667</v>
@@ -10053,15 +10362,18 @@
         <v>462</v>
       </c>
       <c r="AC28" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
+        <v>466</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="n">
         <v>333</v>
@@ -10144,13 +10456,16 @@
       <c r="AC29" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:29">
+      <c r="AD29" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" t="n">
         <v>375</v>
@@ -10231,15 +10546,18 @@
         <v>272</v>
       </c>
       <c r="AC30" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29">
+        <v>267</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" t="n">
         <v>632</v>
@@ -10320,15 +10638,18 @@
         <v>586</v>
       </c>
       <c r="AC31" t="n">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29">
+        <v>451</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" t="n">
         <v>750</v>
@@ -10411,13 +10732,16 @@
       <c r="AC32" t="n">
         <v>351</v>
       </c>
-    </row>
-    <row r="33" spans="1:29">
+      <c r="AD32" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="n">
         <v>111</v>
@@ -10498,15 +10822,18 @@
         <v>302</v>
       </c>
       <c r="AC33" t="n">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
+        <v>338</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C34" t="n">
         <v>765</v>
@@ -10587,15 +10914,18 @@
         <v>228</v>
       </c>
       <c r="AC34" t="n">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
+        <v>303</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" t="n">
         <v>146</v>
@@ -10673,18 +11003,21 @@
         <v>267</v>
       </c>
       <c r="AB35" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC35" t="n">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29">
+        <v>375</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" t="n">
         <v>11</v>
@@ -10765,15 +11098,18 @@
         <v>554</v>
       </c>
       <c r="AC36" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29">
+        <v>493</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37" t="n">
         <v>102</v>
@@ -10854,15 +11190,18 @@
         <v>690</v>
       </c>
       <c r="AC37" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
+        <v>591</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" t="n">
         <v>2988</v>
@@ -10945,10 +11284,13 @@
       <c r="AC38" t="n">
         <v>945</v>
       </c>
-    </row>
-    <row r="39" spans="1:29">
+      <c r="AD38" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -10978,6 +11320,7 @@
       <c r="AA39" t="s"/>
       <c r="AB39" t="s"/>
       <c r="AC39" t="s"/>
+      <c r="AD39" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>trideni</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>25. 5. 2021</t>
+  </si>
+  <si>
+    <t>22. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -257,10 +260,10 @@
     <t>Nezná nakaženého</t>
   </si>
   <si>
-    <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +646,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,16 +740,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -832,16 +838,19 @@
       <c r="AE2" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF2" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -927,16 +936,19 @@
       <c r="AE3" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF3" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1022,16 +1034,19 @@
       <c r="AE4" t="n">
         <v>0.03</v>
       </c>
+      <c r="AF4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1117,16 +1132,19 @@
       <c r="AE5" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF5" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1212,16 +1230,19 @@
       <c r="AE6" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF6" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1307,16 +1328,19 @@
       <c r="AE7" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1402,16 +1426,19 @@
       <c r="AE8" t="n">
         <v>0.21</v>
       </c>
+      <c r="AF8" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1497,16 +1524,19 @@
       <c r="AE9" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF9" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1592,16 +1622,19 @@
       <c r="AE10" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF10" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1687,16 +1720,19 @@
       <c r="AE11" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF11" t="n">
+        <v>0.26</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1782,16 +1818,19 @@
       <c r="AE12" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF12" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1877,16 +1916,19 @@
       <c r="AE13" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF13" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1972,16 +2014,19 @@
       <c r="AE14" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF14" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2067,16 +2112,19 @@
       <c r="AE15" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF15" t="n">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2162,16 +2210,19 @@
       <c r="AE16" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2257,16 +2308,19 @@
       <c r="AE17" t="n">
         <v>0.25</v>
       </c>
+      <c r="AF17" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2352,16 +2406,19 @@
       <c r="AE18" t="n">
         <v>0.08</v>
       </c>
+      <c r="AF18" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2447,16 +2504,19 @@
       <c r="AE19" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF19" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2542,16 +2602,19 @@
       <c r="AE20" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF20" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2637,16 +2700,19 @@
       <c r="AE21" t="n">
         <v>0.33</v>
       </c>
+      <c r="AF21" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2732,16 +2798,19 @@
       <c r="AE22" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF22" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2827,16 +2896,19 @@
       <c r="AE23" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF23" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2922,16 +2994,19 @@
       <c r="AE24" t="n">
         <v>0.26</v>
       </c>
+      <c r="AF24" t="n">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3017,16 +3092,19 @@
       <c r="AE25" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AF25" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3112,16 +3190,19 @@
       <c r="AE26" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF26" t="n">
+        <v>0.74</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3207,16 +3288,19 @@
       <c r="AE27" t="n">
         <v>0.49</v>
       </c>
+      <c r="AF27" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3302,16 +3386,19 @@
       <c r="AE28" t="n">
         <v>0.06</v>
       </c>
+      <c r="AF28" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3397,16 +3484,19 @@
       <c r="AE29" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF29" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3492,16 +3582,19 @@
       <c r="AE30" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF30" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3587,16 +3680,19 @@
       <c r="AE31" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF31" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3682,16 +3778,19 @@
       <c r="AE32" t="n">
         <v>0.17</v>
       </c>
+      <c r="AF32" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3777,16 +3876,19 @@
       <c r="AE33" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF33" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3872,16 +3974,19 @@
       <c r="AE34" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF34" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3967,16 +4072,19 @@
       <c r="AE35" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF35" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4062,16 +4170,19 @@
       <c r="AE36" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF36" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4157,16 +4268,19 @@
       <c r="AE37" t="n">
         <v>0.38</v>
       </c>
+      <c r="AF37" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4252,16 +4366,19 @@
       <c r="AE38" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF38" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4347,16 +4464,19 @@
       <c r="AE39" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF39" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4442,16 +4562,19 @@
       <c r="AE40" t="n">
         <v>0.04</v>
       </c>
+      <c r="AF40" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4537,16 +4660,19 @@
       <c r="AE41" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF41" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4632,16 +4758,19 @@
       <c r="AE42" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF42" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4727,16 +4856,19 @@
       <c r="AE43" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF43" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4822,16 +4954,19 @@
       <c r="AE44" t="n">
         <v>0.28</v>
       </c>
+      <c r="AF44" t="n">
+        <v>0.66</v>
+      </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4917,16 +5052,19 @@
       <c r="AE45" t="n">
         <v>0.52</v>
       </c>
+      <c r="AF45" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -5012,16 +5150,19 @@
       <c r="AE46" t="n">
         <v>0.02</v>
       </c>
+      <c r="AF46" t="n">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -5107,16 +5248,19 @@
       <c r="AE47" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF47" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -5202,16 +5346,19 @@
       <c r="AE48" t="n">
         <v>0.12</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0.22</v>
+      </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5297,16 +5444,19 @@
       <c r="AE49" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF49" t="n">
+        <v>0.38</v>
+      </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5392,16 +5542,19 @@
       <c r="AE50" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF50" t="n">
+        <v>0.51</v>
+      </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5487,16 +5640,19 @@
       <c r="AE51" t="n">
         <v>0.53</v>
       </c>
+      <c r="AF51" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5582,16 +5738,19 @@
       <c r="AE52" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF52" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -5677,16 +5836,19 @@
       <c r="AE53" t="n">
         <v>0.37</v>
       </c>
+      <c r="AF53" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5772,16 +5934,19 @@
       <c r="AE54" t="n">
         <v>0.1</v>
       </c>
+      <c r="AF54" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -5867,16 +6032,19 @@
       <c r="AE55" t="n">
         <v>0.4</v>
       </c>
+      <c r="AF55" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -5962,16 +6130,19 @@
       <c r="AE56" t="n">
         <v>0.14</v>
       </c>
+      <c r="AF56" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -6057,16 +6228,19 @@
       <c r="AE57" t="n">
         <v>0.32</v>
       </c>
+      <c r="AF57" t="n">
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -6152,16 +6326,19 @@
       <c r="AE58" t="n">
         <v>0.18</v>
       </c>
+      <c r="AF58" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -6247,16 +6424,19 @@
       <c r="AE59" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF59" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -6342,16 +6522,19 @@
       <c r="AE60" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF60" t="n">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -6437,16 +6620,19 @@
       <c r="AE61" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF61" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -6532,16 +6718,19 @@
       <c r="AE62" t="n">
         <v>0.15</v>
       </c>
+      <c r="AF62" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -6627,16 +6816,19 @@
       <c r="AE63" t="n">
         <v>0.46</v>
       </c>
+      <c r="AF63" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -6722,16 +6914,19 @@
       <c r="AE64" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF64" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -6817,16 +7012,19 @@
       <c r="AE65" t="n">
         <v>0.42</v>
       </c>
+      <c r="AF65" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -6912,16 +7110,19 @@
       <c r="AE66" t="n">
         <v>0.16</v>
       </c>
+      <c r="AF66" t="n">
+        <v>0.39</v>
+      </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -7007,16 +7208,19 @@
       <c r="AE67" t="n">
         <v>0.41</v>
       </c>
+      <c r="AF67" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -7102,16 +7306,19 @@
       <c r="AE68" t="n">
         <v>0.09</v>
       </c>
+      <c r="AF68" t="n">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -7197,16 +7404,19 @@
       <c r="AE69" t="n">
         <v>0.29</v>
       </c>
+      <c r="AF69" t="n">
+        <v>0.36</v>
+      </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -7292,16 +7502,19 @@
       <c r="AE70" t="n">
         <v>0.19</v>
       </c>
+      <c r="AF70" t="n">
+        <v>0.4</v>
+      </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -7387,16 +7600,19 @@
       <c r="AE71" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF71" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -7482,16 +7698,19 @@
       <c r="AE72" t="n">
         <v>0.13</v>
       </c>
+      <c r="AF72" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -7577,16 +7796,19 @@
       <c r="AE73" t="n">
         <v>0.39</v>
       </c>
+      <c r="AF73" t="n">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -7672,16 +7894,19 @@
       <c r="AE74" t="n">
         <v>0.11</v>
       </c>
+      <c r="AF74" t="n">
+        <v>0.29</v>
+      </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -7767,10 +7992,13 @@
       <c r="AE75" t="n">
         <v>0.36</v>
       </c>
+      <c r="AF75" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7784,7 +8012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7792,7 +8020,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7883,13 +8111,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -7975,13 +8206,16 @@
       <c r="AD2" t="n">
         <v>1975</v>
       </c>
+      <c r="AE2" t="n">
+        <v>1904</v>
+      </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -8067,13 +8301,16 @@
       <c r="AD3" t="n">
         <v>471</v>
       </c>
+      <c r="AE3" t="n">
+        <v>459</v>
+      </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -8159,13 +8396,16 @@
       <c r="AD4" t="n">
         <v>729</v>
       </c>
+      <c r="AE4" t="n">
+        <v>699</v>
+      </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -8251,13 +8491,16 @@
       <c r="AD5" t="n">
         <v>775</v>
       </c>
+      <c r="AE5" t="n">
+        <v>746</v>
+      </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n">
         <v>1399</v>
@@ -8343,13 +8586,16 @@
       <c r="AD6" t="n">
         <v>903</v>
       </c>
+      <c r="AE6" t="n">
+        <v>867</v>
+      </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="n">
         <v>1088</v>
@@ -8435,13 +8681,16 @@
       <c r="AD7" t="n">
         <v>681</v>
       </c>
+      <c r="AE7" t="n">
+        <v>661</v>
+      </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="n">
         <v>614</v>
@@ -8527,13 +8776,16 @@
       <c r="AD8" t="n">
         <v>391</v>
       </c>
+      <c r="AE8" t="n">
+        <v>376</v>
+      </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>722</v>
@@ -8619,13 +8871,16 @@
       <c r="AD9" t="n">
         <v>459</v>
       </c>
+      <c r="AE9" t="n">
+        <v>433</v>
+      </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
         <v>729</v>
@@ -8711,13 +8966,16 @@
       <c r="AD10" t="n">
         <v>473</v>
       </c>
+      <c r="AE10" t="n">
+        <v>468</v>
+      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
         <v>443</v>
@@ -8803,13 +9061,16 @@
       <c r="AD11" t="n">
         <v>268</v>
       </c>
+      <c r="AE11" t="n">
+        <v>258</v>
+      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" t="n">
         <v>677</v>
@@ -8895,13 +9156,16 @@
       <c r="AD12" t="n">
         <v>444</v>
       </c>
+      <c r="AE12" t="n">
+        <v>434</v>
+      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="n">
         <v>359</v>
@@ -8987,13 +9251,16 @@
       <c r="AD13" t="n">
         <v>208</v>
       </c>
+      <c r="AE13" t="n">
+        <v>193</v>
+      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="n">
         <v>171</v>
@@ -9079,13 +9346,16 @@
       <c r="AD14" t="n">
         <v>123</v>
       </c>
+      <c r="AE14" t="n">
+        <v>118</v>
+      </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="n">
         <v>390</v>
@@ -9171,13 +9441,16 @@
       <c r="AD15" t="n">
         <v>225</v>
       </c>
+      <c r="AE15" t="n">
+        <v>194</v>
+      </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>1128</v>
@@ -9263,13 +9536,16 @@
       <c r="AD16" t="n">
         <v>738</v>
       </c>
+      <c r="AE16" t="n">
+        <v>753</v>
+      </c>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C17" t="n">
         <v>840</v>
@@ -9355,13 +9631,16 @@
       <c r="AD17" t="n">
         <v>639</v>
       </c>
+      <c r="AE17" t="n">
+        <v>580</v>
+      </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" t="n">
         <v>340</v>
@@ -9447,13 +9726,16 @@
       <c r="AD18" t="n">
         <v>249</v>
       </c>
+      <c r="AE18" t="n">
+        <v>249</v>
+      </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>1514</v>
@@ -9539,13 +9821,16 @@
       <c r="AD19" t="n">
         <v>956</v>
       </c>
+      <c r="AE19" t="n">
+        <v>937</v>
+      </c>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="n">
         <v>1587</v>
@@ -9631,13 +9916,16 @@
       <c r="AD20" t="n">
         <v>1019</v>
       </c>
+      <c r="AE20" t="n">
+        <v>967</v>
+      </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -9723,13 +10011,16 @@
       <c r="AD21" t="n">
         <v>239</v>
       </c>
+      <c r="AE21" t="n">
+        <v>239</v>
+      </c>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -9815,13 +10106,16 @@
       <c r="AD22" t="n">
         <v>369</v>
       </c>
+      <c r="AE22" t="n">
+        <v>365</v>
+      </c>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -9907,13 +10201,16 @@
       <c r="AD23" t="n">
         <v>348</v>
       </c>
+      <c r="AE23" t="n">
+        <v>334</v>
+      </c>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -9999,13 +10296,16 @@
       <c r="AD24" t="n">
         <v>232</v>
       </c>
+      <c r="AE24" t="n">
+        <v>220</v>
+      </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -10091,13 +10391,16 @@
       <c r="AD25" t="n">
         <v>360</v>
       </c>
+      <c r="AE25" t="n">
+        <v>335</v>
+      </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -10183,13 +10486,16 @@
       <c r="AD26" t="n">
         <v>427</v>
       </c>
+      <c r="AE26" t="n">
+        <v>411</v>
+      </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" t="n">
         <v>1726</v>
@@ -10275,13 +10581,16 @@
       <c r="AD27" t="n">
         <v>1029</v>
       </c>
+      <c r="AE27" t="n">
+        <v>983</v>
+      </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="n">
         <v>667</v>
@@ -10367,13 +10676,16 @@
       <c r="AD28" t="n">
         <v>456</v>
       </c>
+      <c r="AE28" t="n">
+        <v>447</v>
+      </c>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" t="n">
         <v>333</v>
@@ -10459,13 +10771,16 @@
       <c r="AD29" t="n">
         <v>230</v>
       </c>
+      <c r="AE29" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" t="n">
         <v>375</v>
@@ -10551,13 +10866,16 @@
       <c r="AD30" t="n">
         <v>260</v>
       </c>
+      <c r="AE30" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" t="n">
         <v>632</v>
@@ -10643,13 +10961,16 @@
       <c r="AD31" t="n">
         <v>373</v>
       </c>
+      <c r="AE31" t="n">
+        <v>304</v>
+      </c>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
         <v>750</v>
@@ -10735,13 +11056,16 @@
       <c r="AD32" t="n">
         <v>339</v>
       </c>
+      <c r="AE32" t="n">
+        <v>237</v>
+      </c>
     </row>
-    <row r="33" spans="1:30">
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" t="n">
         <v>111</v>
@@ -10827,13 +11151,16 @@
       <c r="AD33" t="n">
         <v>304</v>
       </c>
+      <c r="AE33" t="n">
+        <v>305</v>
+      </c>
     </row>
-    <row r="34" spans="1:30">
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="n">
         <v>765</v>
@@ -10919,13 +11246,16 @@
       <c r="AD34" t="n">
         <v>291</v>
       </c>
+      <c r="AE34" t="n">
+        <v>299</v>
+      </c>
     </row>
-    <row r="35" spans="1:30">
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="n">
         <v>146</v>
@@ -11011,13 +11341,16 @@
       <c r="AD35" t="n">
         <v>428</v>
       </c>
+      <c r="AE35" t="n">
+        <v>544</v>
+      </c>
     </row>
-    <row r="36" spans="1:30">
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C36" t="n">
         <v>11</v>
@@ -11103,13 +11436,16 @@
       <c r="AD36" t="n">
         <v>443</v>
       </c>
+      <c r="AE36" t="n">
+        <v>377</v>
+      </c>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" t="n">
         <v>102</v>
@@ -11195,13 +11531,16 @@
       <c r="AD37" t="n">
         <v>528</v>
       </c>
+      <c r="AE37" t="n">
+        <v>420</v>
+      </c>
     </row>
-    <row r="38" spans="1:30">
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38" t="n">
         <v>2988</v>
@@ -11287,10 +11626,13 @@
       <c r="AD38" t="n">
         <v>1004</v>
       </c>
+      <c r="AE38" t="n">
+        <v>1107</v>
+      </c>
     </row>
-    <row r="39" spans="1:30">
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -11321,6 +11663,7 @@
       <c r="AB39" t="s"/>
       <c r="AC39" t="s"/>
       <c r="AD39" t="s"/>
+      <c r="AE39" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="data" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,260 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
-  <si>
-    <t>trideni</t>
-  </si>
-  <si>
-    <t>kategorie trideni</t>
-  </si>
-  <si>
-    <t>ukazatel</t>
-  </si>
-  <si>
-    <t>19. 3. 2020</t>
-  </si>
-  <si>
-    <t>1. 4. 2020</t>
-  </si>
-  <si>
-    <t>15. 4. 2020</t>
-  </si>
-  <si>
-    <t>28. 4. 2020</t>
-  </si>
-  <si>
-    <t>12. 5. 2020</t>
-  </si>
-  <si>
-    <t>26. 5. 2020</t>
-  </si>
-  <si>
-    <t>16. 6. 2020</t>
-  </si>
-  <si>
-    <t>30. 6. 2020</t>
-  </si>
-  <si>
-    <t>21. 7. 2020</t>
-  </si>
-  <si>
-    <t>11. 8. 2020</t>
-  </si>
-  <si>
-    <t>1. 9. 2020</t>
-  </si>
-  <si>
-    <t>15. 9. 2020</t>
-  </si>
-  <si>
-    <t>30. 9. 2020</t>
-  </si>
-  <si>
-    <t>13. 10. 2020</t>
-  </si>
-  <si>
-    <t>27. 10. 2020</t>
-  </si>
-  <si>
-    <t>10. 11. 2020</t>
-  </si>
-  <si>
-    <t>24. 11. 2020</t>
-  </si>
-  <si>
-    <t>8. 12. 2020</t>
-  </si>
-  <si>
-    <t>22. 12. 2020</t>
-  </si>
-  <si>
-    <t>5. 1. 2021</t>
-  </si>
-  <si>
-    <t>26. 1. 2021</t>
-  </si>
-  <si>
-    <t>16. 2. 2021</t>
-  </si>
-  <si>
-    <t>2. 3. 2021</t>
-  </si>
-  <si>
-    <t>16. 3. 2021</t>
-  </si>
-  <si>
-    <t>30. 3. 2021</t>
-  </si>
-  <si>
-    <t>13. 4. 2021</t>
-  </si>
-  <si>
-    <t>4. 5. 2021</t>
-  </si>
-  <si>
-    <t>25. 5. 2021</t>
-  </si>
-  <si>
-    <t>22. 6. 2021</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Celkem</t>
-  </si>
-  <si>
-    <t>Imunizovaní</t>
-  </si>
-  <si>
-    <t>Částečně imunizovaní</t>
-  </si>
-  <si>
-    <t>Věk</t>
-  </si>
-  <si>
-    <t>18 až 34 let</t>
-  </si>
-  <si>
-    <t>35 až 54 let</t>
-  </si>
-  <si>
-    <t>55 a více let</t>
-  </si>
-  <si>
-    <t>Vzdělání</t>
-  </si>
-  <si>
-    <t>ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>VŠ</t>
-  </si>
-  <si>
-    <t>Věk a vzdělání</t>
-  </si>
-  <si>
-    <t>18 až 54 let, ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>18 až 54 let, SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>18 až 54 let, VŠ</t>
-  </si>
-  <si>
-    <t>55 a více let, ZŠ a SŠ bez maturity</t>
-  </si>
-  <si>
-    <t>55 a více let, SŠ s maturitou</t>
-  </si>
-  <si>
-    <t>55 a více let, VŠ</t>
-  </si>
-  <si>
-    <t>Příjem domácnosti aktuální</t>
-  </si>
-  <si>
-    <t>Pod hranicí chudoby</t>
-  </si>
-  <si>
-    <t>Nízkopříjmová</t>
-  </si>
-  <si>
-    <t>Nadstandardně příjmová</t>
-  </si>
-  <si>
-    <t>Vysokopříjmová</t>
-  </si>
-  <si>
-    <t>Pohlaví</t>
-  </si>
-  <si>
-    <t>Muž</t>
-  </si>
-  <si>
-    <t>Žena</t>
-  </si>
-  <si>
-    <t>Pohlaví a věk</t>
-  </si>
-  <si>
-    <t>Muž, 18–34 let</t>
-  </si>
-  <si>
-    <t>Muž, 35–54 let</t>
-  </si>
-  <si>
-    <t>Muž, 55 a více let</t>
-  </si>
-  <si>
-    <t>Žena, 18–34 let</t>
-  </si>
-  <si>
-    <t>Žena, 35–54 let</t>
-  </si>
-  <si>
-    <t>Žena, 55 a více let</t>
-  </si>
-  <si>
-    <t>Velikost místa bydliště</t>
-  </si>
-  <si>
-    <t>Méně než 20 000 obyvatel</t>
-  </si>
-  <si>
-    <t>20 000 až 99 999 obyvatel</t>
-  </si>
-  <si>
-    <t>100 000 a více obyvatel</t>
-  </si>
-  <si>
-    <t>Praha</t>
-  </si>
-  <si>
-    <t>Kontakty a protektivní aktivity</t>
-  </si>
-  <si>
-    <t>Izolovaní</t>
-  </si>
-  <si>
-    <t>Sociálně středně aktivní s větší ochranou</t>
-  </si>
-  <si>
-    <t>Sociálně středně aktivní s menší ochranou</t>
-  </si>
-  <si>
-    <t>Sociálně vysoce aktivní s větší ochranou</t>
-  </si>
-  <si>
-    <t>Sociálně vysoce aktivní s menší ochranou</t>
-  </si>
-  <si>
-    <t>Znalost nakaženého</t>
-  </si>
-  <si>
-    <t>Ano, v přímém či nepřímém kontaktu</t>
-  </si>
-  <si>
-    <t>Ano, ale nebyli v kontaktu</t>
-  </si>
-  <si>
-    <t>Nezná nakaženého</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-  <si>
-    <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -327,25 +73,92 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -638,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF76"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -646,113 +459,188 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ukazatel</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -841,16 +729,25 @@
       <c r="AF2" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -939,16 +836,25 @@
       <c r="AF3" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG3" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1037,16 +943,25 @@
       <c r="AF4" t="n">
         <v>0.08</v>
       </c>
+      <c r="AG4" t="n">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1135,16 +1050,25 @@
       <c r="AF5" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG5" t="n">
+        <v>0.32</v>
+      </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1233,16 +1157,25 @@
       <c r="AF6" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG6" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1331,16 +1264,25 @@
       <c r="AF7" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG7" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1429,16 +1371,25 @@
       <c r="AF8" t="n">
         <v>0.58</v>
       </c>
+      <c r="AG8" t="n">
+        <v>0.68</v>
+      </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1527,16 +1478,25 @@
       <c r="AF9" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG9" t="n">
+        <v>0.09</v>
+      </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1625,16 +1585,25 @@
       <c r="AF10" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG10" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="11" spans="1:32">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1723,16 +1692,25 @@
       <c r="AF11" t="n">
         <v>0.26</v>
       </c>
+      <c r="AG11" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="12" spans="1:32">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1821,16 +1799,25 @@
       <c r="AF12" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG12" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="13" spans="1:32">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1919,16 +1906,25 @@
       <c r="AF13" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG13" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="14" spans="1:32">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2017,16 +2013,25 @@
       <c r="AF14" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG14" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="15" spans="1:32">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2115,16 +2120,25 @@
       <c r="AF15" t="n">
         <v>0.37</v>
       </c>
+      <c r="AG15" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="16" spans="1:32">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18 až 54 let, ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2213,16 +2227,25 @@
       <c r="AF16" t="n">
         <v>0.13</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="17" spans="1:32">
-      <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>18 až 54 let, ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2311,16 +2334,25 @@
       <c r="AF17" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG17" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="18" spans="1:32">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>18 až 54 let, SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -2409,16 +2441,25 @@
       <c r="AF18" t="n">
         <v>0.14</v>
       </c>
+      <c r="AG18" t="n">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="19" spans="1:32">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>18 až 54 let, SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2507,16 +2548,25 @@
       <c r="AF19" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG19" t="n">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="20" spans="1:32">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>18 až 54 let, VŠ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2605,16 +2655,25 @@
       <c r="AF20" t="n">
         <v>0.24</v>
       </c>
+      <c r="AG20" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="21" spans="1:32">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>35</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18 až 54 let, VŠ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2703,16 +2762,25 @@
       <c r="AF21" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG21" t="n">
+        <v>0.23</v>
+      </c>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>55 a více let, ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2801,16 +2869,25 @@
       <c r="AF22" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG22" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>55 a více let, ZŠ a SŠ bez maturity</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2899,16 +2976,25 @@
       <c r="AF23" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG23" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="24" spans="1:32">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>34</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>55 a více let, SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2997,16 +3083,25 @@
       <c r="AF24" t="n">
         <v>0.67</v>
       </c>
+      <c r="AG24" t="n">
+        <v>0.82</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>55 a více let, SŠ s maturitou</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -3095,16 +3190,25 @@
       <c r="AF25" t="n">
         <v>0.19</v>
       </c>
+      <c r="AG25" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
-    <row r="26" spans="1:32">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>55 a více let, VŠ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -3193,16 +3297,25 @@
       <c r="AF26" t="n">
         <v>0.74</v>
       </c>
+      <c r="AG26" t="n">
+        <v>0.86</v>
+      </c>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>35</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>55 a více let, VŠ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -3291,16 +3404,25 @@
       <c r="AF27" t="n">
         <v>0.15</v>
       </c>
+      <c r="AG27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="28" spans="1:32">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -3389,16 +3511,25 @@
       <c r="AF28" t="n">
         <v>0.22</v>
       </c>
+      <c r="AG28" t="n">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="29" spans="1:32">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -3487,16 +3618,25 @@
       <c r="AF29" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG29" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="30" spans="1:32">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>34</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -3585,16 +3725,25 @@
       <c r="AF30" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG30" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="31" spans="1:32">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3683,16 +3832,25 @@
       <c r="AF31" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG31" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="32" spans="1:32">
-      <c r="A32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3781,16 +3939,25 @@
       <c r="AF32" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG32" t="n">
+        <v>0.57</v>
+      </c>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3879,16 +4046,25 @@
       <c r="AF33" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG33" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3977,16 +4153,25 @@
       <c r="AF34" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG34" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -4075,16 +4260,25 @@
       <c r="AF35" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG35" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -4173,16 +4367,25 @@
       <c r="AF36" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG36" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -4271,16 +4474,25 @@
       <c r="AF37" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG37" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -4369,16 +4581,25 @@
       <c r="AF38" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG38" t="n">
+        <v>0.46</v>
+      </c>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" t="s">
-        <v>35</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -4467,16 +4688,25 @@
       <c r="AF39" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG39" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="40" spans="1:32">
-      <c r="A40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -4565,16 +4795,25 @@
       <c r="AF40" t="n">
         <v>0.11</v>
       </c>
+      <c r="AG40" t="n">
+        <v>0.27</v>
+      </c>
     </row>
-    <row r="41" spans="1:32">
-      <c r="A41" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" t="s">
-        <v>35</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -4663,16 +4902,25 @@
       <c r="AF41" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG41" t="n">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="42" spans="1:32">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -4761,16 +5009,25 @@
       <c r="AF42" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG42" t="n">
+        <v>0.54</v>
+      </c>
     </row>
-    <row r="43" spans="1:32">
-      <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -4859,16 +5116,25 @@
       <c r="AF43" t="n">
         <v>0.47</v>
       </c>
+      <c r="AG43" t="n">
+        <v>0.15</v>
+      </c>
     </row>
-    <row r="44" spans="1:32">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4957,16 +5223,25 @@
       <c r="AF44" t="n">
         <v>0.66</v>
       </c>
+      <c r="AG44" t="n">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="45" spans="1:32">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" t="s">
-        <v>35</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -5055,16 +5330,25 @@
       <c r="AF45" t="n">
         <v>0.16</v>
       </c>
+      <c r="AG45" t="n">
+        <v>0.08</v>
+      </c>
     </row>
-    <row r="46" spans="1:32">
-      <c r="A46" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -5153,16 +5437,25 @@
       <c r="AF46" t="n">
         <v>0.04</v>
       </c>
+      <c r="AG46" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="47" spans="1:32">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" t="s">
-        <v>35</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -5251,16 +5544,25 @@
       <c r="AF47" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG47" t="n">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="48" spans="1:32">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D48" t="n">
         <v>0</v>
@@ -5349,16 +5651,25 @@
       <c r="AF48" t="n">
         <v>0.22</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="49" spans="1:32">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" t="s">
-        <v>35</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -5447,16 +5758,25 @@
       <c r="AF49" t="n">
         <v>0.38</v>
       </c>
+      <c r="AG49" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="50" spans="1:32">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>34</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -5545,16 +5865,25 @@
       <c r="AF50" t="n">
         <v>0.51</v>
       </c>
+      <c r="AG50" t="n">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>35</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -5643,16 +5972,25 @@
       <c r="AF51" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG51" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="52" spans="1:32">
-      <c r="A52" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>34</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D52" t="n">
         <v>0</v>
@@ -5741,16 +6079,25 @@
       <c r="AF52" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG52" t="n">
+        <v>0.48</v>
+      </c>
     </row>
-    <row r="53" spans="1:32">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>35</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -5839,16 +6186,25 @@
       <c r="AF53" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG53" t="n">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="54" spans="1:32">
-      <c r="A54" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" t="s">
-        <v>34</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -5937,16 +6293,25 @@
       <c r="AF54" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="55" spans="1:32">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" t="s">
-        <v>35</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -6035,16 +6400,25 @@
       <c r="AF55" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG55" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="56" spans="1:32">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" t="s">
-        <v>34</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -6133,16 +6507,25 @@
       <c r="AF56" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG56" t="n">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="57" spans="1:32">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
-        <v>35</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -6231,16 +6614,25 @@
       <c r="AF57" t="n">
         <v>0.25</v>
       </c>
+      <c r="AG57" t="n">
+        <v>0.11</v>
+      </c>
     </row>
-    <row r="58" spans="1:32">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" t="s">
-        <v>34</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -6329,16 +6721,25 @@
       <c r="AF58" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG58" t="n">
+        <v>0.64</v>
+      </c>
     </row>
-    <row r="59" spans="1:32">
-      <c r="A59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" t="s">
-        <v>70</v>
-      </c>
-      <c r="C59" t="s">
-        <v>35</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -6427,16 +6828,25 @@
       <c r="AF59" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG59" t="n">
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="60" spans="1:32">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" t="s">
-        <v>34</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -6525,16 +6935,25 @@
       <c r="AF60" t="n">
         <v>0.43</v>
       </c>
+      <c r="AG60" t="n">
+        <v>0.53</v>
+      </c>
     </row>
-    <row r="61" spans="1:32">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>35</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -6623,16 +7042,25 @@
       <c r="AF61" t="n">
         <v>0.2</v>
       </c>
+      <c r="AG61" t="n">
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="62" spans="1:32">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" t="s">
-        <v>34</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -6721,16 +7149,25 @@
       <c r="AF62" t="n">
         <v>0.49</v>
       </c>
+      <c r="AG62" t="n">
+        <v>0.71</v>
+      </c>
     </row>
-    <row r="63" spans="1:32">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -6819,16 +7256,25 @@
       <c r="AF63" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG63" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="64" spans="1:32">
-      <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>34</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -6917,16 +7363,25 @@
       <c r="AF64" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG64" t="n">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="65" spans="1:32">
-      <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" t="s">
-        <v>35</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -7015,16 +7470,25 @@
       <c r="AF65" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG65" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="66" spans="1:32">
-      <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" t="s">
-        <v>34</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -7113,16 +7577,25 @@
       <c r="AF66" t="n">
         <v>0.39</v>
       </c>
+      <c r="AG66" t="n">
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="67" spans="1:32">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" t="s">
-        <v>35</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -7211,16 +7684,25 @@
       <c r="AF67" t="n">
         <v>0.32</v>
       </c>
+      <c r="AG67" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="68" spans="1:32">
-      <c r="A68" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>34</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D68" t="n">
         <v>0</v>
@@ -7309,16 +7791,25 @@
       <c r="AF68" t="n">
         <v>0.21</v>
       </c>
+      <c r="AG68" t="n">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="69" spans="1:32">
-      <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" t="s">
-        <v>35</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -7407,16 +7898,25 @@
       <c r="AF69" t="n">
         <v>0.36</v>
       </c>
+      <c r="AG69" t="n">
+        <v>0.17</v>
+      </c>
     </row>
-    <row r="70" spans="1:32">
-      <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -7505,16 +8005,25 @@
       <c r="AF70" t="n">
         <v>0.4</v>
       </c>
+      <c r="AG70" t="n">
+        <v>0.59</v>
+      </c>
     </row>
-    <row r="71" spans="1:32">
-      <c r="A71" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" t="s">
-        <v>35</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -7603,16 +8112,25 @@
       <c r="AF71" t="n">
         <v>0.3</v>
       </c>
+      <c r="AG71" t="n">
+        <v>0.14</v>
+      </c>
     </row>
-    <row r="72" spans="1:32">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -7701,16 +8219,25 @@
       <c r="AF72" t="n">
         <v>0.34</v>
       </c>
+      <c r="AG72" t="n">
+        <v>0.55</v>
+      </c>
     </row>
-    <row r="73" spans="1:32">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" t="s">
-        <v>35</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -7799,16 +8326,25 @@
       <c r="AF73" t="n">
         <v>0.33</v>
       </c>
+      <c r="AG73" t="n">
+        <v>0.16</v>
+      </c>
     </row>
-    <row r="74" spans="1:32">
-      <c r="A74" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" t="s">
-        <v>34</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Imunizovaní</t>
+        </is>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -7897,16 +8433,25 @@
       <c r="AF74" t="n">
         <v>0.29</v>
       </c>
+      <c r="AG74" t="n">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="75" spans="1:32">
-      <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>80</v>
-      </c>
-      <c r="C75" t="s">
-        <v>35</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Částečně imunizovaní</t>
+        </is>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -7995,14 +8540,19 @@
       <c r="AF75" t="n">
         <v>0.31</v>
       </c>
+      <c r="AG75" t="n">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="76" spans="1:32">
-      <c r="A76" t="s">
-        <v>81</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8012,7 +8562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE39"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8020,107 +8570,178 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>31</v>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>trideni</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>kategorie trideni</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>19. 3. 2020</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>1. 4. 2020</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>15. 4. 2020</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>28. 4. 2020</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>12. 5. 2020</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>26. 5. 2020</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>16. 6. 2020</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>30. 6. 2020</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>21. 7. 2020</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>11. 8. 2020</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>1. 9. 2020</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>15. 9. 2020</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>30. 9. 2020</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>13. 10. 2020</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>27. 10. 2020</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>10. 11. 2020</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>24. 11. 2020</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>8. 12. 2020</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>22. 12. 2020</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>5. 1. 2021</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>26. 1. 2021</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>16. 2. 2021</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>2. 3. 2021</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>16. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>30. 3. 2021</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>13. 4. 2021</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>4. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>25. 5. 2021</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>22. 6. 2021</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>20. 7. 2021</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celkem</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -8209,13 +8830,20 @@
       <c r="AE2" t="n">
         <v>1904</v>
       </c>
+      <c r="AF2" t="n">
+        <v>1782</v>
+      </c>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18 až 34 let</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -8304,13 +8932,20 @@
       <c r="AE3" t="n">
         <v>459</v>
       </c>
+      <c r="AF3" t="n">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35 až 54 let</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -8399,13 +9034,20 @@
       <c r="AE4" t="n">
         <v>699</v>
       </c>
+      <c r="AF4" t="n">
+        <v>648</v>
+      </c>
     </row>
-    <row r="5" spans="1:31">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Věk</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>55 a více let</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -8494,13 +9136,20 @@
       <c r="AE5" t="n">
         <v>746</v>
       </c>
+      <c r="AF5" t="n">
+        <v>704</v>
+      </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>1399</v>
@@ -8589,13 +9238,20 @@
       <c r="AE6" t="n">
         <v>867</v>
       </c>
+      <c r="AF6" t="n">
+        <v>805</v>
+      </c>
     </row>
-    <row r="7" spans="1:31">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>1088</v>
@@ -8684,13 +9340,20 @@
       <c r="AE7" t="n">
         <v>661</v>
       </c>
+      <c r="AF7" t="n">
+        <v>622</v>
+      </c>
     </row>
-    <row r="8" spans="1:31">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vzdělání</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>VŠ</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>614</v>
@@ -8779,13 +9442,20 @@
       <c r="AE8" t="n">
         <v>376</v>
       </c>
+      <c r="AF8" t="n">
+        <v>355</v>
+      </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>18 až 54 let, ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>722</v>
@@ -8874,13 +9544,20 @@
       <c r="AE9" t="n">
         <v>433</v>
       </c>
+      <c r="AF9" t="n">
+        <v>399</v>
+      </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>18 až 54 let, SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>729</v>
@@ -8969,13 +9646,20 @@
       <c r="AE10" t="n">
         <v>468</v>
       </c>
+      <c r="AF10" t="n">
+        <v>435</v>
+      </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18 až 54 let, VŠ</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>443</v>
@@ -9064,13 +9748,20 @@
       <c r="AE11" t="n">
         <v>258</v>
       </c>
+      <c r="AF11" t="n">
+        <v>245</v>
+      </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>55 a více let, ZŠ a SŠ bez maturity</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>677</v>
@@ -9159,13 +9850,20 @@
       <c r="AE12" t="n">
         <v>434</v>
       </c>
+      <c r="AF12" t="n">
+        <v>406</v>
+      </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="A13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>55 a více let, SŠ s maturitou</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>359</v>
@@ -9254,13 +9952,20 @@
       <c r="AE13" t="n">
         <v>193</v>
       </c>
+      <c r="AF13" t="n">
+        <v>187</v>
+      </c>
     </row>
-    <row r="14" spans="1:31">
-      <c r="A14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Věk a vzdělání</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>55 a více let, VŠ</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>171</v>
@@ -9349,13 +10054,20 @@
       <c r="AE14" t="n">
         <v>118</v>
       </c>
+      <c r="AF14" t="n">
+        <v>110</v>
+      </c>
     </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pod hranicí chudoby</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>390</v>
@@ -9444,13 +10156,20 @@
       <c r="AE15" t="n">
         <v>194</v>
       </c>
+      <c r="AF15" t="n">
+        <v>201</v>
+      </c>
     </row>
-    <row r="16" spans="1:31">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nízkopříjmová</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>1128</v>
@@ -9539,13 +10258,20 @@
       <c r="AE16" t="n">
         <v>753</v>
       </c>
+      <c r="AF16" t="n">
+        <v>684</v>
+      </c>
     </row>
-    <row r="17" spans="1:31">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nadstandardně příjmová</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>840</v>
@@ -9634,13 +10360,20 @@
       <c r="AE17" t="n">
         <v>580</v>
       </c>
+      <c r="AF17" t="n">
+        <v>557</v>
+      </c>
     </row>
-    <row r="18" spans="1:31">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Příjem domácnosti aktuální</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vysokopříjmová</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>340</v>
@@ -9729,13 +10462,20 @@
       <c r="AE18" t="n">
         <v>249</v>
       </c>
+      <c r="AF18" t="n">
+        <v>236</v>
+      </c>
     </row>
-    <row r="19" spans="1:31">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>57</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Muž</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>1514</v>
@@ -9824,13 +10564,20 @@
       <c r="AE19" t="n">
         <v>937</v>
       </c>
+      <c r="AF19" t="n">
+        <v>863</v>
+      </c>
     </row>
-    <row r="20" spans="1:31">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Pohlaví</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Žena</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>1587</v>
@@ -9919,13 +10666,20 @@
       <c r="AE20" t="n">
         <v>967</v>
       </c>
+      <c r="AF20" t="n">
+        <v>919</v>
+      </c>
     </row>
-    <row r="21" spans="1:31">
-      <c r="A21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Muž, 18–34 let</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>388</v>
@@ -10014,13 +10768,20 @@
       <c r="AE21" t="n">
         <v>239</v>
       </c>
+      <c r="AF21" t="n">
+        <v>225</v>
+      </c>
     </row>
-    <row r="22" spans="1:31">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Muž, 35–54 let</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>587</v>
@@ -10109,13 +10870,20 @@
       <c r="AE22" t="n">
         <v>365</v>
       </c>
+      <c r="AF22" t="n">
+        <v>326</v>
+      </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Muž, 55 a více let</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>539</v>
@@ -10204,13 +10972,20 @@
       <c r="AE23" t="n">
         <v>334</v>
       </c>
+      <c r="AF23" t="n">
+        <v>312</v>
+      </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Žena, 18–34 let</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>358</v>
@@ -10299,13 +11074,20 @@
       <c r="AE24" t="n">
         <v>220</v>
       </c>
+      <c r="AF24" t="n">
+        <v>206</v>
+      </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Žena, 35–54 let</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>562</v>
@@ -10394,13 +11176,20 @@
       <c r="AE25" t="n">
         <v>335</v>
       </c>
+      <c r="AF25" t="n">
+        <v>322</v>
+      </c>
     </row>
-    <row r="26" spans="1:31">
-      <c r="A26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pohlaví a věk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Žena, 55 a více let</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>667</v>
@@ -10489,13 +11278,20 @@
       <c r="AE26" t="n">
         <v>411</v>
       </c>
+      <c r="AF26" t="n">
+        <v>391</v>
+      </c>
     </row>
-    <row r="27" spans="1:31">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" t="s">
-        <v>67</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Méně než 20 000 obyvatel</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>1726</v>
@@ -10584,13 +11380,20 @@
       <c r="AE27" t="n">
         <v>983</v>
       </c>
+      <c r="AF27" t="n">
+        <v>923</v>
+      </c>
     </row>
-    <row r="28" spans="1:31">
-      <c r="A28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>20 000 až 99 999 obyvatel</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>667</v>
@@ -10679,13 +11482,20 @@
       <c r="AE28" t="n">
         <v>447</v>
       </c>
+      <c r="AF28" t="n">
+        <v>417</v>
+      </c>
     </row>
-    <row r="29" spans="1:31">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100 000 a více obyvatel</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>333</v>
@@ -10774,13 +11584,20 @@
       <c r="AE29" t="n">
         <v>223</v>
       </c>
+      <c r="AF29" t="n">
+        <v>208</v>
+      </c>
     </row>
-    <row r="30" spans="1:31">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>70</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Velikost místa bydliště</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Praha</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>375</v>
@@ -10869,13 +11686,20 @@
       <c r="AE30" t="n">
         <v>251</v>
       </c>
+      <c r="AF30" t="n">
+        <v>234</v>
+      </c>
     </row>
-    <row r="31" spans="1:31">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Izolovaní</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>632</v>
@@ -10964,13 +11788,20 @@
       <c r="AE31" t="n">
         <v>304</v>
       </c>
+      <c r="AF31" t="n">
+        <v>281</v>
+      </c>
     </row>
-    <row r="32" spans="1:31">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" t="s">
-        <v>73</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>750</v>
@@ -11059,13 +11890,20 @@
       <c r="AE32" t="n">
         <v>237</v>
       </c>
+      <c r="AF32" t="n">
+        <v>223</v>
+      </c>
     </row>
-    <row r="33" spans="1:31">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" t="s">
-        <v>74</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sociálně středně aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="C33" t="n">
         <v>111</v>
@@ -11154,13 +11992,20 @@
       <c r="AE33" t="n">
         <v>305</v>
       </c>
+      <c r="AF33" t="n">
+        <v>292</v>
+      </c>
     </row>
-    <row r="34" spans="1:31">
-      <c r="A34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s větší ochranou</t>
+        </is>
       </c>
       <c r="C34" t="n">
         <v>765</v>
@@ -11249,13 +12094,20 @@
       <c r="AE34" t="n">
         <v>299</v>
       </c>
+      <c r="AF34" t="n">
+        <v>267</v>
+      </c>
     </row>
-    <row r="35" spans="1:31">
-      <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kontakty a protektivní aktivity</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sociálně vysoce aktivní s menší ochranou</t>
+        </is>
       </c>
       <c r="C35" t="n">
         <v>146</v>
@@ -11344,13 +12196,20 @@
       <c r="AE35" t="n">
         <v>544</v>
       </c>
+      <c r="AF35" t="n">
+        <v>463</v>
+      </c>
     </row>
-    <row r="36" spans="1:31">
-      <c r="A36" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ano, v přímém či nepřímém kontaktu</t>
+        </is>
       </c>
       <c r="C36" t="n">
         <v>11</v>
@@ -11439,13 +12298,20 @@
       <c r="AE36" t="n">
         <v>377</v>
       </c>
+      <c r="AF36" t="n">
+        <v>327</v>
+      </c>
     </row>
-    <row r="37" spans="1:31">
-      <c r="A37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ano, ale nebyli v kontaktu</t>
+        </is>
       </c>
       <c r="C37" t="n">
         <v>102</v>
@@ -11534,13 +12400,20 @@
       <c r="AE37" t="n">
         <v>420</v>
       </c>
+      <c r="AF37" t="n">
+        <v>349</v>
+      </c>
     </row>
-    <row r="38" spans="1:31">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Znalost nakaženého</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nezná nakaženého</t>
+        </is>
       </c>
       <c r="C38" t="n">
         <v>2988</v>
@@ -11629,43 +12502,49 @@
       <c r="AE38" t="n">
         <v>1107</v>
       </c>
+      <c r="AF38" t="n">
+        <v>1106</v>
+      </c>
     </row>
-    <row r="39" spans="1:31">
-      <c r="A39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
-      <c r="D39" t="s"/>
-      <c r="E39" t="s"/>
-      <c r="F39" t="s"/>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s"/>
-      <c r="J39" t="s"/>
-      <c r="K39" t="s"/>
-      <c r="L39" t="s"/>
-      <c r="M39" t="s"/>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
-      <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
-      <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
-      <c r="V39" t="s"/>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
-      <c r="Y39" t="s"/>
-      <c r="Z39" t="s"/>
-      <c r="AA39" t="s"/>
-      <c r="AB39" t="s"/>
-      <c r="AC39" t="s"/>
-      <c r="AD39" t="s"/>
-      <c r="AE39" t="s"/>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG76"/>
+  <dimension ref="A1:AH76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1481,6 +1507,9 @@
       <c r="AG9" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1588,6 +1617,9 @@
       <c r="AG10" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1695,6 +1727,9 @@
       <c r="AG11" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1802,6 +1837,9 @@
       <c r="AG12" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1909,6 +1947,9 @@
       <c r="AG13" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2016,6 +2057,9 @@
       <c r="AG14" t="n">
         <v>0.64</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2123,6 +2167,9 @@
       <c r="AG15" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2230,6 +2277,9 @@
       <c r="AG16" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2337,6 +2387,9 @@
       <c r="AG17" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2444,6 +2497,9 @@
       <c r="AG18" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2551,6 +2607,9 @@
       <c r="AG19" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2658,6 +2717,9 @@
       <c r="AG20" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2765,6 +2827,9 @@
       <c r="AG21" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2872,6 +2937,9 @@
       <c r="AG22" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2979,6 +3047,9 @@
       <c r="AG23" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3086,6 +3157,9 @@
       <c r="AG24" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3193,6 +3267,9 @@
       <c r="AG25" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3300,6 +3377,9 @@
       <c r="AG26" t="n">
         <v>0.86</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3407,6 +3487,9 @@
       <c r="AG27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3514,6 +3597,9 @@
       <c r="AG28" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3621,6 +3707,9 @@
       <c r="AG29" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3728,6 +3817,9 @@
       <c r="AG30" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3835,6 +3927,9 @@
       <c r="AG31" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3942,6 +4037,9 @@
       <c r="AG32" t="n">
         <v>0.57</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4049,6 +4147,9 @@
       <c r="AG33" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4156,6 +4257,9 @@
       <c r="AG34" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4263,6 +4367,9 @@
       <c r="AG35" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4370,6 +4477,9 @@
       <c r="AG36" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4477,6 +4587,9 @@
       <c r="AG37" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4584,6 +4697,9 @@
       <c r="AG38" t="n">
         <v>0.46</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4691,6 +4807,9 @@
       <c r="AG39" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4798,6 +4917,9 @@
       <c r="AG40" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4905,6 +5027,9 @@
       <c r="AG41" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5012,6 +5137,9 @@
       <c r="AG42" t="n">
         <v>0.54</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5119,6 +5247,9 @@
       <c r="AG43" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5226,6 +5357,9 @@
       <c r="AG44" t="n">
         <v>0.76</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5333,6 +5467,9 @@
       <c r="AG45" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5440,6 +5577,9 @@
       <c r="AG46" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5547,6 +5687,9 @@
       <c r="AG47" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5654,6 +5797,9 @@
       <c r="AG48" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5761,6 +5907,9 @@
       <c r="AG49" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5868,6 +6017,9 @@
       <c r="AG50" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5975,6 +6127,9 @@
       <c r="AG51" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6082,6 +6237,9 @@
       <c r="AG52" t="n">
         <v>0.48</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6189,6 +6347,9 @@
       <c r="AG53" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6296,6 +6457,9 @@
       <c r="AG54" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6403,6 +6567,9 @@
       <c r="AG55" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6510,6 +6677,9 @@
       <c r="AG56" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6617,6 +6787,9 @@
       <c r="AG57" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6724,6 +6897,9 @@
       <c r="AG58" t="n">
         <v>0.64</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6831,6 +7007,9 @@
       <c r="AG59" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6938,6 +7117,9 @@
       <c r="AG60" t="n">
         <v>0.53</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7045,6 +7227,9 @@
       <c r="AG61" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7152,6 +7337,9 @@
       <c r="AG62" t="n">
         <v>0.71</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7259,6 +7447,9 @@
       <c r="AG63" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7366,6 +7557,9 @@
       <c r="AG64" t="n">
         <v>0.52</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7473,6 +7667,9 @@
       <c r="AG65" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7580,6 +7777,9 @@
       <c r="AG66" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7687,6 +7887,9 @@
       <c r="AG67" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7794,6 +7997,9 @@
       <c r="AG68" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7901,6 +8107,9 @@
       <c r="AG69" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8008,6 +8217,9 @@
       <c r="AG70" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8115,6 +8327,9 @@
       <c r="AG71" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8222,6 +8437,9 @@
       <c r="AG72" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8329,6 +8547,9 @@
       <c r="AG73" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8436,6 +8657,9 @@
       <c r="AG74" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8543,11 +8767,14 @@
       <c r="AG75" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -8562,7 +8789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8731,6 +8958,11 @@
           <t>20. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>24. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8833,6 +9065,9 @@
       <c r="AF2" t="n">
         <v>1782</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8935,6 +9170,9 @@
       <c r="AF3" t="n">
         <v>430</v>
       </c>
+      <c r="AG3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9037,6 +9275,9 @@
       <c r="AF4" t="n">
         <v>648</v>
       </c>
+      <c r="AG4" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9139,6 +9380,9 @@
       <c r="AF5" t="n">
         <v>704</v>
       </c>
+      <c r="AG5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9241,6 +9485,9 @@
       <c r="AF6" t="n">
         <v>805</v>
       </c>
+      <c r="AG6" t="n">
+        <v>872</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9343,6 +9590,9 @@
       <c r="AF7" t="n">
         <v>622</v>
       </c>
+      <c r="AG7" t="n">
+        <v>654</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9445,6 +9695,9 @@
       <c r="AF8" t="n">
         <v>355</v>
       </c>
+      <c r="AG8" t="n">
+        <v>375</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9547,6 +9800,9 @@
       <c r="AF9" t="n">
         <v>399</v>
       </c>
+      <c r="AG9" t="n">
+        <v>445</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9649,6 +9905,9 @@
       <c r="AF10" t="n">
         <v>435</v>
       </c>
+      <c r="AG10" t="n">
+        <v>458</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9751,6 +10010,9 @@
       <c r="AF11" t="n">
         <v>245</v>
       </c>
+      <c r="AG11" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9853,6 +10115,9 @@
       <c r="AF12" t="n">
         <v>406</v>
       </c>
+      <c r="AG12" t="n">
+        <v>427</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9955,6 +10220,9 @@
       <c r="AF13" t="n">
         <v>187</v>
       </c>
+      <c r="AG13" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10057,6 +10325,9 @@
       <c r="AF14" t="n">
         <v>110</v>
       </c>
+      <c r="AG14" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10159,6 +10430,9 @@
       <c r="AF15" t="n">
         <v>201</v>
       </c>
+      <c r="AG15" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10261,6 +10535,9 @@
       <c r="AF16" t="n">
         <v>684</v>
       </c>
+      <c r="AG16" t="n">
+        <v>729</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10363,6 +10640,9 @@
       <c r="AF17" t="n">
         <v>557</v>
       </c>
+      <c r="AG17" t="n">
+        <v>583</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10465,6 +10745,9 @@
       <c r="AF18" t="n">
         <v>236</v>
       </c>
+      <c r="AG18" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10567,6 +10850,9 @@
       <c r="AF19" t="n">
         <v>863</v>
       </c>
+      <c r="AG19" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10669,6 +10955,9 @@
       <c r="AF20" t="n">
         <v>919</v>
       </c>
+      <c r="AG20" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -10771,6 +11060,9 @@
       <c r="AF21" t="n">
         <v>225</v>
       </c>
+      <c r="AG21" t="n">
+        <v>235</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -10873,6 +11165,9 @@
       <c r="AF22" t="n">
         <v>326</v>
       </c>
+      <c r="AG22" t="n">
+        <v>370</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -10975,6 +11270,9 @@
       <c r="AF23" t="n">
         <v>312</v>
       </c>
+      <c r="AG23" t="n">
+        <v>332</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11077,6 +11375,9 @@
       <c r="AF24" t="n">
         <v>206</v>
       </c>
+      <c r="AG24" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11179,6 +11480,9 @@
       <c r="AF25" t="n">
         <v>322</v>
       </c>
+      <c r="AG25" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11281,6 +11585,9 @@
       <c r="AF26" t="n">
         <v>391</v>
       </c>
+      <c r="AG26" t="n">
+        <v>408</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11383,6 +11690,9 @@
       <c r="AF27" t="n">
         <v>923</v>
       </c>
+      <c r="AG27" t="n">
+        <v>988</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11485,6 +11795,9 @@
       <c r="AF28" t="n">
         <v>417</v>
       </c>
+      <c r="AG28" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11587,6 +11900,9 @@
       <c r="AF29" t="n">
         <v>208</v>
       </c>
+      <c r="AG29" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11689,6 +12005,9 @@
       <c r="AF30" t="n">
         <v>234</v>
       </c>
+      <c r="AG30" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11791,6 +12110,9 @@
       <c r="AF31" t="n">
         <v>281</v>
       </c>
+      <c r="AG31" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11893,6 +12215,9 @@
       <c r="AF32" t="n">
         <v>223</v>
       </c>
+      <c r="AG32" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11995,6 +12320,9 @@
       <c r="AF33" t="n">
         <v>292</v>
       </c>
+      <c r="AG33" t="n">
+        <v>354</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12097,6 +12425,9 @@
       <c r="AF34" t="n">
         <v>267</v>
       </c>
+      <c r="AG34" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12199,6 +12530,9 @@
       <c r="AF35" t="n">
         <v>463</v>
       </c>
+      <c r="AG35" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12301,6 +12635,9 @@
       <c r="AF36" t="n">
         <v>327</v>
       </c>
+      <c r="AG36" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12403,6 +12740,9 @@
       <c r="AF37" t="n">
         <v>349</v>
       </c>
+      <c r="AG37" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12505,11 +12845,14 @@
       <c r="AF38" t="n">
         <v>1106</v>
       </c>
+      <c r="AG38" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -12543,6 +12886,7 @@
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH76"/>
+  <dimension ref="A1:AI76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.64</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.49</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.6</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,6 +1536,9 @@
       <c r="AH9" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1620,6 +1649,9 @@
       <c r="AH10" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1730,6 +1762,9 @@
       <c r="AH11" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1840,6 +1875,9 @@
       <c r="AH12" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1950,6 +1988,9 @@
       <c r="AH13" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2060,6 +2101,9 @@
       <c r="AH14" t="n">
         <v>0.77</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2170,6 +2214,9 @@
       <c r="AH15" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2280,6 +2327,9 @@
       <c r="AH16" t="n">
         <v>0.49</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2390,6 +2440,9 @@
       <c r="AH17" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2500,6 +2553,9 @@
       <c r="AH18" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2610,6 +2666,9 @@
       <c r="AH19" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2720,6 +2779,9 @@
       <c r="AH20" t="n">
         <v>0.73</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2830,6 +2892,9 @@
       <c r="AH21" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2940,6 +3005,9 @@
       <c r="AH22" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3050,6 +3118,9 @@
       <c r="AH23" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3160,6 +3231,9 @@
       <c r="AH24" t="n">
         <v>0.86</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3270,6 +3344,9 @@
       <c r="AH25" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3380,6 +3457,9 @@
       <c r="AH26" t="n">
         <v>0.87</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3490,6 +3570,9 @@
       <c r="AH27" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3600,6 +3683,9 @@
       <c r="AH28" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3710,6 +3796,9 @@
       <c r="AH29" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3820,6 +3909,9 @@
       <c r="AH30" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3930,6 +4022,9 @@
       <c r="AH31" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4040,6 +4135,9 @@
       <c r="AH32" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4150,6 +4248,9 @@
       <c r="AH33" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4260,6 +4361,9 @@
       <c r="AH34" t="n">
         <v>0.72</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4370,6 +4474,9 @@
       <c r="AH35" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4480,6 +4587,9 @@
       <c r="AH36" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4590,6 +4700,9 @@
       <c r="AH37" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4700,6 +4813,9 @@
       <c r="AH38" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4810,6 +4926,9 @@
       <c r="AH39" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4920,6 +5039,9 @@
       <c r="AH40" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5030,6 +5152,9 @@
       <c r="AH41" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5140,6 +5265,9 @@
       <c r="AH42" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5250,6 +5378,9 @@
       <c r="AH43" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5360,6 +5491,9 @@
       <c r="AH44" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5470,6 +5604,9 @@
       <c r="AH45" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5580,6 +5717,9 @@
       <c r="AH46" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5690,6 +5830,9 @@
       <c r="AH47" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5800,6 +5943,9 @@
       <c r="AH48" t="n">
         <v>0.55</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5910,6 +6056,9 @@
       <c r="AH49" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6020,6 +6169,9 @@
       <c r="AH50" t="n">
         <v>0.73</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6130,6 +6282,9 @@
       <c r="AH51" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6240,6 +6395,9 @@
       <c r="AH52" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6350,6 +6508,9 @@
       <c r="AH53" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6460,6 +6621,9 @@
       <c r="AH54" t="n">
         <v>0.62</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6570,6 +6734,9 @@
       <c r="AH55" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6680,6 +6847,9 @@
       <c r="AH56" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6790,6 +6960,9 @@
       <c r="AH57" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6900,6 +7073,9 @@
       <c r="AH58" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7010,6 +7186,9 @@
       <c r="AH59" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7120,6 +7299,9 @@
       <c r="AH60" t="n">
         <v>0.64</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7230,6 +7412,9 @@
       <c r="AH61" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7340,6 +7525,9 @@
       <c r="AH62" t="n">
         <v>0.71</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7450,6 +7638,9 @@
       <c r="AH63" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7560,6 +7751,9 @@
       <c r="AH64" t="n">
         <v>0.68</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7670,6 +7864,9 @@
       <c r="AH65" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7780,6 +7977,9 @@
       <c r="AH66" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7890,6 +8090,9 @@
       <c r="AH67" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8000,6 +8203,9 @@
       <c r="AH68" t="n">
         <v>0.55</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8110,6 +8316,9 @@
       <c r="AH69" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8220,6 +8429,9 @@
       <c r="AH70" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8330,6 +8542,9 @@
       <c r="AH71" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8440,6 +8655,9 @@
       <c r="AH72" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8550,6 +8768,9 @@
       <c r="AH73" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8660,6 +8881,9 @@
       <c r="AH74" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8770,11 +8994,14 @@
       <c r="AH75" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -8789,7 +9016,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8963,6 +9190,11 @@
           <t>24. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>28. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9068,6 +9300,9 @@
       <c r="AG2" t="n">
         <v>1901</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9173,6 +9408,9 @@
       <c r="AG3" t="n">
         <v>452</v>
       </c>
+      <c r="AH3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9278,6 +9516,9 @@
       <c r="AG4" t="n">
         <v>709</v>
       </c>
+      <c r="AH4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9383,6 +9624,9 @@
       <c r="AG5" t="n">
         <v>740</v>
       </c>
+      <c r="AH5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9488,6 +9732,9 @@
       <c r="AG6" t="n">
         <v>872</v>
       </c>
+      <c r="AH6" t="n">
+        <v>859</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9593,6 +9840,9 @@
       <c r="AG7" t="n">
         <v>654</v>
       </c>
+      <c r="AH7" t="n">
+        <v>631</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9698,6 +9948,9 @@
       <c r="AG8" t="n">
         <v>375</v>
       </c>
+      <c r="AH8" t="n">
+        <v>365</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -9803,6 +10056,9 @@
       <c r="AG9" t="n">
         <v>445</v>
       </c>
+      <c r="AH9" t="n">
+        <v>441</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -9908,6 +10164,9 @@
       <c r="AG10" t="n">
         <v>458</v>
       </c>
+      <c r="AH10" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10013,6 +10272,9 @@
       <c r="AG11" t="n">
         <v>258</v>
       </c>
+      <c r="AH11" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10118,6 +10380,9 @@
       <c r="AG12" t="n">
         <v>427</v>
       </c>
+      <c r="AH12" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10223,6 +10488,9 @@
       <c r="AG13" t="n">
         <v>196</v>
       </c>
+      <c r="AH13" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10328,6 +10596,9 @@
       <c r="AG14" t="n">
         <v>117</v>
       </c>
+      <c r="AH14" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10433,6 +10704,9 @@
       <c r="AG15" t="n">
         <v>200</v>
       </c>
+      <c r="AH15" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10538,6 +10812,9 @@
       <c r="AG16" t="n">
         <v>729</v>
       </c>
+      <c r="AH16" t="n">
+        <v>679</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10643,6 +10920,9 @@
       <c r="AG17" t="n">
         <v>583</v>
       </c>
+      <c r="AH17" t="n">
+        <v>613</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10748,6 +11028,9 @@
       <c r="AG18" t="n">
         <v>263</v>
       </c>
+      <c r="AH18" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10853,6 +11136,9 @@
       <c r="AG19" t="n">
         <v>937</v>
       </c>
+      <c r="AH19" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -10958,6 +11244,9 @@
       <c r="AG20" t="n">
         <v>964</v>
       </c>
+      <c r="AH20" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11063,6 +11352,9 @@
       <c r="AG21" t="n">
         <v>235</v>
       </c>
+      <c r="AH21" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11168,6 +11460,9 @@
       <c r="AG22" t="n">
         <v>370</v>
       </c>
+      <c r="AH22" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11273,6 +11568,9 @@
       <c r="AG23" t="n">
         <v>332</v>
       </c>
+      <c r="AH23" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11378,6 +11676,9 @@
       <c r="AG24" t="n">
         <v>217</v>
       </c>
+      <c r="AH24" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11483,6 +11784,9 @@
       <c r="AG25" t="n">
         <v>339</v>
       </c>
+      <c r="AH25" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11588,6 +11892,9 @@
       <c r="AG26" t="n">
         <v>408</v>
       </c>
+      <c r="AH26" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -11693,6 +12000,9 @@
       <c r="AG27" t="n">
         <v>988</v>
       </c>
+      <c r="AH27" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11798,6 +12108,9 @@
       <c r="AG28" t="n">
         <v>442</v>
       </c>
+      <c r="AH28" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11903,6 +12216,9 @@
       <c r="AG29" t="n">
         <v>220</v>
       </c>
+      <c r="AH29" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12008,6 +12324,9 @@
       <c r="AG30" t="n">
         <v>251</v>
       </c>
+      <c r="AH30" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12113,6 +12432,9 @@
       <c r="AG31" t="n">
         <v>263</v>
       </c>
+      <c r="AH31" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12218,6 +12540,9 @@
       <c r="AG32" t="n">
         <v>257</v>
       </c>
+      <c r="AH32" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12323,6 +12648,9 @@
       <c r="AG33" t="n">
         <v>354</v>
       </c>
+      <c r="AH33" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12428,6 +12756,9 @@
       <c r="AG34" t="n">
         <v>249</v>
       </c>
+      <c r="AH34" t="n">
+        <v>278</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12533,6 +12864,9 @@
       <c r="AG35" t="n">
         <v>515</v>
       </c>
+      <c r="AH35" t="n">
+        <v>584</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12638,6 +12972,9 @@
       <c r="AG36" t="n">
         <v>314</v>
       </c>
+      <c r="AH36" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -12743,6 +13080,9 @@
       <c r="AG37" t="n">
         <v>350</v>
       </c>
+      <c r="AH37" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -12848,11 +13188,14 @@
       <c r="AG38" t="n">
         <v>1237</v>
       </c>
+      <c r="AH38" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -12887,6 +13230,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI76"/>
+  <dimension ref="A1:AJ76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -710,43 +715,46 @@
         <v>0.05</v>
       </c>
       <c r="W2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z2" t="n">
         <v>0.08</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC2" t="n">
         <v>0.12</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AG2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH2" t="n">
-        <v>0.64</v>
-      </c>
       <c r="AI2" t="n">
-        <v>0.66</v>
+        <v>0.49</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U3" t="n">
         <v>0.005</v>
@@ -823,43 +831,46 @@
         <v>0.005</v>
       </c>
       <c r="W3" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="X3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.04</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.05</v>
       </c>
       <c r="Z3" t="n">
         <v>0.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB3" t="n">
         <v>0.12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AG3" t="n">
         <v>0.23</v>
       </c>
-      <c r="AE3" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0.17</v>
-      </c>
       <c r="AH3" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05</v>
+        <v>0.25</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -903,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -927,7 +938,7 @@
         <v>0.05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U4" t="n">
         <v>0.06</v>
@@ -936,10 +947,10 @@
         <v>0.06</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Y4" t="n">
         <v>0.07000000000000001</v>
@@ -951,28 +962,31 @@
         <v>0.08</v>
       </c>
       <c r="AB4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC4" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.08</v>
       </c>
       <c r="AD4" t="n">
         <v>0.06</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.49</v>
+        <v>0.35</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="5">
@@ -1016,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0.005</v>
@@ -1034,7 +1048,7 @@
         <v>0.005</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1043,16 +1057,16 @@
         <v>0.005</v>
       </c>
       <c r="U5" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="V5" t="n">
         <v>0.005</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="X5" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y5" t="n">
         <v>0.06</v>
@@ -1061,31 +1075,34 @@
         <v>0.06</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -1159,46 +1176,49 @@
         <v>0.06</v>
       </c>
       <c r="V6" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" t="n">
         <v>0.11</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AD6" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.12</v>
       </c>
-      <c r="AE6" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF6" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -1260,28 +1280,28 @@
         <v>0.005</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W7" t="n">
         <v>0.01</v>
       </c>
-      <c r="W7" t="n">
-        <v>0.02</v>
-      </c>
       <c r="X7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Z7" t="n">
         <v>0.06</v>
@@ -1290,28 +1310,31 @@
         <v>0.09</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC7" t="n">
         <v>0.11</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="AE7" t="n">
         <v>0.39</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -1367,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q8" t="n">
         <v>0.005</v>
@@ -1391,7 +1414,7 @@
         <v>0.04</v>
       </c>
       <c r="X8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y8" t="n">
         <v>0.05</v>
@@ -1403,28 +1426,31 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC8" t="n">
         <v>0.13</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.76</v>
+        <v>0.67</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.77</v>
+        <v>0.63</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1498,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="Y9" t="n">
         <v>0.03</v>
@@ -1513,31 +1539,34 @@
         <v>0.04</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.15</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>0.19</v>
       </c>
-      <c r="AG9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0.03</v>
+      <c r="AJ9" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
@@ -1608,7 +1637,7 @@
         <v>0.03</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="V10" t="n">
         <v>0.04</v>
@@ -1617,40 +1646,43 @@
         <v>0.05</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA10" t="n">
         <v>0.08</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AC10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD10" t="n">
         <v>0.1</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.11</v>
       </c>
       <c r="AE10" t="n">
         <v>0.1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.59</v>
+        <v>0.44</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.61</v>
+        <v>0.44</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="11">
@@ -1712,7 +1744,7 @@
         <v>0.005</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1727,13 +1759,13 @@
         <v>0.005</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0.02</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.03</v>
       </c>
       <c r="Z11" t="n">
         <v>0.04</v>
@@ -1742,28 +1774,31 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AF11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AI11" t="n">
         <v>0.26</v>
       </c>
-      <c r="AG11" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.06</v>
+      <c r="AJ11" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="12">
@@ -1807,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1837,46 +1872,49 @@
         <v>0.06</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z12" t="n">
         <v>0.09</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB12" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD12" t="n">
         <v>0.11</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AE12" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AG12" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AI12" t="n">
         <v>0.49</v>
       </c>
-      <c r="AH12" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.65</v>
+      <c r="AJ12" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
@@ -1920,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1938,25 +1976,25 @@
         <v>0.005</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="X13" t="n">
         <v>0.02</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.04</v>
       </c>
       <c r="Y13" t="n">
         <v>0.05</v>
@@ -1965,31 +2003,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI13" t="n">
         <v>0.23</v>
       </c>
-      <c r="AE13" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0.04</v>
+      <c r="AJ13" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
@@ -2057,7 +2098,7 @@
         <v>0.05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U14" t="n">
         <v>0.06</v>
@@ -2066,10 +2107,10 @@
         <v>0.06</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X14" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y14" t="n">
         <v>0.08</v>
@@ -2081,28 +2122,31 @@
         <v>0.12</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AG14" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0.64</v>
       </c>
-      <c r="AH14" t="n">
-        <v>0.77</v>
-      </c>
       <c r="AI14" t="n">
-        <v>0.79</v>
+        <v>0.59</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="15">
@@ -2167,55 +2211,58 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="U15" t="n">
         <v>0.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="X15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Y15" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AD15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AH15" t="n">
         <v>0.21</v>
       </c>
-      <c r="AE15" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AI15" t="n">
-        <v>0.04</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
@@ -2286,7 +2333,7 @@
         <v>0.04</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="V16" t="n">
         <v>0.05</v>
@@ -2295,40 +2342,43 @@
         <v>0.06</v>
       </c>
       <c r="X16" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AA16" t="n">
         <v>0.09</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AG16" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>0.34</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0.53</v>
       </c>
     </row>
     <row r="17">
@@ -2390,58 +2440,61 @@
         <v>0.005</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0.005</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.03</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.04</v>
       </c>
       <c r="AA17" t="n">
         <v>0.05</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="AF17" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI17" t="n">
         <v>0.33</v>
       </c>
-      <c r="AG17" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.07000000000000001</v>
+      <c r="AJ17" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="18">
@@ -2485,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2515,46 +2568,49 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="V18" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Z18" t="n">
         <v>0.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AB18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC18" t="n">
         <v>0.12</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.11</v>
       </c>
       <c r="AD18" t="n">
         <v>0.08</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="19">
@@ -2598,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0.005</v>
@@ -2616,28 +2672,28 @@
         <v>0.005</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="X19" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="Z19" t="n">
         <v>0.08</v>
@@ -2646,28 +2702,31 @@
         <v>0.11</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="20">
@@ -2744,13 +2803,13 @@
         <v>0.09</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="X20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Z20" t="n">
         <v>0.12</v>
@@ -2759,28 +2818,31 @@
         <v>0.14</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AD20" t="n">
         <v>0.15</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.75</v>
+        <v>0.57</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="21">
@@ -2848,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0.01</v>
@@ -2857,43 +2919,46 @@
         <v>0.005</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="X21" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="Z21" t="n">
         <v>0.08</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AB21" t="n">
         <v>0.14</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.47</v>
+        <v>0.52</v>
       </c>
       <c r="AG21" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AH21" t="n">
         <v>0.23</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AI21" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -2967,13 +3032,13 @@
         <v>0.03</v>
       </c>
       <c r="V22" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="W22" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X22" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y22" t="n">
         <v>0.05</v>
@@ -2982,31 +3047,34 @@
         <v>0.05</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AE22" t="n">
         <v>0.14</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AG22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AI22" t="n">
         <v>0.58</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.7</v>
+      <c r="AJ22" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="23">
@@ -3083,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="Y23" t="n">
         <v>0.03</v>
@@ -3098,28 +3166,31 @@
         <v>0.09</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.06</v>
+        <v>0.17</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.04</v>
+        <v>0.18</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="24">
@@ -3193,46 +3264,49 @@
         <v>0.04</v>
       </c>
       <c r="V24" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="W24" t="n">
         <v>0.04</v>
       </c>
       <c r="X24" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y24" t="n">
         <v>0.06</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AA24" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.86</v>
+        <v>0.78</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="25">
@@ -3306,46 +3380,49 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>0.01</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>0.015</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.02</v>
       </c>
       <c r="Y25" t="n">
         <v>0.03</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="26">
@@ -3401,28 +3478,28 @@
         <v>0.005</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Q26" t="n">
         <v>0.015</v>
       </c>
       <c r="R26" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S26" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="T26" t="n">
         <v>0.015</v>
       </c>
       <c r="U26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V26" t="n">
         <v>0.015</v>
       </c>
-      <c r="V26" t="n">
-        <v>0.01</v>
-      </c>
       <c r="W26" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="X26" t="n">
         <v>0.02</v>
@@ -3434,31 +3511,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AB26" t="n">
         <v>0.14</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.88</v>
+        <v>0.64</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27">
@@ -3520,58 +3600,61 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="V27" t="n">
         <v>0.015</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="X27" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AB27" t="n">
         <v>0.22</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AF27" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AH27" t="n">
         <v>0.15</v>
       </c>
-      <c r="AG27" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AI27" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="28">
@@ -3615,7 +3698,7 @@
         <v>0.005</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3648,28 +3731,28 @@
         <v>0.05</v>
       </c>
       <c r="W28" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X28" t="n">
         <v>0.04</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z28" t="n">
         <v>0.04</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AB28" t="n">
         <v>0.12</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AE28" t="n">
         <v>0.06</v>
@@ -3678,13 +3761,16 @@
         <v>0.22</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.43</v>
+        <v>0.29</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="29">
@@ -3728,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0.015</v>
@@ -3746,58 +3832,61 @@
         <v>0.015</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="Z29" t="n">
         <v>0.02</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AE29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI29" t="n">
         <v>0.29</v>
       </c>
-      <c r="AF29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.07000000000000001</v>
+      <c r="AJ29" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="30">
@@ -3868,7 +3957,7 @@
         <v>0.03</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="V30" t="n">
         <v>0.03</v>
@@ -3877,19 +3966,19 @@
         <v>0.05</v>
       </c>
       <c r="X30" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Y30" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AA30" t="n">
         <v>0.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC30" t="n">
         <v>0.11</v>
@@ -3898,19 +3987,22 @@
         <v>0.12</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.49</v>
+        <v>0.45</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.65</v>
+        <v>0.52</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
@@ -3978,19 +4070,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W31" t="n">
         <v>0.01</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>0.015</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0.03</v>
       </c>
       <c r="Y31" t="n">
         <v>0.03</v>
@@ -3999,31 +4091,34 @@
         <v>0.04</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="32">
@@ -4085,7 +4180,7 @@
         <v>0.01</v>
       </c>
       <c r="R32" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="S32" t="n">
         <v>0.06</v>
@@ -4100,13 +4195,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W32" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="X32" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z32" t="n">
         <v>0.08</v>
@@ -4115,28 +4210,31 @@
         <v>0.08</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AE32" t="n">
         <v>0.16</v>
       </c>
-      <c r="AE32" t="n">
-        <v>0.17</v>
-      </c>
       <c r="AF32" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AG32" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AH32" t="n">
         <v>0.57</v>
       </c>
-      <c r="AH32" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AI32" t="n">
-        <v>0.71</v>
+        <v>0.52</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -4210,46 +4308,49 @@
         <v>0.005</v>
       </c>
       <c r="V33" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="X33" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y33" t="n">
         <v>0.06</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="Z33" t="n">
         <v>0.08</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AB33" t="n">
         <v>0.16</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AD33" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AG33" t="n">
         <v>0.22</v>
       </c>
-      <c r="AE33" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>0.17</v>
-      </c>
       <c r="AH33" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AI33" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="34">
@@ -4323,13 +4424,13 @@
         <v>0.05</v>
       </c>
       <c r="V34" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W34" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X34" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Y34" t="n">
         <v>0.1</v>
@@ -4341,28 +4442,31 @@
         <v>0.13</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.76</v>
+        <v>0.53</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="35">
@@ -4433,49 +4537,52 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0.005</v>
       </c>
       <c r="W35" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="X35" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.41</v>
+        <v>0.45</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
@@ -4552,43 +4659,46 @@
         <v>0.05</v>
       </c>
       <c r="W36" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X36" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y36" t="n">
         <v>0.08</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AA36" t="n">
         <v>0.09</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AE36" t="n">
         <v>0.15</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.72</v>
+        <v>0.53</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="37">
@@ -4659,19 +4769,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Z37" t="n">
         <v>0.06</v>
@@ -4683,25 +4793,28 @@
         <v>0.12</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD37" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AI37" t="n">
         <v>0.24</v>
       </c>
-      <c r="AE37" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0.05</v>
+      <c r="AJ37" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="38">
@@ -4769,22 +4882,22 @@
         <v>0.04</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="V38" t="n">
         <v>0.05</v>
       </c>
       <c r="W38" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X38" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z38" t="n">
         <v>0.08</v>
@@ -4793,28 +4906,31 @@
         <v>0.1</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC38" t="n">
         <v>0.12</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.59</v>
+        <v>0.47</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="39">
@@ -4876,28 +4992,28 @@
         <v>0.005</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U39" t="n">
         <v>0.005</v>
       </c>
       <c r="V39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W39" t="n">
         <v>0.01</v>
       </c>
-      <c r="W39" t="n">
-        <v>0.015</v>
-      </c>
       <c r="X39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y39" t="n">
         <v>0.04</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>0.05</v>
       </c>
       <c r="Z39" t="n">
         <v>0.05</v>
@@ -4906,28 +5022,31 @@
         <v>0.09</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="AI39" t="n">
-        <v>0.05</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="40">
@@ -4995,7 +5114,7 @@
         <v>0.06</v>
       </c>
       <c r="T40" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U40" t="n">
         <v>0.05</v>
@@ -5007,10 +5126,10 @@
         <v>0.04</v>
       </c>
       <c r="X40" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z40" t="n">
         <v>0.07000000000000001</v>
@@ -5028,19 +5147,22 @@
         <v>0.05</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.58</v>
+        <v>0.4</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.68</v>
+        <v>0.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="41">
@@ -5108,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0.005</v>
@@ -5117,43 +5239,46 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="X41" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z41" t="n">
         <v>0.06</v>
       </c>
       <c r="AA41" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB41" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB41" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AC41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.36</v>
+        <v>0.44</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.06</v>
+        <v>0.27</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="42">
@@ -5230,43 +5355,46 @@
         <v>0.06</v>
       </c>
       <c r="W42" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X42" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AA42" t="n">
         <v>0.12</v>
       </c>
       <c r="AB42" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC42" t="n">
         <v>0.13</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.11</v>
       </c>
       <c r="AD42" t="n">
         <v>0.09</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.66</v>
+        <v>0.49</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="43">
@@ -5340,46 +5468,49 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="X43" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Y43" t="n">
         <v>0.03</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.05</v>
       </c>
       <c r="Z43" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AA43" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AB43" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB43" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AC43" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="44">
@@ -5441,7 +5572,7 @@
         <v>0.01</v>
       </c>
       <c r="R44" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S44" t="n">
         <v>0.02</v>
@@ -5456,43 +5587,46 @@
         <v>0.04</v>
       </c>
       <c r="W44" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X44" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y44" t="n">
         <v>0.06</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB44" t="n">
         <v>0.1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="45">
@@ -5557,7 +5691,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -5566,46 +5700,49 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>0.01</v>
       </c>
-      <c r="W45" t="n">
+      <c r="X45" t="n">
         <v>0.02</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.03</v>
       </c>
       <c r="Y45" t="n">
         <v>0.04</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AA45" t="n">
         <v>0.12</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.04</v>
+        <v>0.25</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="46">
@@ -5649,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5673,22 +5810,22 @@
         <v>0.05</v>
       </c>
       <c r="T46" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W46" t="n">
         <v>0.06</v>
       </c>
-      <c r="V46" t="n">
+      <c r="X46" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y46" t="n">
         <v>0.06</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0.05</v>
       </c>
       <c r="Z46" t="n">
         <v>0.07000000000000001</v>
@@ -5697,28 +5834,31 @@
         <v>0.08</v>
       </c>
       <c r="AB46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC46" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0.08</v>
       </c>
       <c r="AD46" t="n">
         <v>0.06</v>
       </c>
       <c r="AE46" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF46" t="n">
         <v>0.02</v>
       </c>
-      <c r="AF46" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AG46" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.46</v>
+        <v>0.3</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="47">
@@ -5762,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0.005</v>
@@ -5780,25 +5920,25 @@
         <v>0.01</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="U47" t="n">
         <v>0.01</v>
       </c>
       <c r="V47" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="W47" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="X47" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Y47" t="n">
         <v>0.06</v>
@@ -5807,31 +5947,34 @@
         <v>0.06</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.06</v>
+        <v>0.3</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="48">
@@ -5899,52 +6042,55 @@
         <v>0.05</v>
       </c>
       <c r="T48" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U48" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V48" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="X48" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z48" t="n">
         <v>0.1</v>
       </c>
       <c r="AA48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD48" t="n">
         <v>0.14</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AE48" t="n">
         <v>0.14</v>
       </c>
-      <c r="AC48" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AF48" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.55</v>
+        <v>0.37</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="49">
@@ -6006,58 +6152,61 @@
         <v>0.005</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U49" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W49" t="n">
         <v>0.01</v>
       </c>
-      <c r="W49" t="n">
-        <v>0.02</v>
-      </c>
       <c r="X49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="Y49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z49" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z49" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AA49" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AB49" t="n">
         <v>0.13</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="AE49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AI49" t="n">
         <v>0.37</v>
       </c>
-      <c r="AF49" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>0.07000000000000001</v>
+      <c r="AJ49" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="50">
@@ -6113,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q50" t="n">
         <v>0.005</v>
@@ -6131,16 +6280,16 @@
         <v>0.02</v>
       </c>
       <c r="V50" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W50" t="n">
         <v>0.04</v>
       </c>
       <c r="X50" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Z50" t="n">
         <v>0.06</v>
@@ -6152,25 +6301,28 @@
         <v>0.09</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD50" t="n">
         <v>0.14</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="51">
@@ -6250,7 +6402,7 @@
         <v>0.005</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="Y51" t="n">
         <v>0.03</v>
@@ -6265,25 +6417,28 @@
         <v>0.12</v>
       </c>
       <c r="AC51" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AI51" t="n">
         <v>0.15</v>
       </c>
-      <c r="AD51" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AF51" t="n">
+      <c r="AJ51" t="n">
         <v>0.21</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="52">
@@ -6357,13 +6512,13 @@
         <v>0.05</v>
       </c>
       <c r="V52" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W52" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X52" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y52" t="n">
         <v>0.07000000000000001</v>
@@ -6375,28 +6530,31 @@
         <v>0.1</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC52" t="n">
         <v>0.13</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AE52" t="n">
         <v>0.13</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="53">
@@ -6458,28 +6616,28 @@
         <v>0.005</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V53" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="X53" t="n">
         <v>0.02</v>
       </c>
-      <c r="X53" t="n">
+      <c r="Y53" t="n">
         <v>0.04</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0.05</v>
       </c>
       <c r="Z53" t="n">
         <v>0.06</v>
@@ -6488,28 +6646,31 @@
         <v>0.1</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.19</v>
+        <v>0.26</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.06</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="54">
@@ -6583,16 +6744,16 @@
         <v>0.05</v>
       </c>
       <c r="V54" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W54" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z54" t="n">
         <v>0.08</v>
@@ -6601,28 +6762,31 @@
         <v>0.09</v>
       </c>
       <c r="AB54" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD54" t="n">
         <v>0.08</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0.09</v>
       </c>
       <c r="AE54" t="n">
         <v>0.1</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AG54" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AI54" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH54" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0.66</v>
+      <c r="AJ54" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="55">
@@ -6696,16 +6860,16 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
         <v>0.01</v>
       </c>
-      <c r="W55" t="n">
+      <c r="X55" t="n">
         <v>0.015</v>
       </c>
-      <c r="X55" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Y55" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Z55" t="n">
         <v>0.06</v>
@@ -6720,22 +6884,25 @@
         <v>0.16</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="56">
@@ -6806,28 +6973,28 @@
         <v>0.02</v>
       </c>
       <c r="U56" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="V56" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X56" t="n">
         <v>0.05</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AA56" t="n">
         <v>0.09</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AC56" t="n">
         <v>0.14</v>
@@ -6836,19 +7003,22 @@
         <v>0.15</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.64</v>
+        <v>0.46</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="57">
@@ -6919,19 +7089,19 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X57" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Y57" t="n">
         <v>0.02</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>0.03</v>
       </c>
       <c r="Z57" t="n">
         <v>0.04</v>
@@ -6943,25 +7113,28 @@
         <v>0.1</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="AE57" t="n">
         <v>0.32</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.03</v>
+        <v>0.24</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="58">
@@ -7023,28 +7196,28 @@
         <v>0.02</v>
       </c>
       <c r="R58" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S58" t="n">
         <v>0.03</v>
       </c>
       <c r="T58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V58" t="n">
         <v>0.04</v>
       </c>
-      <c r="U58" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V58" t="n">
-        <v>0.03</v>
-      </c>
       <c r="W58" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X58" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z58" t="n">
         <v>0.08</v>
@@ -7053,28 +7226,31 @@
         <v>0.1</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AC58" t="n">
         <v>0.13</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="59">
@@ -7142,13 +7318,13 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
         <v>0.01</v>
       </c>
-      <c r="U59" t="n">
-        <v>0.015</v>
-      </c>
       <c r="V59" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="W59" t="n">
         <v>0.02</v>
@@ -7163,31 +7339,34 @@
         <v>0.04</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="60">
@@ -7264,10 +7443,10 @@
         <v>0.05</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X60" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y60" t="n">
         <v>0.07000000000000001</v>
@@ -7285,22 +7464,25 @@
         <v>0.12</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.7</v>
+        <v>0.54</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="61">
@@ -7377,10 +7559,10 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X61" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="Y61" t="n">
         <v>0.03</v>
@@ -7392,28 +7574,31 @@
         <v>0.08</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.05</v>
+        <v>0.22</v>
       </c>
       <c r="AI61" t="n">
-        <v>0.03</v>
+        <v>0.22</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="62">
@@ -7493,40 +7678,43 @@
         <v>0.05</v>
       </c>
       <c r="X62" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z62" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.77</v>
+        <v>0.6</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="63">
@@ -7594,19 +7782,19 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
         <v>0.005</v>
       </c>
       <c r="V63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="X63" t="n">
         <v>0.015</v>
-      </c>
-      <c r="W63" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X63" t="n">
-        <v>0.02</v>
       </c>
       <c r="Y63" t="n">
         <v>0.04</v>
@@ -7618,28 +7806,31 @@
         <v>0.1</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AC63" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="AI63" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="64">
@@ -7707,7 +7898,7 @@
         <v>0.04</v>
       </c>
       <c r="T64" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="U64" t="n">
         <v>0.07000000000000001</v>
@@ -7716,43 +7907,46 @@
         <v>0.06</v>
       </c>
       <c r="W64" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="X64" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA64" t="n">
         <v>0.06</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AD64" t="n">
         <v>0.08</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.68</v>
+        <v>0.54</v>
       </c>
       <c r="AI64" t="n">
-        <v>0.67</v>
+        <v>0.55</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="65">
@@ -7820,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -7829,43 +8023,46 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="X65" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y65" t="n">
         <v>0.06</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA65" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB65" t="n">
         <v>0.08</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.03</v>
+        <v>0.17</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="66">
@@ -7927,7 +8124,7 @@
         <v>0.005</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S66" t="n">
         <v>0.015</v>
@@ -7942,43 +8139,46 @@
         <v>0.04</v>
       </c>
       <c r="W66" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X66" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AA66" t="n">
         <v>0.15</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AD66" t="n">
         <v>0.14</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="AG66" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AI66" t="n">
         <v>0.58</v>
       </c>
-      <c r="AH66" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AI66" t="n">
-        <v>0.79</v>
+      <c r="AJ66" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="67">
@@ -8049,10 +8249,10 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="V67" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W67" t="n">
         <v>0.02</v>
@@ -8061,37 +8261,40 @@
         <v>0.05</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AA67" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AB67" t="n">
         <v>0.16</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="AE67" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="68">
@@ -8135,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -8168,13 +8371,13 @@
         <v>0.06</v>
       </c>
       <c r="W68" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="X68" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z68" t="n">
         <v>0.07000000000000001</v>
@@ -8192,19 +8395,22 @@
         <v>0.12</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AG68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AH68" t="n">
         <v>0.42</v>
       </c>
-      <c r="AH68" t="n">
-        <v>0.55</v>
-      </c>
       <c r="AI68" t="n">
-        <v>0.59</v>
+        <v>0.42</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="69">
@@ -8248,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -8266,31 +8472,31 @@
         <v>0.005</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W69" t="n">
         <v>0.01</v>
       </c>
-      <c r="V69" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="W69" t="n">
-        <v>0.02</v>
-      </c>
       <c r="X69" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y69" t="n">
         <v>0.06</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="Z69" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="Z69" t="n">
-        <v>0.06</v>
       </c>
       <c r="AA69" t="n">
         <v>0.09</v>
@@ -8299,25 +8505,28 @@
         <v>0.06</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.06</v>
+        <v>0.28</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="70">
@@ -8361,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="M70" t="n">
         <v>0.005</v>
@@ -8388,49 +8597,52 @@
         <v>0.12</v>
       </c>
       <c r="U70" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="V70" t="n">
         <v>0.14</v>
       </c>
       <c r="W70" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="X70" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AA70" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB70" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>0.19</v>
       </c>
       <c r="AC70" t="n">
         <v>0.21</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.59</v>
+        <v>0.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="71">
@@ -8474,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -8492,25 +8704,25 @@
         <v>0.005</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T71" t="n">
         <v>0.005</v>
       </c>
       <c r="U71" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W71" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="X71" t="n">
         <v>0.02</v>
-      </c>
-      <c r="X71" t="n">
-        <v>0.05</v>
       </c>
       <c r="Y71" t="n">
         <v>0.05</v>
@@ -8525,25 +8737,28 @@
         <v>0.12</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AH71" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="AI71" t="n">
-        <v>0.05</v>
+        <v>0.29</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="72">
@@ -8611,52 +8826,55 @@
         <v>0.01</v>
       </c>
       <c r="T72" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="U72" t="n">
         <v>0.005</v>
       </c>
       <c r="V72" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="W72" t="n">
         <v>0.02</v>
       </c>
       <c r="X72" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="Z72" t="n">
         <v>0.02</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AC72" t="n">
         <v>0.1</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="AG72" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>0.55</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="73">
@@ -8724,25 +8942,25 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U73" t="n">
         <v>0.005</v>
       </c>
       <c r="V73" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="W73" t="n">
         <v>0.01</v>
       </c>
-      <c r="W73" t="n">
-        <v>0.015</v>
-      </c>
       <c r="X73" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y73" t="n">
         <v>0.03</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AA73" t="n">
         <v>0.1</v>
@@ -8754,22 +8972,25 @@
         <v>0.13</v>
       </c>
       <c r="AD73" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AI73" t="n">
         <v>0.23</v>
       </c>
-      <c r="AE73" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG73" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH73" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AI73" t="n">
-        <v>0.05</v>
+      <c r="AJ73" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="74">
@@ -8840,19 +9061,19 @@
         <v>0.015</v>
       </c>
       <c r="U74" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="V74" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="W74" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="X74" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Z74" t="n">
         <v>0.03</v>
@@ -8861,7 +9082,7 @@
         <v>0.03</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AC74" t="n">
         <v>0.08</v>
@@ -8870,19 +9091,22 @@
         <v>0.1</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.64</v>
+        <v>0.48</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="75">
@@ -8950,58 +9174,61 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V75" t="n">
         <v>0.005</v>
       </c>
       <c r="W75" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="X75" t="n">
         <v>0.03</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="Z75" t="n">
         <v>0.05</v>
       </c>
       <c r="AA75" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AD75" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AH75" t="n">
         <v>0.22</v>
       </c>
-      <c r="AE75" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AI75" t="n">
-        <v>0.05</v>
+        <v>0.24</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -9016,7 +9243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AI39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9195,6 +9422,11 @@
           <t>28. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>12. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -9303,6 +9535,9 @@
       <c r="AH2" t="n">
         <v>1855</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -9411,6 +9646,9 @@
       <c r="AH3" t="n">
         <v>456</v>
       </c>
+      <c r="AI3" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -9519,6 +9757,9 @@
       <c r="AH4" t="n">
         <v>678</v>
       </c>
+      <c r="AI4" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -9627,6 +9868,9 @@
       <c r="AH5" t="n">
         <v>721</v>
       </c>
+      <c r="AI5" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -9735,6 +9979,9 @@
       <c r="AH6" t="n">
         <v>859</v>
       </c>
+      <c r="AI6" t="n">
+        <v>850</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -9843,6 +10090,9 @@
       <c r="AH7" t="n">
         <v>631</v>
       </c>
+      <c r="AI7" t="n">
+        <v>625</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -9951,6 +10201,9 @@
       <c r="AH8" t="n">
         <v>365</v>
       </c>
+      <c r="AI8" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -10059,6 +10312,9 @@
       <c r="AH9" t="n">
         <v>441</v>
       </c>
+      <c r="AI9" t="n">
+        <v>439</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -10167,6 +10423,9 @@
       <c r="AH10" t="n">
         <v>444</v>
       </c>
+      <c r="AI10" t="n">
+        <v>438</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -10275,6 +10534,9 @@
       <c r="AH11" t="n">
         <v>250</v>
       </c>
+      <c r="AI11" t="n">
+        <v>247</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10383,6 +10645,9 @@
       <c r="AH12" t="n">
         <v>418</v>
       </c>
+      <c r="AI12" t="n">
+        <v>411</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10491,6 +10756,9 @@
       <c r="AH13" t="n">
         <v>187</v>
       </c>
+      <c r="AI13" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10599,6 +10867,9 @@
       <c r="AH14" t="n">
         <v>115</v>
       </c>
+      <c r="AI14" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10707,6 +10978,9 @@
       <c r="AH15" t="n">
         <v>180</v>
       </c>
+      <c r="AI15" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10815,6 +11089,9 @@
       <c r="AH16" t="n">
         <v>679</v>
       </c>
+      <c r="AI16" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10923,6 +11200,9 @@
       <c r="AH17" t="n">
         <v>613</v>
       </c>
+      <c r="AI17" t="n">
+        <v>611</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -11031,6 +11311,9 @@
       <c r="AH18" t="n">
         <v>255</v>
       </c>
+      <c r="AI18" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -11139,6 +11422,9 @@
       <c r="AH19" t="n">
         <v>897</v>
       </c>
+      <c r="AI19" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11247,6 +11533,9 @@
       <c r="AH20" t="n">
         <v>958</v>
       </c>
+      <c r="AI20" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11355,6 +11644,9 @@
       <c r="AH21" t="n">
         <v>237</v>
       </c>
+      <c r="AI21" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11463,6 +11755,9 @@
       <c r="AH22" t="n">
         <v>343</v>
       </c>
+      <c r="AI22" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11571,6 +11866,9 @@
       <c r="AH23" t="n">
         <v>317</v>
       </c>
+      <c r="AI23" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11679,6 +11977,9 @@
       <c r="AH24" t="n">
         <v>219</v>
       </c>
+      <c r="AI24" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11787,6 +12088,9 @@
       <c r="AH25" t="n">
         <v>336</v>
       </c>
+      <c r="AI25" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -11895,6 +12199,9 @@
       <c r="AH26" t="n">
         <v>403</v>
       </c>
+      <c r="AI26" t="n">
+        <v>393</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -12003,6 +12310,9 @@
       <c r="AH27" t="n">
         <v>965</v>
       </c>
+      <c r="AI27" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -12111,6 +12421,9 @@
       <c r="AH28" t="n">
         <v>429</v>
       </c>
+      <c r="AI28" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -12219,6 +12532,9 @@
       <c r="AH29" t="n">
         <v>216</v>
       </c>
+      <c r="AI29" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -12327,6 +12643,9 @@
       <c r="AH30" t="n">
         <v>245</v>
       </c>
+      <c r="AI30" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -12435,6 +12754,9 @@
       <c r="AH31" t="n">
         <v>238</v>
       </c>
+      <c r="AI31" t="n">
+        <v>272</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -12543,6 +12865,9 @@
       <c r="AH32" t="n">
         <v>218</v>
       </c>
+      <c r="AI32" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -12651,6 +12976,9 @@
       <c r="AH33" t="n">
         <v>265</v>
       </c>
+      <c r="AI33" t="n">
+        <v>276</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -12759,6 +13087,9 @@
       <c r="AH34" t="n">
         <v>278</v>
       </c>
+      <c r="AI34" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -12867,6 +13198,9 @@
       <c r="AH35" t="n">
         <v>584</v>
       </c>
+      <c r="AI35" t="n">
+        <v>569</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -12975,6 +13309,9 @@
       <c r="AH36" t="n">
         <v>317</v>
       </c>
+      <c r="AI36" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -13083,6 +13420,9 @@
       <c r="AH37" t="n">
         <v>325</v>
       </c>
+      <c r="AI37" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -13191,11 +13531,14 @@
       <c r="AH38" t="n">
         <v>1213</v>
       </c>
+      <c r="AI38" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -13231,6 +13574,7 @@
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AL92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -690,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P2" t="n">
         <v>0.005</v>
@@ -711,58 +716,61 @@
         <v>0.04</v>
       </c>
       <c r="T2" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="U2" t="n">
         <v>0.05</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W2" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="AH2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AI2" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI2" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AK2" t="n">
         <v>0.46</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="3">
@@ -830,58 +838,61 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>0.01</v>
       </c>
-      <c r="X3" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Y3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Z3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA3" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AB3" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AJ3" t="n">
         <v>0.28</v>
       </c>
       <c r="AK3" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -928,22 +939,22 @@
         <v>0.005</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O4" t="n">
         <v>0.005</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S4" t="n">
         <v>0.05</v>
@@ -955,52 +966,55 @@
         <v>0.06</v>
       </c>
       <c r="V4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.06</v>
       </c>
-      <c r="W4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="X4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="AH4" t="n">
         <v>0.35</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AJ4" t="n">
         <v>0.41</v>
       </c>
       <c r="AK4" t="n">
         <v>0.45</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -1047,22 +1061,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1071,55 +1085,58 @@
         <v>0.005</v>
       </c>
       <c r="U5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="X5" t="n">
         <v>0.01</v>
       </c>
-      <c r="V5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0.03</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC5" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AF5" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AJ5" t="n">
         <v>0.26</v>
       </c>
       <c r="AK5" t="n">
         <v>0.29</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -1166,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S6" t="n">
         <v>0.05</v>
@@ -1196,49 +1213,52 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="X6" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="AH6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>0.43</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0.42</v>
       </c>
       <c r="AK6" t="n">
         <v>0.41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -1285,22 +1305,22 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0.005</v>
@@ -1312,52 +1332,55 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>0.01</v>
       </c>
-      <c r="X7" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AB7" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="AE7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF7" t="n">
         <v>0.39</v>
       </c>
-      <c r="AF7" t="n">
-        <v>0.47</v>
-      </c>
       <c r="AG7" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AI7" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>0.3</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.31</v>
       </c>
       <c r="AK7" t="n">
         <v>0.33</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="8">
@@ -1419,7 +1442,7 @@
         <v>0.005</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S8" t="n">
         <v>0.02</v>
@@ -1431,40 +1454,40 @@
         <v>0.03</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="W8" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="AH8" t="n">
         <v>0.67</v>
@@ -1477,6 +1500,9 @@
       </c>
       <c r="AK8" t="n">
         <v>0.53</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="9">
@@ -1553,37 +1579,37 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AB9" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC9" t="n">
         <v>0.16</v>
       </c>
-      <c r="AC9" t="n">
-        <v>0.19</v>
-      </c>
       <c r="AD9" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AH9" t="n">
         <v>0.15</v>
@@ -1596,6 +1622,9 @@
       </c>
       <c r="AK9" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -1642,22 +1671,22 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P10" t="n">
         <v>0.005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S10" t="n">
         <v>0.03</v>
@@ -1669,52 +1698,55 @@
         <v>0.04</v>
       </c>
       <c r="V10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X10" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="AK10" t="n">
         <v>0.43</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -1761,22 +1793,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1788,52 +1820,55 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="Z11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0.04</v>
       </c>
-      <c r="AA11" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AB11" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="AH11" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AI11" t="n">
         <v>0.25</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0.26</v>
       </c>
       <c r="AJ11" t="n">
         <v>0.27</v>
       </c>
       <c r="AK11" t="n">
         <v>0.29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
@@ -1880,19 +1915,19 @@
         <v>0.005</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R12" t="n">
         <v>0.02</v>
@@ -1910,49 +1945,52 @@
         <v>0.06</v>
       </c>
       <c r="W12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X12" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AH12" t="n">
         <v>0.51</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>0.49</v>
       </c>
       <c r="AK12" t="n">
         <v>0.47</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="13">
@@ -2002,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2029,49 +2067,52 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="X13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z13" t="n">
         <v>0.02</v>
       </c>
-      <c r="Y13" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AA13" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AH13" t="n">
         <v>0.21</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AJ13" t="n">
         <v>0.26</v>
       </c>
       <c r="AK13" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="14">
@@ -2142,43 +2183,43 @@
         <v>0.06</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="AH14" t="n">
         <v>0.64</v>
@@ -2190,6 +2231,9 @@
         <v>0.53</v>
       </c>
       <c r="AK14" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AL14" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -2258,58 +2302,61 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0.015</v>
       </c>
-      <c r="X15" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Z15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AJ15" t="n">
         <v>0.34</v>
       </c>
       <c r="AK15" t="n">
         <v>0.36</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -2356,22 +2403,22 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="R16" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S16" t="n">
         <v>0.03</v>
@@ -2383,52 +2430,55 @@
         <v>0.04</v>
       </c>
       <c r="V16" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W16" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="X16" t="n">
         <v>0.06</v>
       </c>
-      <c r="X16" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Y16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AK16" t="n">
         <v>0.35</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="17">
@@ -2475,22 +2525,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0.005</v>
@@ -2502,52 +2552,55 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AB17" t="n">
         <v>0.03</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AC17" t="n">
         <v>0.05</v>
       </c>
-      <c r="AB17" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>0.1</v>
       </c>
-      <c r="AD17" t="n">
-        <v>0.16</v>
-      </c>
       <c r="AE17" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="AH17" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AI17" t="n">
         <v>0.32</v>
       </c>
-      <c r="AI17" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AK17" t="n">
         <v>0.33</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -2594,22 +2647,22 @@
         <v>0.005</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R18" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S18" t="n">
         <v>0.06</v>
@@ -2624,49 +2677,52 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W18" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X18" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="AH18" t="n">
         <v>0.4</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AK18" t="n">
         <v>0.43</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="19">
@@ -2713,22 +2769,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2743,49 +2799,52 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="X19" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="AA19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD19" t="n">
         <v>0.11</v>
       </c>
-      <c r="AB19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.18</v>
-      </c>
       <c r="AE19" t="n">
-        <v>0.29</v>
+        <v>0.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.46</v>
+        <v>0.37</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AJ19" t="n">
         <v>0.26</v>
       </c>
       <c r="AK19" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="20">
@@ -2856,46 +2915,46 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="V20" t="n">
         <v>0.09</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="X20" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="AI20" t="n">
         <v>0.57</v>
@@ -2904,6 +2963,9 @@
         <v>0.54</v>
       </c>
       <c r="AK20" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AL20" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -2975,43 +3037,43 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA21" t="n">
         <v>0.06</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AB21" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD21" t="n">
         <v>0.14</v>
       </c>
-      <c r="AC21" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.21</v>
-      </c>
       <c r="AE21" t="n">
-        <v>0.37</v>
+        <v>0.28</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="AH21" t="n">
         <v>0.23</v>
@@ -3024,6 +3086,9 @@
       </c>
       <c r="AK21" t="n">
         <v>0.33</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="22">
@@ -3103,37 +3168,37 @@
         <v>0.05</v>
       </c>
       <c r="X22" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AI22" t="n">
         <v>0.58</v>
@@ -3143,6 +3208,9 @@
       </c>
       <c r="AK22" t="n">
         <v>0.52</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="23">
@@ -3222,34 +3290,34 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB23" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>0.12</v>
       </c>
-      <c r="AC23" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AD23" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AH23" t="n">
         <v>0.17</v>
@@ -3262,6 +3330,9 @@
       </c>
       <c r="AK23" t="n">
         <v>0.26</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="24">
@@ -3326,7 +3397,7 @@
         <v>0.01</v>
       </c>
       <c r="S24" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="T24" t="n">
         <v>0.02</v>
@@ -3338,37 +3409,37 @@
         <v>0.04</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X24" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="AH24" t="n">
         <v>0.78</v>
@@ -3377,10 +3448,13 @@
         <v>0.71</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AK24" t="n">
         <v>0.58</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="25">
@@ -3457,37 +3531,37 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Y25" t="n">
         <v>0.01</v>
       </c>
-      <c r="X25" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Z25" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="AA25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AG25" t="n">
         <v>0.11</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0.12</v>
       </c>
       <c r="AH25" t="n">
         <v>0.11</v>
@@ -3500,6 +3574,9 @@
       </c>
       <c r="AK25" t="n">
         <v>0.32</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="26">
@@ -3558,7 +3635,7 @@
         <v>0.015</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="R26" t="n">
         <v>0.02</v>
@@ -3567,49 +3644,49 @@
         <v>0.03</v>
       </c>
       <c r="T26" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="U26" t="n">
         <v>0.02</v>
       </c>
       <c r="V26" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="W26" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="X26" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AI26" t="n">
         <v>0.64</v>
@@ -3619,6 +3696,9 @@
       </c>
       <c r="AK26" t="n">
         <v>0.5</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="27">
@@ -3686,49 +3766,49 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y27" t="n">
         <v>0.03</v>
       </c>
-      <c r="Y27" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z27" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="AB27" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC27" t="n">
         <v>0.22</v>
       </c>
-      <c r="AC27" t="n">
-        <v>0.23</v>
-      </c>
       <c r="AD27" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AI27" t="n">
         <v>0.27</v>
@@ -3738,6 +3818,9 @@
       </c>
       <c r="AK27" t="n">
         <v>0.42</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="28">
@@ -3784,22 +3867,22 @@
         <v>0.005</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.005</v>
+        <v>0.02</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="S28" t="n">
         <v>0.015</v>
@@ -3820,34 +3903,34 @@
         <v>0.04</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="AA28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD28" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AE28" t="n">
         <v>0.12</v>
       </c>
-      <c r="AC28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF28" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="AI28" t="n">
         <v>0.29</v>
@@ -3857,6 +3940,9 @@
       </c>
       <c r="AK28" t="n">
         <v>0.36</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="29">
@@ -3903,22 +3989,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0.01</v>
@@ -3933,40 +4019,40 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X29" t="n">
         <v>0.015</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AI29" t="n">
         <v>0.29</v>
@@ -3976,6 +4062,9 @@
       </c>
       <c r="AK29" t="n">
         <v>0.32</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="30">
@@ -4025,13 +4114,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O30" t="n">
         <v>0.005</v>
       </c>
       <c r="P30" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q30" t="n">
         <v>0.01</v>
@@ -4049,52 +4138,55 @@
         <v>0.04</v>
       </c>
       <c r="V30" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="W30" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X30" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.29</v>
+        <v>0.37</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="AH30" t="n">
         <v>0.52</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AJ30" t="n">
         <v>0.5</v>
       </c>
       <c r="AK30" t="n">
         <v>0.46</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="31">
@@ -4150,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -4168,52 +4260,55 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z31" t="n">
         <v>0.01</v>
       </c>
-      <c r="X31" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>0.04</v>
       </c>
-      <c r="AA31" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AB31" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC31" t="n">
         <v>0.1</v>
       </c>
-      <c r="AC31" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AD31" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.35</v>
+        <v>0.28</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AJ31" t="n">
         <v>0.24</v>
       </c>
       <c r="AK31" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="32">
@@ -4284,55 +4379,58 @@
         <v>0.06</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="V32" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="W32" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X32" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="AI32" t="n">
         <v>0.52</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AK32" t="n">
         <v>0.51</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="33">
@@ -4403,46 +4501,46 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="Z33" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA33" t="n">
         <v>0.08</v>
       </c>
-      <c r="AA33" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AB33" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AI33" t="n">
         <v>0.26</v>
@@ -4452,6 +4550,9 @@
       </c>
       <c r="AK33" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="34">
@@ -4528,40 +4629,40 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X34" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="AI34" t="n">
         <v>0.53</v>
@@ -4570,6 +4671,9 @@
         <v>0.52</v>
       </c>
       <c r="AK34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL34" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4644,43 +4748,43 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
         <v>0.02</v>
       </c>
-      <c r="Y35" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB35" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AA35" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AC35" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AI35" t="n">
         <v>0.27</v>
@@ -4690,6 +4794,9 @@
       </c>
       <c r="AK35" t="n">
         <v>0.35</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="36">
@@ -4733,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4763,49 +4870,52 @@
         <v>0.06</v>
       </c>
       <c r="W36" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.42</v>
+        <v>0.49</v>
       </c>
       <c r="AH36" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AI36" t="n">
         <v>0.46</v>
       </c>
-      <c r="AI36" t="n">
-        <v>0.45</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AK36" t="n">
         <v>0.47</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="37">
@@ -4849,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4861,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0.005</v>
@@ -4873,55 +4983,58 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="Z37" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AC37" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA37" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AD37" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH37" t="n">
         <v>0.24</v>
       </c>
-      <c r="AE37" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AG37" t="n">
+      <c r="AI37" t="n">
         <v>0.27</v>
       </c>
-      <c r="AH37" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AI37" t="n">
+      <c r="AJ37" t="n">
         <v>0.28</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0.29</v>
       </c>
       <c r="AK37" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="38">
@@ -4986,7 +5099,7 @@
         <v>0.02</v>
       </c>
       <c r="T38" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="U38" t="n">
         <v>0.05</v>
@@ -4998,34 +5111,34 @@
         <v>0.15</v>
       </c>
       <c r="X38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AH38" t="n">
         <v>0.55</v>
@@ -5038,6 +5151,9 @@
       </c>
       <c r="AK38" t="n">
         <v>0.57</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="39">
@@ -5114,34 +5230,34 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Z39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB39" t="n">
         <v>0.08</v>
       </c>
-      <c r="AA39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AC39" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AH39" t="n">
         <v>0.18</v>
@@ -5154,6 +5270,9 @@
       </c>
       <c r="AK39" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="40">
@@ -5209,7 +5328,7 @@
         <v>0.005</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R40" t="n">
         <v>0.02</v>
@@ -5221,7 +5340,7 @@
         <v>0.04</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="V40" t="n">
         <v>0.03</v>
@@ -5230,37 +5349,37 @@
         <v>0.08</v>
       </c>
       <c r="X40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.23</v>
+        <v>0.32</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="AI40" t="n">
         <v>0.43</v>
@@ -5270,6 +5389,9 @@
       </c>
       <c r="AK40" t="n">
         <v>0.39</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="41">
@@ -5337,43 +5459,43 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0.005</v>
       </c>
       <c r="X41" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AA41" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AB41" t="n">
         <v>0.11</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD41" t="n">
         <v>0.15</v>
       </c>
-      <c r="AC41" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.19</v>
-      </c>
       <c r="AE41" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.39</v>
+        <v>0.3</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="AH41" t="n">
         <v>0.22</v>
@@ -5386,6 +5508,9 @@
       </c>
       <c r="AK41" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="42">
@@ -5435,10 +5560,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P42" t="n">
         <v>0.03</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.005</v>
       </c>
       <c r="Q42" t="n">
         <v>0.07000000000000001</v>
@@ -5459,40 +5584,40 @@
         <v>0.13</v>
       </c>
       <c r="W42" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="X42" t="n">
         <v>0.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="AC42" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD42" t="n">
         <v>0.19</v>
       </c>
-      <c r="AD42" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AE42" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="AI42" t="n">
         <v>0.48</v>
@@ -5502,6 +5627,9 @@
       </c>
       <c r="AK42" t="n">
         <v>0.43</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="43">
@@ -5551,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -5572,52 +5700,55 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
         <v>0.015</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AA43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AB43" t="n">
         <v>0.04</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AC43" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="AE43" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AG43" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH43" t="n">
         <v>0.18</v>
       </c>
-      <c r="AH43" t="n">
-        <v>0.19</v>
-      </c>
       <c r="AI43" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AJ43" t="n">
         <v>0.26</v>
       </c>
       <c r="AK43" t="n">
         <v>0.34</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="44">
@@ -5697,46 +5828,49 @@
         <v>0.08</v>
       </c>
       <c r="X44" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AJ44" t="n">
         <v>0.48</v>
       </c>
       <c r="AK44" t="n">
         <v>0.47</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="45">
@@ -5810,52 +5944,55 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>0.01</v>
       </c>
-      <c r="X45" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Y45" t="n">
-        <v>0.04</v>
+        <v>0.005</v>
       </c>
       <c r="Z45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AB45" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA45" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AC45" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="AD45" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AH45" t="n">
         <v>0.22</v>
       </c>
-      <c r="AE45" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0.24</v>
-      </c>
       <c r="AI45" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>0.27</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>0.28</v>
       </c>
       <c r="AK45" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="46">
@@ -5926,43 +6063,43 @@
         <v>0.04</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="V46" t="n">
         <v>0.02</v>
       </c>
       <c r="W46" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="X46" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="X46" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Y46" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AH46" t="n">
         <v>0.48</v>
@@ -5975,6 +6112,9 @@
       </c>
       <c r="AK46" t="n">
         <v>0.46</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="47">
@@ -6045,43 +6185,43 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB47" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z47" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AC47" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AD47" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AG47" t="n">
         <v>0.21</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0.23</v>
       </c>
       <c r="AH47" t="n">
         <v>0.19</v>
@@ -6094,6 +6234,9 @@
       </c>
       <c r="AK47" t="n">
         <v>0.27</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="48">
@@ -6140,22 +6283,22 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="R48" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="S48" t="n">
         <v>0.05</v>
@@ -6167,40 +6310,40 @@
         <v>0.06</v>
       </c>
       <c r="V48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="W48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.25</v>
+        <v>0.32</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="AH48" t="n">
         <v>0.58</v>
@@ -6212,6 +6355,9 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AK48" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AL48" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -6259,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
         <v>0.015</v>
@@ -6286,40 +6432,40 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
         <v>0.01</v>
       </c>
-      <c r="W49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA49" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AB49" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AC49" t="n">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AH49" t="n">
         <v>0.2</v>
@@ -6331,6 +6477,9 @@
         <v>0.23</v>
       </c>
       <c r="AK49" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AL49" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -6381,13 +6530,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q50" t="n">
         <v>0.01</v>
@@ -6408,37 +6557,37 @@
         <v>0.04</v>
       </c>
       <c r="W50" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X50" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="AH50" t="n">
         <v>0.52</v>
@@ -6451,6 +6600,9 @@
       </c>
       <c r="AK50" t="n">
         <v>0.44</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="51">
@@ -6518,49 +6670,49 @@
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X51" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.04</v>
+        <v>0.015</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.05</v>
+        <v>0.015</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="AG51" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH51" t="n">
         <v>0.22</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>0.23</v>
       </c>
       <c r="AI51" t="n">
         <v>0.24</v>
@@ -6570,6 +6722,9 @@
       </c>
       <c r="AK51" t="n">
         <v>0.32</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="52">
@@ -6643,52 +6798,55 @@
         <v>0.05</v>
       </c>
       <c r="V52" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W52" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="AH52" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AI52" t="n">
         <v>0.54</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>0.53</v>
       </c>
       <c r="AJ52" t="n">
         <v>0.5</v>
       </c>
       <c r="AK52" t="n">
         <v>0.48</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="53">
@@ -6765,49 +6923,52 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Z53" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA53" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AB53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC53" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB53" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AD53" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>0.28</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0.29</v>
       </c>
       <c r="AK53" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="54">
@@ -6854,22 +7015,22 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P54" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R54" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S54" t="n">
         <v>0.04</v>
@@ -6881,40 +7042,40 @@
         <v>0.05</v>
       </c>
       <c r="V54" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="W54" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X54" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="AH54" t="n">
         <v>0.47</v>
@@ -6927,6 +7088,9 @@
       </c>
       <c r="AK54" t="n">
         <v>0.44</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="55">
@@ -6973,22 +7137,22 @@
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -6997,43 +7161,43 @@
         <v>0.005</v>
       </c>
       <c r="U55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
         <v>0.01</v>
       </c>
-      <c r="X55" t="n">
-        <v>0.03</v>
-      </c>
       <c r="Y55" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Z55" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA55" t="n">
         <v>0.05</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AB55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC55" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB55" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AD55" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
       </c>
       <c r="AH55" t="n">
         <v>0.23</v>
@@ -7046,6 +7210,9 @@
       </c>
       <c r="AK55" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="56">
@@ -7116,55 +7283,58 @@
         <v>0.06</v>
       </c>
       <c r="U56" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="V56" t="n">
         <v>0.06</v>
       </c>
       <c r="W56" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X56" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AA56" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AK56" t="n">
         <v>0.49</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="57">
@@ -7235,55 +7405,58 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.015</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="AE57" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="AF57" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AG57" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AJ57" t="n">
         <v>0.25</v>
       </c>
       <c r="AK57" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="58">
@@ -7357,52 +7530,55 @@
         <v>0.06</v>
       </c>
       <c r="V58" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W58" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="X58" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="AG58" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AH58" t="n">
         <v>0.51</v>
       </c>
-      <c r="AH58" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AI58" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="AK58" t="n">
         <v>0.45</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="59">
@@ -7479,49 +7655,52 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB59" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z59" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AC59" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AI59" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>0.24</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>0.26</v>
       </c>
       <c r="AK59" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="60">
@@ -7598,49 +7777,52 @@
         <v>0.04</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X60" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AI60" t="n">
         <v>0.61</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="AK60" t="n">
         <v>0.52</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="61">
@@ -7717,40 +7899,40 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Z61" t="n">
         <v>0.02</v>
       </c>
-      <c r="Y61" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AA61" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AG61" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AI61" t="n">
         <v>0.25</v>
@@ -7760,6 +7942,9 @@
       </c>
       <c r="AK61" t="n">
         <v>0.34</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="62">
@@ -7806,22 +7991,22 @@
         <v>0.01</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O62" t="n">
         <v>0.005</v>
       </c>
       <c r="P62" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="R62" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S62" t="n">
         <v>0.05</v>
@@ -7833,52 +8018,55 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="V62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="W62" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="X62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="AA62" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AC62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="AE62" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AH62" t="n">
         <v>0.29</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="AJ62" t="n">
         <v>0.36</v>
       </c>
       <c r="AK62" t="n">
         <v>0.4</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="63">
@@ -7925,22 +8113,22 @@
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -7952,52 +8140,55 @@
         <v>0.01</v>
       </c>
       <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
         <v>0.01</v>
       </c>
-      <c r="W63" t="n">
+      <c r="X63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA63" t="n">
         <v>0.02</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AB63" t="n">
         <v>0.04</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AC63" t="n">
         <v>0.06</v>
       </c>
-      <c r="Z63" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA63" t="n">
+      <c r="AD63" t="n">
         <v>0.08</v>
       </c>
-      <c r="AB63" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AE63" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="AH63" t="n">
         <v>0.27</v>
       </c>
       <c r="AI63" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AJ63" t="n">
         <v>0.27</v>
       </c>
       <c r="AK63" t="n">
         <v>0.29</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="64">
@@ -8044,19 +8235,19 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P64" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R64" t="n">
         <v>0.03</v>
@@ -8071,43 +8262,43 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="V64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="W64" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="X64" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AA64" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AC64" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="AI64" t="n">
         <v>0.31</v>
@@ -8117,6 +8308,9 @@
       </c>
       <c r="AK64" t="n">
         <v>0.37</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="65">
@@ -8163,22 +8357,22 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S65" t="n">
         <v>0.005</v>
@@ -8190,43 +8384,43 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z65" t="n">
         <v>0.01</v>
       </c>
-      <c r="X65" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y65" t="n">
+      <c r="AA65" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z65" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AB65" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC65" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="AE65" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AI65" t="n">
         <v>0.37</v>
@@ -8236,6 +8430,9 @@
       </c>
       <c r="AK65" t="n">
         <v>0.37</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="66">
@@ -8297,7 +8494,7 @@
         <v>0.005</v>
       </c>
       <c r="R66" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="S66" t="n">
         <v>0.02</v>
@@ -8315,34 +8512,34 @@
         <v>0.04</v>
       </c>
       <c r="X66" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA66" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AC66" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AH66" t="n">
         <v>0.65</v>
@@ -8355,6 +8552,9 @@
       </c>
       <c r="AK66" t="n">
         <v>0.54</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="67">
@@ -8431,37 +8631,37 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>0.005</v>
       </c>
       <c r="Y67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z67" t="n">
         <v>0.03</v>
       </c>
-      <c r="Z67" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AA67" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AC67" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="AE67" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AH67" t="n">
         <v>0.14</v>
@@ -8474,6 +8674,9 @@
       </c>
       <c r="AK67" t="n">
         <v>0.27</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="68">
@@ -8520,22 +8723,22 @@
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R68" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S68" t="n">
         <v>0.04</v>
@@ -8553,46 +8756,49 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X68" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="AK68" t="n">
         <v>0.44</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="69">
@@ -8639,22 +8845,22 @@
         <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -8663,55 +8869,58 @@
         <v>0.005</v>
       </c>
       <c r="U69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Z69" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA69" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA69" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AB69" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
       <c r="AH69" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AI69" t="n">
         <v>0.25</v>
       </c>
-      <c r="AI69" t="n">
-        <v>0.26</v>
-      </c>
       <c r="AJ69" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AK69" t="n">
         <v>0.33</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="70">
@@ -8782,55 +8991,58 @@
         <v>0.06</v>
       </c>
       <c r="U70" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="V70" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="X70" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AA70" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="AB70" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.28</v>
+        <v>0.32</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AJ70" t="n">
         <v>0.51</v>
       </c>
       <c r="AK70" t="n">
         <v>0.48</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="71">
@@ -8907,37 +9119,37 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z71" t="n">
         <v>0.01</v>
       </c>
-      <c r="X71" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="Y71" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z71" t="n">
+      <c r="AA71" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB71" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA71" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB71" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AC71" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="AH71" t="n">
         <v>0.23</v>
@@ -8950,6 +9162,9 @@
       </c>
       <c r="AK71" t="n">
         <v>0.29</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="72">
@@ -9029,46 +9244,49 @@
         <v>0.05</v>
       </c>
       <c r="X72" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AB72" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AC72" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="AI72" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AJ72" t="n">
         <v>0.44</v>
       </c>
       <c r="AK72" t="n">
         <v>0.46</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="73">
@@ -9142,52 +9360,55 @@
         <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="Y73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z73" t="n">
         <v>0.02</v>
       </c>
-      <c r="Z73" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AA73" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC73" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB73" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AC73" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AD73" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AI73" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AJ73" t="n">
         <v>0.26</v>
       </c>
       <c r="AK73" t="n">
         <v>0.26</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="74">
@@ -9252,61 +9473,64 @@
         <v>0.03</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="T74" t="n">
         <v>0.05</v>
       </c>
       <c r="U74" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V74" t="n">
         <v>0.05</v>
       </c>
-      <c r="V74" t="n">
-        <v>0.04</v>
-      </c>
       <c r="W74" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X74" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AB74" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.19</v>
+        <v>0.25</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="AJ74" t="n">
         <v>0.53</v>
       </c>
       <c r="AK74" t="n">
         <v>0.51</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="75">
@@ -9377,55 +9601,58 @@
         <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Y75" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA75" t="n">
         <v>0.04</v>
       </c>
-      <c r="Z75" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AA75" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AB75" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AC75" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="AD75" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AI75" t="n">
         <v>0.25</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AH75" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AI75" t="n">
-        <v>0.26</v>
       </c>
       <c r="AJ75" t="n">
         <v>0.31</v>
       </c>
       <c r="AK75" t="n">
         <v>0.33</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="76">
@@ -9475,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="O76" t="n">
         <v>0.01</v>
@@ -9505,46 +9732,49 @@
         <v>0.06</v>
       </c>
       <c r="X76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AA76" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AB76" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AE76" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="AK76" t="n">
         <v>0.44</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="77">
@@ -9594,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -9621,49 +9851,52 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X77" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z77" t="n">
         <v>0.015</v>
       </c>
-      <c r="Y77" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AA77" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AB77" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG77" t="n">
         <v>0.14</v>
       </c>
-      <c r="AC77" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF77" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AG77" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AH77" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AI77" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AK77" t="n">
         <v>0.3</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="78">
@@ -9737,40 +9970,40 @@
         <v>0.04</v>
       </c>
       <c r="V78" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="W78" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X78" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AA78" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AB78" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="AC78" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="AG78" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AH78" t="n">
         <v>0.61</v>
@@ -9783,6 +10016,9 @@
       </c>
       <c r="AK78" t="n">
         <v>0.48</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="79">
@@ -9853,43 +10089,43 @@
         <v>0</v>
       </c>
       <c r="U79" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Y79" t="n">
         <v>0.015</v>
       </c>
-      <c r="Y79" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z79" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA79" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA79" t="n">
+      <c r="AB79" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB79" t="n">
-        <v>0.15</v>
-      </c>
       <c r="AC79" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AH79" t="n">
         <v>0.17</v>
@@ -9902,6 +10138,9 @@
       </c>
       <c r="AK79" t="n">
         <v>0.35</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="80">
@@ -9948,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -9957,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q80" t="n">
         <v>0.005</v>
@@ -9978,49 +10217,52 @@
         <v>0.06</v>
       </c>
       <c r="W80" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="X80" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="AA80" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="AB80" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AC80" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="AD80" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.48</v>
+        <v>0.54</v>
       </c>
       <c r="AH80" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AI80" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AJ80" t="n">
         <v>0.47</v>
       </c>
       <c r="AK80" t="n">
         <v>0.48</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="81">
@@ -10067,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -10076,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -10097,49 +10339,52 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
         <v>0.03</v>
       </c>
-      <c r="Y81" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z81" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AB81" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="AC81" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AI81" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AJ81" t="n">
         <v>0.24</v>
       </c>
       <c r="AK81" t="n">
         <v>0.27</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="82">
@@ -10216,49 +10461,52 @@
         <v>0.04</v>
       </c>
       <c r="W82" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="X82" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="AI82" t="n">
         <v>0.58</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AK82" t="n">
         <v>0.58</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="83">
@@ -10329,55 +10577,58 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
         <v>0.01</v>
       </c>
-      <c r="V83" t="n">
-        <v>0</v>
-      </c>
-      <c r="W83" t="n">
+      <c r="X83" t="n">
         <v>0.02</v>
       </c>
-      <c r="X83" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Y83" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="AD83" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="AE83" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="AF83" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="AG83" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="AH83" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AI83" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AJ83" t="n">
         <v>0.26</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0.27</v>
       </c>
       <c r="AK83" t="n">
         <v>0.33</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="84">
@@ -10427,19 +10678,19 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R84" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="S84" t="n">
         <v>0.015</v>
@@ -10448,55 +10699,58 @@
         <v>0.03</v>
       </c>
       <c r="U84" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="V84" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="X84" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="AH84" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="AK84" t="n">
         <v>0.47</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="85">
@@ -10546,19 +10800,19 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
       </c>
       <c r="P85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -10567,55 +10821,58 @@
         <v>0.005</v>
       </c>
       <c r="U85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y85" t="n">
         <v>0.01</v>
       </c>
-      <c r="X85" t="n">
+      <c r="Z85" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB85" t="n">
         <v>0.03</v>
       </c>
-      <c r="Y85" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z85" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AC85" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="AD85" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="AE85" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="AF85" t="n">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="AG85" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="AH85" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AI85" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AK85" t="n">
         <v>0.29</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="86">
@@ -10668,10 +10925,10 @@
         <v>0.01</v>
       </c>
       <c r="O86" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P86" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q86" t="n">
         <v>0.05</v>
@@ -10689,52 +10946,55 @@
         <v>0.14</v>
       </c>
       <c r="V86" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="W86" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="X86" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="AB86" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.21</v>
+        <v>0.3</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="AG86" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AI86" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH86" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AI86" t="n">
-        <v>0.48</v>
-      </c>
       <c r="AJ86" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AK86" t="n">
         <v>0.46</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="87">
@@ -10787,73 +11047,76 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
         <v>0.01</v>
       </c>
-      <c r="Q87" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="R87" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T87" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U87" t="n">
-        <v>0</v>
-      </c>
-      <c r="V87" t="n">
-        <v>0</v>
-      </c>
-      <c r="W87" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="X87" t="n">
+      <c r="Y87" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Z87" t="n">
         <v>0.02</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="AA87" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z87" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AB87" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC87" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AD87" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF87" t="n">
         <v>0.29</v>
       </c>
-      <c r="AE87" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0.37</v>
-      </c>
       <c r="AG87" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="AH87" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="AI87" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AJ87" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AK87" t="n">
         <v>0.35</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="88">
@@ -10903,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -10924,43 +11187,43 @@
         <v>0.01</v>
       </c>
       <c r="U88" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="V88" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="X88" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="Z88" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA88" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AB88" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AC88" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="AE88" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="AG88" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="AH88" t="n">
         <v>0.57</v>
@@ -10973,6 +11236,9 @@
       </c>
       <c r="AK88" t="n">
         <v>0.51</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="89">
@@ -11022,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -11043,43 +11309,43 @@
         <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
         <v>0.01</v>
       </c>
-      <c r="X89" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Y89" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="Z89" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA89" t="n">
         <v>0.06</v>
       </c>
-      <c r="AA89" t="n">
+      <c r="AB89" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AC89" t="n">
         <v>0.1</v>
       </c>
-      <c r="AB89" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC89" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AD89" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AG89" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AH89" t="n">
         <v>0.19</v>
@@ -11092,6 +11358,9 @@
       </c>
       <c r="AK89" t="n">
         <v>0.29</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="90">
@@ -11138,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -11150,10 +11419,10 @@
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S90" t="n">
         <v>0.005</v>
@@ -11165,40 +11434,40 @@
         <v>0.015</v>
       </c>
       <c r="V90" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="W90" t="n">
         <v>0.03</v>
       </c>
       <c r="X90" t="n">
-        <v>0.015</v>
+        <v>0.04</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AA90" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB90" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AH90" t="n">
         <v>0.49</v>
@@ -11211,6 +11480,9 @@
       </c>
       <c r="AK90" t="n">
         <v>0.44</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="91">
@@ -11281,46 +11553,46 @@
         <v>0.005</v>
       </c>
       <c r="U91" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V91" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X91" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="Y91" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AA91" t="n">
         <v>0.05</v>
       </c>
-      <c r="Z91" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA91" t="n">
+      <c r="AB91" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC91" t="n">
         <v>0.09</v>
       </c>
-      <c r="AB91" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AC91" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AD91" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.35</v>
+        <v>0.29</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AI91" t="n">
         <v>0.24</v>
@@ -11330,12 +11602,15 @@
       </c>
       <c r="AK91" t="n">
         <v>0.31</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ47"/>
+  <dimension ref="A1:AK47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11539,6 +11814,11 @@
           <t>11. 11. 2021</t>
         </is>
       </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>30. 11. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -11653,6 +11933,9 @@
       <c r="AJ2" t="n">
         <v>1709</v>
       </c>
+      <c r="AK2" t="n">
+        <v>1790</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -11767,6 +12050,9 @@
       <c r="AJ3" t="n">
         <v>425</v>
       </c>
+      <c r="AK3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -11881,6 +12167,9 @@
       <c r="AJ4" t="n">
         <v>627</v>
       </c>
+      <c r="AK4" t="n">
+        <v>647</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -11995,6 +12284,9 @@
       <c r="AJ5" t="n">
         <v>657</v>
       </c>
+      <c r="AK5" t="n">
+        <v>691</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -12109,6 +12401,9 @@
       <c r="AJ6" t="n">
         <v>788</v>
       </c>
+      <c r="AK6" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -12223,6 +12518,9 @@
       <c r="AJ7" t="n">
         <v>590</v>
       </c>
+      <c r="AK7" t="n">
+        <v>608</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -12337,6 +12635,9 @@
       <c r="AJ8" t="n">
         <v>331</v>
       </c>
+      <c r="AK8" t="n">
+        <v>353</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -12451,6 +12752,9 @@
       <c r="AJ9" t="n">
         <v>410</v>
       </c>
+      <c r="AK9" t="n">
+        <v>430</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -12565,6 +12869,9 @@
       <c r="AJ10" t="n">
         <v>416</v>
       </c>
+      <c r="AK10" t="n">
+        <v>426</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12679,6 +12986,9 @@
       <c r="AJ11" t="n">
         <v>226</v>
       </c>
+      <c r="AK11" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -12793,6 +13103,9 @@
       <c r="AJ12" t="n">
         <v>377</v>
       </c>
+      <c r="AK12" t="n">
+        <v>399</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -12907,6 +13220,9 @@
       <c r="AJ13" t="n">
         <v>174</v>
       </c>
+      <c r="AK13" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -13021,6 +13337,9 @@
       <c r="AJ14" t="n">
         <v>106</v>
       </c>
+      <c r="AK14" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -13133,7 +13452,10 @@
         <v>193</v>
       </c>
       <c r="AJ15" t="n">
-        <v>182</v>
+        <v>184</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -13247,7 +13569,10 @@
         <v>666</v>
       </c>
       <c r="AJ16" t="n">
-        <v>618</v>
+        <v>621</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>633</v>
       </c>
     </row>
     <row r="17">
@@ -13361,7 +13686,10 @@
         <v>611</v>
       </c>
       <c r="AJ17" t="n">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>585</v>
       </c>
     </row>
     <row r="18">
@@ -13475,7 +13803,10 @@
         <v>245</v>
       </c>
       <c r="AJ18" t="n">
-        <v>250</v>
+        <v>252</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="19">
@@ -13589,6 +13920,9 @@
       <c r="AJ19" t="n">
         <v>728</v>
       </c>
+      <c r="AK19" t="n">
+        <v>777</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -13701,6 +14035,9 @@
       <c r="AJ20" t="n">
         <v>72</v>
       </c>
+      <c r="AK20" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -13813,6 +14150,9 @@
       <c r="AJ21" t="n">
         <v>71</v>
       </c>
+      <c r="AK21" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -13925,6 +14265,9 @@
       <c r="AJ22" t="n">
         <v>84</v>
       </c>
+      <c r="AK22" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14039,6 +14382,9 @@
       <c r="AJ23" t="n">
         <v>783</v>
       </c>
+      <c r="AK23" t="n">
+        <v>829</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14153,6 +14499,9 @@
       <c r="AJ24" t="n">
         <v>140</v>
       </c>
+      <c r="AK24" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14267,6 +14616,9 @@
       <c r="AJ25" t="n">
         <v>103</v>
       </c>
+      <c r="AK25" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14381,6 +14733,9 @@
       <c r="AJ26" t="n">
         <v>683</v>
       </c>
+      <c r="AK26" t="n">
+        <v>704</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14495,6 +14850,9 @@
       <c r="AJ27" t="n">
         <v>833</v>
       </c>
+      <c r="AK27" t="n">
+        <v>872</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -14609,6 +14967,9 @@
       <c r="AJ28" t="n">
         <v>876</v>
       </c>
+      <c r="AK28" t="n">
+        <v>918</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14723,6 +15084,9 @@
       <c r="AJ29" t="n">
         <v>226</v>
       </c>
+      <c r="AK29" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14837,6 +15201,9 @@
       <c r="AJ30" t="n">
         <v>313</v>
       </c>
+      <c r="AK30" t="n">
+        <v>319</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -14951,6 +15318,9 @@
       <c r="AJ31" t="n">
         <v>295</v>
       </c>
+      <c r="AK31" t="n">
+        <v>311</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -15065,6 +15435,9 @@
       <c r="AJ32" t="n">
         <v>199</v>
       </c>
+      <c r="AK32" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -15179,6 +15552,9 @@
       <c r="AJ33" t="n">
         <v>314</v>
       </c>
+      <c r="AK33" t="n">
+        <v>328</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -15293,6 +15669,9 @@
       <c r="AJ34" t="n">
         <v>362</v>
       </c>
+      <c r="AK34" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -15407,6 +15786,9 @@
       <c r="AJ35" t="n">
         <v>888</v>
       </c>
+      <c r="AK35" t="n">
+        <v>929</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -15521,6 +15903,9 @@
       <c r="AJ36" t="n">
         <v>397</v>
       </c>
+      <c r="AK36" t="n">
+        <v>419</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -15635,6 +16020,9 @@
       <c r="AJ37" t="n">
         <v>199</v>
       </c>
+      <c r="AK37" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -15749,6 +16137,9 @@
       <c r="AJ38" t="n">
         <v>225</v>
       </c>
+      <c r="AK38" t="n">
+        <v>236</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -15863,6 +16254,9 @@
       <c r="AJ39" t="n">
         <v>287</v>
       </c>
+      <c r="AK39" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -15977,6 +16371,9 @@
       <c r="AJ40" t="n">
         <v>243</v>
       </c>
+      <c r="AK40" t="n">
+        <v>256</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -16091,6 +16488,9 @@
       <c r="AJ41" t="n">
         <v>246</v>
       </c>
+      <c r="AK41" t="n">
+        <v>274</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -16205,6 +16605,9 @@
       <c r="AJ42" t="n">
         <v>219</v>
       </c>
+      <c r="AK42" t="n">
+        <v>268</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -16319,6 +16722,9 @@
       <c r="AJ43" t="n">
         <v>484</v>
       </c>
+      <c r="AK43" t="n">
+        <v>424</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -16433,6 +16839,9 @@
       <c r="AJ44" t="n">
         <v>374</v>
       </c>
+      <c r="AK44" t="n">
+        <v>517</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -16547,6 +16956,9 @@
       <c r="AJ45" t="n">
         <v>468</v>
       </c>
+      <c r="AK45" t="n">
+        <v>610</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -16661,11 +17073,14 @@
       <c r="AJ46" t="n">
         <v>867</v>
       </c>
+      <c r="AK46" t="n">
+        <v>663</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 18. 11. 2021</t>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 8. 12. 2021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -16703,6 +17118,7 @@
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0.005</v>
@@ -740,37 +740,37 @@
         <v>0.14</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X3" t="n">
         <v>0.01</v>
@@ -868,31 +868,31 @@
         <v>0.09</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -948,7 +948,7 @@
         <v>0.005</v>
       </c>
       <c r="P4" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="Q4" t="n">
         <v>0.02</v>
@@ -957,7 +957,7 @@
         <v>0.03</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T4" t="n">
         <v>0.06</v>
@@ -978,43 +978,43 @@
         <v>0.12</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AA4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0.14</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.13</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF4" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.35</v>
+        <v>0.49</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1097,46 +1097,46 @@
         <v>0.01</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="Z5" t="n">
         <v>0.01</v>
       </c>
       <c r="AA5" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.03</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AC5" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AI5" t="n">
         <v>0.09</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AJ5" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G6" t="n">
         <v>0.005</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0.005</v>
@@ -1195,7 +1195,7 @@
         <v>0.005</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="R6" t="n">
         <v>0.03</v>
@@ -1213,7 +1213,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="X6" t="n">
         <v>0.11</v>
@@ -1225,40 +1225,40 @@
         <v>0.16</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.53</v>
+        <v>0.58</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.41</v>
+        <v>0.59</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.41</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="7">
@@ -1305,22 +1305,22 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S7" t="n">
         <v>0.005</v>
@@ -1329,19 +1329,19 @@
         <v>0.005</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Z7" t="n">
         <v>0.015</v>
@@ -1350,37 +1350,37 @@
         <v>0.04</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AC7" t="n">
         <v>0.04</v>
       </c>
       <c r="AD7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI7" t="n">
         <v>0.12</v>
       </c>
-      <c r="AE7" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.29</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -1442,7 +1442,7 @@
         <v>0.005</v>
       </c>
       <c r="R8" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S8" t="n">
         <v>0.02</v>
@@ -1463,7 +1463,7 @@
         <v>0.06</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z8" t="n">
         <v>0.08</v>
@@ -1472,37 +1472,37 @@
         <v>0.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AD8" t="n">
         <v>0.21</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.41</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9">
@@ -1594,7 +1594,7 @@
         <v>0.08</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AC9" t="n">
         <v>0.16</v>
@@ -1603,28 +1603,28 @@
         <v>0.37</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.47</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
@@ -1644,13 +1644,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1665,28 +1665,28 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0.005</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="R10" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S10" t="n">
         <v>0.03</v>
@@ -1701,7 +1701,7 @@
         <v>0.05</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="X10" t="n">
         <v>0.06</v>
@@ -1713,40 +1713,40 @@
         <v>0.09</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AB10" t="n">
         <v>0.13</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.46</v>
+        <v>0.59</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
@@ -1793,28 +1793,28 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X11" t="n">
         <v>0.005</v>
@@ -1832,43 +1832,43 @@
         <v>0.005</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="AA11" t="n">
         <v>0.04</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1915,7 @@
         <v>0.005</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0.005</v>
@@ -1933,7 +1933,7 @@
         <v>0.02</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="T12" t="n">
         <v>0.05</v>
@@ -1948,7 +1948,7 @@
         <v>0.08</v>
       </c>
       <c r="X12" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Y12" t="n">
         <v>0.13</v>
@@ -1957,7 +1957,7 @@
         <v>0.14</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AB12" t="n">
         <v>0.16</v>
@@ -1966,31 +1966,31 @@
         <v>0.18</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="13">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0.005</v>
       </c>
       <c r="X13" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Y13" t="n">
         <v>0.01</v>
@@ -2079,40 +2079,40 @@
         <v>0.02</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AC13" t="n">
         <v>0.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="AE13" t="n">
         <v>0.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.37</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="14">
@@ -2177,7 +2177,7 @@
         <v>0.04</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="T14" t="n">
         <v>0.06</v>
@@ -2198,7 +2198,7 @@
         <v>0.14</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AA14" t="n">
         <v>0.18</v>
@@ -2210,31 +2210,31 @@
         <v>0.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.53</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="15">
@@ -2329,34 +2329,34 @@
         <v>0.11</v>
       </c>
       <c r="AC15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI15" t="n">
         <v>0.11</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AJ15" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AK15" t="n">
         <v>0.2</v>
       </c>
-      <c r="AE15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0.36</v>
-      </c>
       <c r="AL15" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="16">
@@ -2376,13 +2376,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G16" t="n">
         <v>0.005</v>
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M16" t="n">
         <v>0.005</v>
@@ -2415,7 +2415,7 @@
         <v>0.015</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R16" t="n">
         <v>0.015</v>
@@ -2433,7 +2433,7 @@
         <v>0.06</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="X16" t="n">
         <v>0.06</v>
@@ -2445,40 +2445,40 @@
         <v>0.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AB16" t="n">
         <v>0.14</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.32</v>
+        <v>0.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.32</v>
+        <v>0.52</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="17">
@@ -2525,22 +2525,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S17" t="n">
         <v>0.005</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X17" t="n">
         <v>0.01</v>
@@ -2564,43 +2564,43 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="AB17" t="n">
         <v>0.03</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="18">
@@ -2662,13 +2662,13 @@
         <v>0.015</v>
       </c>
       <c r="R18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="S18" t="n">
         <v>0.06</v>
       </c>
       <c r="T18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="U18" t="n">
         <v>0.07000000000000001</v>
@@ -2683,7 +2683,7 @@
         <v>0.11</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="Z18" t="n">
         <v>0.16</v>
@@ -2692,37 +2692,37 @@
         <v>0.18</v>
       </c>
       <c r="AB18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD18" t="n">
         <v>0.18</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.15</v>
       </c>
       <c r="AE18" t="n">
         <v>0.18</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.4</v>
+        <v>0.52</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="19">
@@ -2784,22 +2784,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="X19" t="n">
         <v>0.01</v>
@@ -2814,37 +2814,37 @@
         <v>0.05</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AC19" t="n">
         <v>0.05</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AE19" t="n">
         <v>0.2</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.31</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20">
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O20" t="n">
         <v>0.01</v>
@@ -2903,7 +2903,7 @@
         <v>0.01</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R20" t="n">
         <v>0.05</v>
@@ -2918,7 +2918,7 @@
         <v>0.09</v>
       </c>
       <c r="V20" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="W20" t="n">
         <v>0.1</v>
@@ -2930,43 +2930,43 @@
         <v>0.17</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AB20" t="n">
         <v>0.22</v>
       </c>
       <c r="AC20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD20" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD20" t="n">
-        <v>0.22</v>
-      </c>
       <c r="AE20" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.54</v>
+        <v>0.68</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.54</v>
+        <v>0.66</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="21">
@@ -3052,10 +3052,10 @@
         <v>0.005</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB21" t="n">
         <v>0.07000000000000001</v>
@@ -3064,31 +3064,31 @@
         <v>0.05</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.28</v>
+        <v>0.22</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.23</v>
+        <v>0.09</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.39</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="22">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="S22" t="n">
         <v>0.02</v>
@@ -3171,16 +3171,16 @@
         <v>0.06</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Z22" t="n">
         <v>0.08</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC22" t="n">
         <v>0.14</v>
@@ -3192,25 +3192,25 @@
         <v>0.18</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.58</v>
+        <v>0.65</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.52</v>
+        <v>0.66</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.39</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3296,43 +3296,43 @@
         <v>0.01</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="AA23" t="n">
         <v>0.06</v>
       </c>
       <c r="AB23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AH23" t="n">
         <v>0.09</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AI23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AK23" t="n">
         <v>0.12</v>
       </c>
-      <c r="AD23" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.26</v>
-      </c>
       <c r="AL23" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="24">
@@ -3412,7 +3412,7 @@
         <v>0.05</v>
       </c>
       <c r="X24" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Y24" t="n">
         <v>0.08</v>
@@ -3424,37 +3424,37 @@
         <v>0.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="25">
@@ -3543,40 +3543,40 @@
         <v>0.02</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="AI25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AL25" t="n">
         <v>0.18</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0.52</v>
       </c>
     </row>
     <row r="26">
@@ -3650,7 +3650,7 @@
         <v>0.02</v>
       </c>
       <c r="V26" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="W26" t="n">
         <v>0.03</v>
@@ -3671,34 +3671,34 @@
         <v>0.16</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="AI26" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.51</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27">
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="Y27" t="n">
         <v>0.03</v>
@@ -3790,37 +3790,37 @@
         <v>0.13</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AC27" t="n">
         <v>0.22</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.43</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="28">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G28" t="n">
         <v>0.01</v>
@@ -3867,22 +3867,22 @@
         <v>0.005</v>
       </c>
       <c r="M28" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0.01</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="S28" t="n">
         <v>0.015</v>
@@ -3915,34 +3915,34 @@
         <v>0.17</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AF28" t="n">
         <v>0.28</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.3</v>
+        <v>0.42</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.36</v>
+        <v>0.53</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="29">
@@ -3989,22 +3989,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="S29" t="n">
         <v>0.01</v>
@@ -4040,31 +4040,31 @@
         <v>0.08</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AF29" t="n">
         <v>0.24</v>
       </c>
       <c r="AG29" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AL29" t="n">
         <v>0.22</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0.41</v>
       </c>
     </row>
     <row r="30">
@@ -4120,13 +4120,13 @@
         <v>0.005</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="Q30" t="n">
         <v>0.01</v>
       </c>
       <c r="R30" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S30" t="n">
         <v>0.03</v>
@@ -4153,40 +4153,40 @@
         <v>0.12</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AB30" t="n">
         <v>0.14</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AE30" t="n">
         <v>0.21</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="AI30" t="n">
-        <v>0.53</v>
+        <v>0.65</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="31">
@@ -4242,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -4278,37 +4278,37 @@
         <v>0.04</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AE31" t="n">
         <v>0.33</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.21</v>
+        <v>0.09</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.39</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="32">
@@ -4349,25 +4349,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P32" t="n">
         <v>0.01</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R32" t="n">
         <v>0.04</v>
@@ -4385,19 +4385,19 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W32" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="X32" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="Y32" t="n">
         <v>0.13</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AB32" t="n">
         <v>0.17</v>
@@ -4406,31 +4406,31 @@
         <v>0.19</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.52</v>
+        <v>0.67</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="33">
@@ -4498,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X33" t="n">
         <v>0.01</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="Z33" t="n">
         <v>0.03</v>
@@ -4522,37 +4522,37 @@
         <v>0.08</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC33" t="n">
         <v>0.09</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AH33" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>0.19</v>
       </c>
-      <c r="AI33" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>0.3</v>
-      </c>
       <c r="AK33" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="AL33" t="n">
-        <v>0.44</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="34">
@@ -4611,10 +4611,10 @@
         <v>0.005</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R34" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="S34" t="n">
         <v>0.05</v>
@@ -4632,19 +4632,19 @@
         <v>0.08</v>
       </c>
       <c r="X34" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="Z34" t="n">
         <v>0.17</v>
       </c>
       <c r="AA34" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB34" t="n">
         <v>0.17</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>0.18</v>
       </c>
       <c r="AC34" t="n">
         <v>0.24</v>
@@ -4653,28 +4653,28 @@
         <v>0.23</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.52</v>
+        <v>0.68</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="35">
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X35" t="n">
         <v>0.015</v>
@@ -4766,7 +4766,7 @@
         <v>0.04</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AC35" t="n">
         <v>0.08</v>
@@ -4775,28 +4775,28 @@
         <v>0.15</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AI35" t="n">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="36">
@@ -4816,10 +4816,10 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4843,10 +4843,10 @@
         <v>0.005</v>
       </c>
       <c r="N36" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P36" t="n">
         <v>0.005</v>
@@ -4855,7 +4855,7 @@
         <v>0.005</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S36" t="n">
         <v>0.02</v>
@@ -4873,49 +4873,49 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X36" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Y36" t="n">
         <v>0.14</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AA36" t="n">
         <v>0.17</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="37">
@@ -4959,10 +4959,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4971,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S37" t="n">
         <v>0.005</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5004,37 +5004,37 @@
         <v>0.04</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AD37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG37" t="n">
         <v>0.16</v>
       </c>
-      <c r="AE37" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AH37" t="n">
-        <v>0.24</v>
+        <v>0.09</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="38">
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0.02</v>
       </c>
       <c r="T38" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="U38" t="n">
         <v>0.05</v>
@@ -5108,7 +5108,7 @@
         <v>0.06</v>
       </c>
       <c r="W38" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="X38" t="n">
         <v>0.08</v>
@@ -5117,43 +5117,43 @@
         <v>0.11</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AA38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD38" t="n">
         <v>0.15</v>
       </c>
-      <c r="AB38" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.14</v>
-      </c>
       <c r="AE38" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.57</v>
+        <v>0.65</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.58</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="39">
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="X39" t="n">
         <v>0.005</v>
@@ -5236,43 +5236,43 @@
         <v>0.02</v>
       </c>
       <c r="Z39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>0.02</v>
       </c>
-      <c r="AA39" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AI39" t="n">
+      <c r="AK39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AL39" t="n">
         <v>0.19</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="40">
@@ -5337,7 +5337,7 @@
         <v>0.03</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U40" t="n">
         <v>0.04</v>
@@ -5355,43 +5355,43 @@
         <v>0.05</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA40" t="n">
         <v>0.11</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC40" t="n">
         <v>0.14</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AE40" t="n">
         <v>0.18</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.43</v>
+        <v>0.62</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="41">
@@ -5453,16 +5453,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W41" t="n">
         <v>0.005</v>
@@ -5480,37 +5480,37 @@
         <v>0.08</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC41" t="n">
         <v>0.12</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="42">
@@ -5551,25 +5551,25 @@
         <v>0.03</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q42" t="n">
         <v>0.05</v>
       </c>
-      <c r="P42" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="R42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S42" t="n">
         <v>0.18</v>
@@ -5590,13 +5590,13 @@
         <v>0.2</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="Z42" t="n">
         <v>0.26</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="AB42" t="n">
         <v>0.29</v>
@@ -5605,31 +5605,31 @@
         <v>0.26</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.55</v>
+        <v>0.64</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43">
@@ -5679,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -5703,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>0.015</v>
       </c>
       <c r="AA43" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB43" t="n">
         <v>0.04</v>
@@ -5724,31 +5724,31 @@
         <v>0.06</v>
       </c>
       <c r="AD43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AF43" t="n">
         <v>0.18</v>
       </c>
-      <c r="AE43" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0.2</v>
-      </c>
       <c r="AG43" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="44">
@@ -5798,10 +5798,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P44" t="n">
         <v>0.005</v>
@@ -5846,31 +5846,31 @@
         <v>0.21</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.32</v>
+        <v>0.36</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="45">
@@ -5956,7 +5956,7 @@
         <v>0.005</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="AA45" t="n">
         <v>0.05</v>
@@ -5968,31 +5968,31 @@
         <v>0.06</v>
       </c>
       <c r="AD45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AG45" t="n">
         <v>0.15</v>
       </c>
-      <c r="AE45" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0.19</v>
-      </c>
       <c r="AH45" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="AI45" t="n">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="46">
@@ -6012,10 +6012,10 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -6042,7 +6042,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O46" t="n">
         <v>0.01</v>
@@ -6054,67 +6054,67 @@
         <v>0.01</v>
       </c>
       <c r="R46" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S46" t="n">
         <v>0.03</v>
       </c>
       <c r="T46" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="V46" t="n">
         <v>0.02</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="X46" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="AA46" t="n">
         <v>0.08</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AC46" t="n">
         <v>0.08</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.31</v>
+        <v>0.37</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.39</v>
+        <v>0.59</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.46</v>
+        <v>0.58</v>
       </c>
       <c r="AL46" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="47">
@@ -6182,61 +6182,61 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="AA47" t="n">
         <v>0.04</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AC47" t="n">
         <v>0.1</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.29</v>
+        <v>0.09</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="48">
@@ -6256,13 +6256,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G48" t="n">
         <v>0.02</v>
@@ -6283,22 +6283,22 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R48" t="n">
         <v>0.03</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0.04</v>
       </c>
       <c r="S48" t="n">
         <v>0.05</v>
@@ -6325,40 +6325,40 @@
         <v>0.15</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.17</v>
+        <v>0.21</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.53</v>
+        <v>0.59</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="49">
@@ -6405,22 +6405,22 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S49" t="n">
         <v>0.015</v>
@@ -6447,40 +6447,40 @@
         <v>0.015</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="AI49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AL49" t="n">
         <v>0.18</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="50">
@@ -6566,43 +6566,43 @@
         <v>0.08</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AF50" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AG50" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="AI50" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="51">
@@ -6664,16 +6664,16 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -6694,37 +6694,37 @@
         <v>0.06</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
@@ -6774,16 +6774,16 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O52" t="n">
         <v>0.005</v>
       </c>
       <c r="P52" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="R52" t="n">
         <v>0.02</v>
@@ -6792,7 +6792,7 @@
         <v>0.04</v>
       </c>
       <c r="T52" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="U52" t="n">
         <v>0.05</v>
@@ -6804,7 +6804,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="X52" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Y52" t="n">
         <v>0.12</v>
@@ -6816,37 +6816,37 @@
         <v>0.14</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="AF52" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="53">
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X53" t="n">
         <v>0.005</v>
@@ -6935,40 +6935,40 @@
         <v>0.015</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB53" t="n">
         <v>0.08</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="AG53" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AL53" t="n">
         <v>0.18</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="54">
@@ -7015,16 +7015,16 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
         <v>0.005</v>
       </c>
       <c r="O54" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="Q54" t="n">
         <v>0.01</v>
@@ -7057,7 +7057,7 @@
         <v>0.11</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AB54" t="n">
         <v>0.16</v>
@@ -7066,31 +7066,31 @@
         <v>0.17</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="AI54" t="n">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="55">
@@ -7152,22 +7152,22 @@
         <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T55" t="n">
         <v>0.005</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X55" t="n">
         <v>0.01</v>
@@ -7188,31 +7188,31 @@
         <v>0.09</v>
       </c>
       <c r="AD55" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="AI55" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.31</v>
+        <v>0.17</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.39</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="56">
@@ -7262,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O56" t="n">
         <v>0.005</v>
@@ -7271,13 +7271,13 @@
         <v>0.015</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="R56" t="n">
         <v>0.03</v>
       </c>
       <c r="S56" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T56" t="n">
         <v>0.06</v>
@@ -7295,46 +7295,46 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Y56" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Z56" t="n">
         <v>0.13</v>
       </c>
-      <c r="Z56" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AA56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC56" t="n">
         <v>0.14</v>
       </c>
-      <c r="AB56" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>0.12</v>
-      </c>
       <c r="AD56" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="57">
@@ -7417,46 +7417,46 @@
         <v>0.01</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="Z57" t="n">
         <v>0.01</v>
       </c>
       <c r="AA57" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC57" t="n">
         <v>0.04</v>
       </c>
-      <c r="AB57" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AC57" t="n">
+      <c r="AD57" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI57" t="n">
         <v>0.05</v>
       </c>
-      <c r="AD57" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>0.21</v>
-      </c>
       <c r="AJ57" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.3</v>
+        <v>0.14</v>
       </c>
       <c r="AL57" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="58">
@@ -7476,10 +7476,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -7497,22 +7497,22 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q58" t="n">
         <v>0.01</v>
@@ -7521,7 +7521,7 @@
         <v>0.02</v>
       </c>
       <c r="S58" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="T58" t="n">
         <v>0.05</v>
@@ -7533,7 +7533,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="X58" t="n">
         <v>0.11</v>
@@ -7542,43 +7542,43 @@
         <v>0.14</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AC58" t="n">
         <v>0.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="AE58" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.52</v>
+        <v>0.64</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.44</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="59">
@@ -7637,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -7646,61 +7646,61 @@
         <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
       </c>
       <c r="Y59" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Z59" t="n">
         <v>0.02</v>
       </c>
       <c r="AA59" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AE59" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="AF59" t="n">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="AI59" t="n">
-        <v>0.22</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.38</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="60">
@@ -7783,46 +7783,46 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Z60" t="n">
         <v>0.09</v>
       </c>
       <c r="AA60" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="AF60" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="AH60" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AL60" t="n">
         <v>0.7</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="61">
@@ -7905,46 +7905,46 @@
         <v>0.005</v>
       </c>
       <c r="Y61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z61" t="n">
         <v>0.015</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>0.02</v>
       </c>
       <c r="AA61" t="n">
         <v>0.09</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AD61" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="AE61" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="AF61" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AG61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI61" t="n">
         <v>0.11</v>
       </c>
-      <c r="AH61" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0.25</v>
-      </c>
       <c r="AJ61" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.34</v>
+        <v>0.17</v>
       </c>
       <c r="AL61" t="n">
-        <v>0.53</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="62">
@@ -8000,13 +8000,13 @@
         <v>0.005</v>
       </c>
       <c r="P62" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="Q62" t="n">
         <v>0.02</v>
       </c>
       <c r="R62" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="S62" t="n">
         <v>0.05</v>
@@ -8030,43 +8030,43 @@
         <v>0.11</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AA62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD62" t="n">
         <v>0.14</v>
       </c>
-      <c r="AB62" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AE62" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="AF62" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AG62" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.29</v>
+        <v>0.4</v>
       </c>
       <c r="AI62" t="n">
-        <v>0.31</v>
+        <v>0.47</v>
       </c>
       <c r="AJ62" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="AL62" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="63">
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -8155,40 +8155,40 @@
         <v>0.005</v>
       </c>
       <c r="AA63" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AC63" t="n">
         <v>0.06</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="AE63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AF63" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="AG63" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="AI63" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AJ63" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="AK63" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="AL63" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="64">
@@ -8208,13 +8208,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="G64" t="n">
         <v>0.005</v>
@@ -8235,19 +8235,19 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="Q64" t="n">
         <v>0.01</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0.015</v>
       </c>
       <c r="R64" t="n">
         <v>0.03</v>
@@ -8256,13 +8256,13 @@
         <v>0.05</v>
       </c>
       <c r="T64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V64" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0.08</v>
       </c>
       <c r="W64" t="n">
         <v>0.1</v>
@@ -8286,31 +8286,31 @@
         <v>0.23</v>
       </c>
       <c r="AD64" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AE64" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AF64" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="AG64" t="n">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.38</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AI64" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
       <c r="AJ64" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="AK64" t="n">
-        <v>0.37</v>
+        <v>0.54</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="65">
@@ -8357,28 +8357,28 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S65" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="T65" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -8408,31 +8408,31 @@
         <v>0.05</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="AE65" t="n">
         <v>0.32</v>
       </c>
       <c r="AF65" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AG65" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.31</v>
+        <v>0.13</v>
       </c>
       <c r="AI65" t="n">
-        <v>0.37</v>
+        <v>0.16</v>
       </c>
       <c r="AJ65" t="n">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="AK65" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="AL65" t="n">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="66">
@@ -8494,7 +8494,7 @@
         <v>0.005</v>
       </c>
       <c r="R66" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S66" t="n">
         <v>0.02</v>
@@ -8515,7 +8515,7 @@
         <v>0.05</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z66" t="n">
         <v>0.07000000000000001</v>
@@ -8533,28 +8533,28 @@
         <v>0.16</v>
       </c>
       <c r="AE66" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AF66" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="AG66" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AH66" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="AI66" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AJ66" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AK66" t="n">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="AL66" t="n">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="67">
@@ -8652,31 +8652,31 @@
         <v>0.14</v>
       </c>
       <c r="AD67" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AE67" t="n">
         <v>0.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="AG67" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AI67" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AJ67" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
       <c r="AL67" t="n">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="68">
@@ -8696,10 +8696,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -8717,10 +8717,10 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M68" t="n">
         <v>0.005</v>
@@ -8744,7 +8744,7 @@
         <v>0.04</v>
       </c>
       <c r="T68" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="U68" t="n">
         <v>0.05</v>
@@ -8765,40 +8765,40 @@
         <v>0.12</v>
       </c>
       <c r="AA68" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AB68" t="n">
         <v>0.17</v>
       </c>
       <c r="AC68" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AE68" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AF68" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="AG68" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AH68" t="n">
-        <v>0.49</v>
+        <v>0.62</v>
       </c>
       <c r="AI68" t="n">
-        <v>0.48</v>
+        <v>0.61</v>
       </c>
       <c r="AJ68" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="AK68" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="AL68" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="69">
@@ -8857,10 +8857,10 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -8875,52 +8875,52 @@
         <v>0</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X69" t="n">
         <v>0.005</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="AA69" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB69" t="n">
         <v>0.08</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD69" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AE69" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AF69" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AG69" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="AI69" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="AJ69" t="n">
-        <v>0.29</v>
+        <v>0.14</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="AL69" t="n">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="70">
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Q70" t="n">
         <v>0.015</v>
@@ -9000,10 +9000,10 @@
         <v>0.08</v>
       </c>
       <c r="X70" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Z70" t="n">
         <v>0.13</v>
@@ -9018,31 +9018,31 @@
         <v>0.17</v>
       </c>
       <c r="AD70" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="AE70" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="AF70" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="AG70" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="AI70" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="AJ70" t="n">
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="71">
@@ -9125,10 +9125,10 @@
         <v>0.005</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="AA71" t="n">
         <v>0.04</v>
@@ -9140,31 +9140,31 @@
         <v>0.09</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AE71" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="AF71" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="AG71" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="AH71" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="AI71" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="AJ71" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="AL71" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9223,7 @@
         <v>0.005</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R72" t="n">
         <v>0.01</v>
@@ -9253,7 +9253,7 @@
         <v>0.1</v>
       </c>
       <c r="AA72" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AB72" t="n">
         <v>0.14</v>
@@ -9262,31 +9262,31 @@
         <v>0.17</v>
       </c>
       <c r="AD72" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="AE72" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AF72" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="AG72" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AH72" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>0.54</v>
       </c>
-      <c r="AI72" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>0.44</v>
-      </c>
       <c r="AK72" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
       <c r="AL72" t="n">
-        <v>0.48</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="73">
@@ -9354,7 +9354,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X73" t="n">
         <v>0.01</v>
@@ -9381,34 +9381,34 @@
         <v>0.08</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AE73" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AF73" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AG73" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH73" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AK73" t="n">
         <v>0.15</v>
       </c>
-      <c r="AI73" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AJ73" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AK73" t="n">
-        <v>0.26</v>
-      </c>
       <c r="AL73" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="74">
@@ -9458,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O74" t="n">
         <v>0.01</v>
@@ -9476,10 +9476,10 @@
         <v>0.04</v>
       </c>
       <c r="T74" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U74" t="n">
         <v>0.05</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0.06</v>
       </c>
       <c r="V74" t="n">
         <v>0.05</v>
@@ -9497,7 +9497,7 @@
         <v>0.11</v>
       </c>
       <c r="AA74" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AB74" t="n">
         <v>0.13</v>
@@ -9506,31 +9506,31 @@
         <v>0.17</v>
       </c>
       <c r="AD74" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="AE74" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AF74" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AG74" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="AH74" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AI74" t="n">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="AJ74" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="AK74" t="n">
-        <v>0.51</v>
+        <v>0.67</v>
       </c>
       <c r="AL74" t="n">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="75">
@@ -9598,61 +9598,61 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V75" t="n">
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X75" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="AA75" t="n">
         <v>0.04</v>
       </c>
       <c r="AB75" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC75" t="n">
         <v>0.11</v>
       </c>
       <c r="AD75" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AE75" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="AF75" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="AG75" t="n">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="AH75" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="AI75" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0.31</v>
+        <v>0.14</v>
       </c>
       <c r="AK75" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AL75" t="n">
-        <v>0.4</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="76">
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="O76" t="n">
         <v>0.01</v>
@@ -9711,7 +9711,7 @@
         <v>0.015</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="R76" t="n">
         <v>0.04</v>
@@ -9747,34 +9747,34 @@
         <v>0.13</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD76" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AE76" t="n">
         <v>0.2</v>
       </c>
       <c r="AF76" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AG76" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="AH76" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="AI76" t="n">
-        <v>0.55</v>
+        <v>0.68</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="AK76" t="n">
-        <v>0.44</v>
+        <v>0.63</v>
       </c>
       <c r="AL76" t="n">
-        <v>0.33</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="77">
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -9854,49 +9854,49 @@
         <v>0</v>
       </c>
       <c r="X77" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Y77" t="n">
         <v>0.005</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="AA77" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AB77" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AC77" t="n">
         <v>0.12</v>
       </c>
       <c r="AD77" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AE77" t="n">
         <v>0.4</v>
       </c>
       <c r="AF77" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="AG77" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="AH77" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="AI77" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="AJ77" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="AL77" t="n">
-        <v>0.47</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="78">
@@ -9916,10 +9916,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -9958,7 +9958,7 @@
         <v>0.01</v>
       </c>
       <c r="R78" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="S78" t="n">
         <v>0.03</v>
@@ -9982,7 +9982,7 @@
         <v>0.09</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AA78" t="n">
         <v>0.13</v>
@@ -9994,31 +9994,31 @@
         <v>0.2</v>
       </c>
       <c r="AD78" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AE78" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AF78" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="AG78" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AK78" t="n">
         <v>0.67</v>
       </c>
-      <c r="AH78" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AK78" t="n">
-        <v>0.48</v>
-      </c>
       <c r="AL78" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="79">
@@ -10107,7 +10107,7 @@
         <v>0.02</v>
       </c>
       <c r="AA79" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB79" t="n">
         <v>0.1</v>
@@ -10116,31 +10116,31 @@
         <v>0.11</v>
       </c>
       <c r="AD79" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AE79" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AF79" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="AG79" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="AH79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AK79" t="n">
         <v>0.17</v>
       </c>
-      <c r="AI79" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AJ79" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AK79" t="n">
-        <v>0.35</v>
-      </c>
       <c r="AL79" t="n">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="80">
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
         <v>0.005</v>
@@ -10241,28 +10241,28 @@
         <v>0.14</v>
       </c>
       <c r="AE80" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AF80" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="AG80" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AH80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI80" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0.47</v>
+        <v>0.61</v>
       </c>
       <c r="AK80" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="AL80" t="n">
-        <v>0.44</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="81">
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -10363,28 +10363,28 @@
         <v>0.18</v>
       </c>
       <c r="AE81" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="AF81" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="AG81" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AH81" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="AI81" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AL81" t="n">
         <v>0.16</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="82">
@@ -10425,31 +10425,31 @@
         <v>0.005</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P82" t="n">
         <v>0.005</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="R82" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="S82" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="T82" t="n">
         <v>0.03</v>
@@ -10461,52 +10461,52 @@
         <v>0.04</v>
       </c>
       <c r="W82" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="X82" t="n">
         <v>0.11</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AA82" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AB82" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="AC82" t="n">
         <v>0.21</v>
       </c>
       <c r="AD82" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="AE82" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AF82" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="AG82" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AH82" t="n">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="AI82" t="n">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.58</v>
+        <v>0.72</v>
       </c>
       <c r="AL82" t="n">
-        <v>0.51</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="83">
@@ -10577,58 +10577,58 @@
         <v>0</v>
       </c>
       <c r="U83" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="V83" t="n">
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="X83" t="n">
         <v>0.02</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="Z83" t="n">
         <v>0.02</v>
       </c>
       <c r="AA83" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB83" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AC83" t="n">
         <v>0.12</v>
       </c>
       <c r="AD83" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AK83" t="n">
         <v>0.2</v>
       </c>
-      <c r="AE83" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AF83" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AG83" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AH83" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AI83" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AJ83" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>0.33</v>
-      </c>
       <c r="AL83" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="84">
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -10690,13 +10690,13 @@
         <v>0.01</v>
       </c>
       <c r="R84" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S84" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="T84" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="U84" t="n">
         <v>0.07000000000000001</v>
@@ -10720,37 +10720,37 @@
         <v>0.17</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AC84" t="n">
         <v>0.2</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="AH84" t="n">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="AI84" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="AK84" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="AL84" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="85">
@@ -10812,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
@@ -10839,40 +10839,40 @@
         <v>0.005</v>
       </c>
       <c r="AA85" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB85" t="n">
         <v>0.04</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>0.03</v>
       </c>
       <c r="AC85" t="n">
         <v>0.05</v>
       </c>
       <c r="AD85" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH85" t="n">
         <v>0.13</v>
       </c>
-      <c r="AE85" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>0.24</v>
-      </c>
       <c r="AI85" t="n">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="AJ85" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="AL85" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="86">
@@ -10913,7 +10913,7 @@
         <v>0.02</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L86" t="n">
         <v>0.03</v>
@@ -10922,19 +10922,19 @@
         <v>0.005</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P86" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="R86" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S86" t="n">
         <v>0.11</v>
@@ -10949,52 +10949,52 @@
         <v>0.15</v>
       </c>
       <c r="W86" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="X86" t="n">
         <v>0.18</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Z86" t="n">
         <v>0.23</v>
       </c>
       <c r="AA86" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AB86" t="n">
         <v>0.25</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="AD86" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="AE86" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="AF86" t="n">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AG86" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="AH86" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AI86" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="AJ86" t="n">
-        <v>0.47</v>
+        <v>0.62</v>
       </c>
       <c r="AK86" t="n">
-        <v>0.46</v>
+        <v>0.63</v>
       </c>
       <c r="AL86" t="n">
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="87">
@@ -11047,31 +11047,31 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q87" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="R87" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S87" t="n">
         <v>0.005</v>
       </c>
       <c r="T87" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V87" t="n">
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="X87" t="n">
         <v>0.01</v>
@@ -11083,40 +11083,40 @@
         <v>0.02</v>
       </c>
       <c r="AA87" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AB87" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AC87" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AI87" t="n">
         <v>0.09</v>
       </c>
-      <c r="AD87" t="n">
+      <c r="AJ87" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AL87" t="n">
         <v>0.22</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0.42</v>
       </c>
     </row>
     <row r="88">
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -11178,16 +11178,16 @@
         <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="S88" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="T88" t="n">
         <v>0.01</v>
       </c>
       <c r="U88" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="V88" t="n">
         <v>0.02</v>
@@ -11205,40 +11205,40 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AA88" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AB88" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AC88" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD88" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="AE88" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="AF88" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="AG88" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AH88" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AI88" t="n">
-        <v>0.54</v>
+        <v>0.65</v>
       </c>
       <c r="AJ88" t="n">
-        <v>0.55</v>
+        <v>0.67</v>
       </c>
       <c r="AK88" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="AL88" t="n">
-        <v>0.44</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="89">
@@ -11336,31 +11336,31 @@
         <v>0.1</v>
       </c>
       <c r="AD89" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AE89" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AF89" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="AG89" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="AH89" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="AI89" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="AJ89" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="AK89" t="n">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="AL89" t="n">
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="90">
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -11416,16 +11416,16 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q90" t="n">
         <v>0.005</v>
       </c>
       <c r="R90" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="T90" t="n">
         <v>0.015</v>
@@ -11446,7 +11446,7 @@
         <v>0.06</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AA90" t="n">
         <v>0.07000000000000001</v>
@@ -11455,34 +11455,34 @@
         <v>0.1</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="AD90" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="AE90" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AF90" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="AG90" t="n">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="AH90" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="AI90" t="n">
-        <v>0.48</v>
+        <v>0.62</v>
       </c>
       <c r="AJ90" t="n">
-        <v>0.46</v>
+        <v>0.6</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.44</v>
+        <v>0.59</v>
       </c>
       <c r="AL90" t="n">
-        <v>0.4</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="91">
@@ -11577,34 +11577,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AC91" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD91" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AE91" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AF91" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AG91" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="AH91" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="AI91" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="AJ91" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="AK91" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="AL91" t="n">
-        <v>0.39</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="92">

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM137"/>
+  <dimension ref="A1:AN137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -778,7 +783,10 @@
         <v>0.2</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -903,7 +911,10 @@
         <v>0.49</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -1028,7 +1039,10 @@
         <v>0.13</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1278,7 +1295,10 @@
         <v>0.5</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.47</v>
+        <v>0.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="7">
@@ -1403,7 +1423,10 @@
         <v>0.17</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="8">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1655,6 +1681,9 @@
       <c r="AM9" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1778,7 +1807,10 @@
         <v>0.15</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="11">
@@ -1903,7 +1935,10 @@
         <v>0.28</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="12">
@@ -2030,6 +2065,9 @@
       <c r="AM12" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2153,7 +2191,10 @@
         <v>0.09</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="14">
@@ -2278,7 +2319,10 @@
         <v>0.15</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="15">
@@ -2405,6 +2449,9 @@
       <c r="AM15" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2528,7 +2575,10 @@
         <v>0.13</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -2653,7 +2703,10 @@
         <v>0.21</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="18">
@@ -2778,7 +2831,10 @@
         <v>0.49</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="19">
@@ -2903,7 +2959,10 @@
         <v>0.13</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="20">
@@ -3028,7 +3087,10 @@
         <v>0.32</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="21">
@@ -3153,7 +3215,10 @@
         <v>0.47</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="22">
@@ -3278,7 +3343,10 @@
         <v>0.15</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="23">
@@ -3405,6 +3473,9 @@
       <c r="AM23" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3530,6 +3601,9 @@
       <c r="AM24" t="n">
         <v>0.42</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3653,7 +3727,10 @@
         <v>0.17</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="26">
@@ -3780,6 +3857,9 @@
       <c r="AM26" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3903,7 +3983,10 @@
         <v>0.48</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="28">
@@ -4028,7 +4111,10 @@
         <v>0.15</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="29">
@@ -4153,7 +4239,10 @@
         <v>0.27</v>
       </c>
       <c r="AM29" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="30">
@@ -4278,7 +4367,10 @@
         <v>0.49</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="31">
@@ -4403,7 +4495,10 @@
         <v>0.17</v>
       </c>
       <c r="AM31" t="n">
-        <v>0.24</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="32">
@@ -4528,7 +4623,10 @@
         <v>0.23</v>
       </c>
       <c r="AM32" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -4653,7 +4751,10 @@
         <v>0.53</v>
       </c>
       <c r="AM33" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="34">
@@ -4778,6 +4879,9 @@
         <v>0.08</v>
       </c>
       <c r="AM34" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AN34" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4903,7 +5007,10 @@
         <v>0.33</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="36">
@@ -5030,6 +5137,9 @@
       <c r="AM36" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5153,7 +5263,10 @@
         <v>0.1</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
@@ -5278,7 +5391,10 @@
         <v>0.42</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="39">
@@ -5405,6 +5521,9 @@
       <c r="AM39" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5528,7 +5647,10 @@
         <v>0.09</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
@@ -5655,6 +5777,9 @@
       <c r="AM41" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5778,7 +5903,10 @@
         <v>0.47</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
@@ -5903,7 +6031,10 @@
         <v>0.17</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="44">
@@ -6028,7 +6159,10 @@
         <v>0.2</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="45">
@@ -6153,7 +6287,10 @@
         <v>0.52</v>
       </c>
       <c r="AM45" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="46">
@@ -6278,7 +6415,10 @@
         <v>0.11</v>
       </c>
       <c r="AM46" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="47">
@@ -6403,7 +6543,10 @@
         <v>0.22</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="48">
@@ -6528,7 +6671,10 @@
         <v>0.49</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="49">
@@ -6653,7 +6799,10 @@
         <v>0.16</v>
       </c>
       <c r="AM49" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="50">
@@ -6778,7 +6927,10 @@
         <v>0.3</v>
       </c>
       <c r="AM50" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="51">
@@ -6905,6 +7057,9 @@
       <c r="AM51" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7028,7 +7183,10 @@
         <v>0.1</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="53">
@@ -7152,6 +7310,9 @@
       <c r="AM53" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7272,7 +7433,10 @@
         <v>0.44</v>
       </c>
       <c r="AM54" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="55">
@@ -7396,6 +7560,9 @@
       <c r="AM55" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7518,6 +7685,9 @@
       <c r="AM56" t="n">
         <v>0.4</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7640,6 +7810,9 @@
       <c r="AM57" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7762,6 +7935,9 @@
       <c r="AM58" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7882,7 +8058,10 @@
         <v>0.17</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="60">
@@ -8006,6 +8185,9 @@
       <c r="AM60" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8126,6 +8308,9 @@
         <v>0.11</v>
       </c>
       <c r="AM61" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AN61" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -8250,6 +8435,9 @@
       <c r="AM62" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8370,7 +8558,10 @@
         <v>0.65</v>
       </c>
       <c r="AM63" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="64">
@@ -8492,7 +8683,10 @@
         <v>0.1</v>
       </c>
       <c r="AM64" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="65">
@@ -8619,6 +8813,9 @@
       <c r="AM65" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8742,7 +8939,10 @@
         <v>0.49</v>
       </c>
       <c r="AM66" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="67">
@@ -8867,7 +9067,10 @@
         <v>0.14</v>
       </c>
       <c r="AM67" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="68">
@@ -8992,7 +9195,10 @@
         <v>0.18</v>
       </c>
       <c r="AM68" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="69">
@@ -9119,6 +9325,9 @@
       <c r="AM69" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9242,7 +9451,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AM70" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="71">
@@ -9369,6 +9581,9 @@
       <c r="AM71" t="n">
         <v>0.41</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9494,6 +9709,9 @@
       <c r="AM72" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9619,6 +9837,9 @@
       <c r="AM73" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9742,7 +9963,10 @@
         <v>0.21</v>
       </c>
       <c r="AM74" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="75">
@@ -9867,7 +10091,10 @@
         <v>0.49</v>
       </c>
       <c r="AM75" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="76">
@@ -9992,7 +10219,10 @@
         <v>0.13</v>
       </c>
       <c r="AM76" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="77">
@@ -10117,7 +10347,10 @@
         <v>0.22</v>
       </c>
       <c r="AM77" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="78">
@@ -10244,6 +10477,9 @@
       <c r="AM78" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10367,7 +10603,10 @@
         <v>0.14</v>
       </c>
       <c r="AM79" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="80">
@@ -10494,6 +10733,9 @@
       <c r="AM80" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10617,7 +10859,10 @@
         <v>0.49</v>
       </c>
       <c r="AM81" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="82">
@@ -10742,6 +10987,9 @@
         <v>0.13</v>
       </c>
       <c r="AM82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AN82" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -10869,6 +11117,9 @@
       <c r="AM83" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10992,7 +11243,10 @@
         <v>0.5</v>
       </c>
       <c r="AM84" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="85">
@@ -11117,7 +11371,10 @@
         <v>0.16</v>
       </c>
       <c r="AM85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="86">
@@ -11242,7 +11499,10 @@
         <v>0.18</v>
       </c>
       <c r="AM86" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="87">
@@ -11367,7 +11627,10 @@
         <v>0.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="88">
@@ -11492,7 +11755,10 @@
         <v>0.13</v>
       </c>
       <c r="AM88" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="89">
@@ -11617,7 +11883,10 @@
         <v>0.32</v>
       </c>
       <c r="AM89" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="90">
@@ -11744,6 +12013,9 @@
       <c r="AM90" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN90" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11867,7 +12139,10 @@
         <v>0.12</v>
       </c>
       <c r="AM91" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
@@ -11994,6 +12269,9 @@
       <c r="AM92" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12117,7 +12395,10 @@
         <v>0.49</v>
       </c>
       <c r="AM93" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="94">
@@ -12242,6 +12523,9 @@
         <v>0.2</v>
       </c>
       <c r="AM94" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AN94" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -12369,6 +12653,9 @@
       <c r="AM95" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN95" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12492,7 +12779,10 @@
         <v>0.44</v>
       </c>
       <c r="AM96" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="97">
@@ -12617,7 +12907,10 @@
         <v>0.17</v>
       </c>
       <c r="AM97" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="98">
@@ -12742,7 +13035,10 @@
         <v>0.26</v>
       </c>
       <c r="AM98" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="99">
@@ -12867,7 +13163,10 @@
         <v>0.53</v>
       </c>
       <c r="AM99" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="100">
@@ -12992,7 +13291,10 @@
         <v>0.06</v>
       </c>
       <c r="AM100" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="101">
@@ -13117,7 +13419,10 @@
         <v>0.2</v>
       </c>
       <c r="AM101" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="102">
@@ -13242,7 +13547,10 @@
         <v>0.49</v>
       </c>
       <c r="AM102" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="103">
@@ -13367,7 +13675,10 @@
         <v>0.14</v>
       </c>
       <c r="AM103" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="104">
@@ -13492,7 +13803,10 @@
         <v>0.17</v>
       </c>
       <c r="AM104" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="105">
@@ -13619,6 +13933,9 @@
       <c r="AM105" t="n">
         <v>0.34</v>
       </c>
+      <c r="AN105" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13742,7 +14059,10 @@
         <v>0.17</v>
       </c>
       <c r="AM106" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="107">
@@ -13867,7 +14187,10 @@
         <v>0.25</v>
       </c>
       <c r="AM107" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="108">
@@ -13992,7 +14315,10 @@
         <v>0.48</v>
       </c>
       <c r="AM108" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="109">
@@ -14117,7 +14443,10 @@
         <v>0.08</v>
       </c>
       <c r="AM109" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="110">
@@ -14242,7 +14571,10 @@
         <v>0.26</v>
       </c>
       <c r="AM110" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="111">
@@ -14367,7 +14699,10 @@
         <v>0.5</v>
       </c>
       <c r="AM111" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="112">
@@ -14492,7 +14827,10 @@
         <v>0.1</v>
       </c>
       <c r="AM112" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="113">
@@ -14617,7 +14955,10 @@
         <v>0.17</v>
       </c>
       <c r="AM113" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="114">
@@ -14742,7 +15083,10 @@
         <v>0.51</v>
       </c>
       <c r="AM114" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="115">
@@ -14867,7 +15211,10 @@
         <v>0.12</v>
       </c>
       <c r="AM115" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="116">
@@ -14994,6 +15341,9 @@
       <c r="AM116" t="n">
         <v>0.5</v>
       </c>
+      <c r="AN116" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15119,6 +15469,9 @@
       <c r="AM117" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN117" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15242,7 +15595,10 @@
         <v>0.09</v>
       </c>
       <c r="AM118" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="119">
@@ -15369,6 +15725,9 @@
       <c r="AM119" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN119" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -15494,6 +15853,9 @@
       <c r="AM120" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN120" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15617,6 +15979,9 @@
         <v>0.14</v>
       </c>
       <c r="AM121" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AN121" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -15742,7 +16107,10 @@
         <v>0.29</v>
       </c>
       <c r="AM122" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="123">
@@ -15869,6 +16237,9 @@
       <c r="AM123" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15992,7 +16363,10 @@
         <v>0.15</v>
       </c>
       <c r="AM124" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="125">
@@ -16117,7 +16491,10 @@
         <v>0.21</v>
       </c>
       <c r="AM125" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="126">
@@ -16244,6 +16621,9 @@
       <c r="AM126" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN126" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16367,7 +16747,10 @@
         <v>0.14</v>
       </c>
       <c r="AM127" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="128">
@@ -16492,7 +16875,10 @@
         <v>0.23</v>
       </c>
       <c r="AM128" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="129">
@@ -16617,7 +17003,10 @@
         <v>0.46</v>
       </c>
       <c r="AM129" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="130">
@@ -16742,7 +17131,10 @@
         <v>0.17</v>
       </c>
       <c r="AM130" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="131">
@@ -16869,6 +17261,9 @@
       <c r="AM131" t="n">
         <v>0.39</v>
       </c>
+      <c r="AN131" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16994,6 +17389,9 @@
       <c r="AM132" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN132" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -17119,6 +17517,9 @@
       <c r="AM133" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN133" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17242,7 +17643,10 @@
         <v>0.19</v>
       </c>
       <c r="AM134" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="135">
@@ -17369,6 +17773,9 @@
       <c r="AM135" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN135" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17492,13 +17899,16 @@
         <v>0.11</v>
       </c>
       <c r="AM136" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -17513,7 +17923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL47"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17712,6 +18122,11 @@
           <t>28. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>25. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -17832,6 +18247,9 @@
       <c r="AL2" t="n">
         <v>1767</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -17952,6 +18370,9 @@
       <c r="AL3" t="n">
         <v>442</v>
       </c>
+      <c r="AM3" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -18072,6 +18493,9 @@
       <c r="AL4" t="n">
         <v>647</v>
       </c>
+      <c r="AM4" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -18192,6 +18616,9 @@
       <c r="AL5" t="n">
         <v>678</v>
       </c>
+      <c r="AM5" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -18312,6 +18739,9 @@
       <c r="AL6" t="n">
         <v>818</v>
       </c>
+      <c r="AM6" t="n">
+        <v>838</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -18432,6 +18862,9 @@
       <c r="AL7" t="n">
         <v>606</v>
       </c>
+      <c r="AM7" t="n">
+        <v>619</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -18552,6 +18985,9 @@
       <c r="AL8" t="n">
         <v>343</v>
       </c>
+      <c r="AM8" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -18672,6 +19108,9 @@
       <c r="AL9" t="n">
         <v>427</v>
       </c>
+      <c r="AM9" t="n">
+        <v>435</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18792,6 +19231,9 @@
       <c r="AL10" t="n">
         <v>429</v>
       </c>
+      <c r="AM10" t="n">
+        <v>437</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -18912,6 +19354,9 @@
       <c r="AL11" t="n">
         <v>234</v>
       </c>
+      <c r="AM11" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -19032,6 +19477,9 @@
       <c r="AL12" t="n">
         <v>391</v>
       </c>
+      <c r="AM12" t="n">
+        <v>403</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -19152,6 +19600,9 @@
       <c r="AL13" t="n">
         <v>177</v>
       </c>
+      <c r="AM13" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -19272,6 +19723,9 @@
       <c r="AL14" t="n">
         <v>109</v>
       </c>
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19392,6 +19846,9 @@
       <c r="AL15" t="n">
         <v>190</v>
       </c>
+      <c r="AM15" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19512,6 +19969,9 @@
       <c r="AL16" t="n">
         <v>640</v>
       </c>
+      <c r="AM16" t="n">
+        <v>630</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -19632,6 +20092,9 @@
       <c r="AL17" t="n">
         <v>596</v>
       </c>
+      <c r="AM17" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -19752,6 +20215,9 @@
       <c r="AL18" t="n">
         <v>244</v>
       </c>
+      <c r="AM18" t="n">
+        <v>302</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -19870,6 +20336,9 @@
       <c r="AL19" t="n">
         <v>567</v>
       </c>
+      <c r="AM19" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -19988,6 +20457,9 @@
       <c r="AL20" t="n">
         <v>126</v>
       </c>
+      <c r="AM20" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -20106,6 +20578,9 @@
       <c r="AL21" t="n">
         <v>80</v>
       </c>
+      <c r="AM21" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -20224,6 +20699,9 @@
       <c r="AL22" t="n">
         <v>221</v>
       </c>
+      <c r="AM22" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -20344,6 +20822,9 @@
       <c r="AL23" t="n">
         <v>817</v>
       </c>
+      <c r="AM23" t="n">
+        <v>834</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20464,6 +20945,9 @@
       <c r="AL24" t="n">
         <v>143</v>
       </c>
+      <c r="AM24" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20584,6 +21068,9 @@
       <c r="AL25" t="n">
         <v>112</v>
       </c>
+      <c r="AM25" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20704,6 +21191,9 @@
       <c r="AL26" t="n">
         <v>695</v>
       </c>
+      <c r="AM26" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -20824,6 +21314,9 @@
       <c r="AL27" t="n">
         <v>862</v>
       </c>
+      <c r="AM27" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -20944,6 +21437,9 @@
       <c r="AL28" t="n">
         <v>905</v>
       </c>
+      <c r="AM28" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -21064,6 +21560,9 @@
       <c r="AL29" t="n">
         <v>228</v>
       </c>
+      <c r="AM29" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -21184,6 +21683,9 @@
       <c r="AL30" t="n">
         <v>331</v>
       </c>
+      <c r="AM30" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -21304,6 +21806,9 @@
       <c r="AL31" t="n">
         <v>304</v>
       </c>
+      <c r="AM31" t="n">
+        <v>310</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -21424,6 +21929,9 @@
       <c r="AL32" t="n">
         <v>215</v>
       </c>
+      <c r="AM32" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -21544,6 +22052,9 @@
       <c r="AL33" t="n">
         <v>316</v>
       </c>
+      <c r="AM33" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -21664,6 +22175,9 @@
       <c r="AL34" t="n">
         <v>373</v>
       </c>
+      <c r="AM34" t="n">
+        <v>385</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -21784,6 +22298,9 @@
       <c r="AL35" t="n">
         <v>916</v>
       </c>
+      <c r="AM35" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -21904,6 +22421,9 @@
       <c r="AL36" t="n">
         <v>413</v>
       </c>
+      <c r="AM36" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -22024,6 +22544,9 @@
       <c r="AL37" t="n">
         <v>205</v>
       </c>
+      <c r="AM37" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -22144,6 +22667,9 @@
       <c r="AL38" t="n">
         <v>233</v>
       </c>
+      <c r="AM38" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -22264,6 +22790,9 @@
       <c r="AL39" t="n">
         <v>277</v>
       </c>
+      <c r="AM39" t="n">
+        <v>334</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -22384,6 +22913,9 @@
       <c r="AL40" t="n">
         <v>228</v>
       </c>
+      <c r="AM40" t="n">
+        <v>255</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -22504,6 +23036,9 @@
       <c r="AL41" t="n">
         <v>334</v>
       </c>
+      <c r="AM41" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -22624,6 +23159,9 @@
       <c r="AL42" t="n">
         <v>243</v>
       </c>
+      <c r="AM42" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -22744,6 +23282,9 @@
       <c r="AL43" t="n">
         <v>444</v>
       </c>
+      <c r="AM43" t="n">
+        <v>487</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -22864,6 +23405,9 @@
       <c r="AL44" t="n">
         <v>579</v>
       </c>
+      <c r="AM44" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -22984,6 +23528,9 @@
       <c r="AL45" t="n">
         <v>447</v>
       </c>
+      <c r="AM45" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -23104,11 +23651,14 @@
       <c r="AL46" t="n">
         <v>741</v>
       </c>
+      <c r="AM46" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -23148,6 +23698,7 @@
       <c r="AJ47" t="inlineStr"/>
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_10b_imunizace.xlsx
+++ b/ZBP_10b_imunizace.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN137"/>
+  <dimension ref="A1:AO137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -786,7 +791,10 @@
         <v>0.36</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
@@ -916,6 +924,9 @@
       <c r="AN3" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1044,6 +1055,9 @@
       <c r="AN4" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO4" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1172,6 +1186,9 @@
       <c r="AN5" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1300,6 +1317,9 @@
       <c r="AN6" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1428,6 +1448,9 @@
       <c r="AN7" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO7" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1554,7 +1577,10 @@
         <v>0.26</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="9">
@@ -1684,6 +1710,9 @@
       <c r="AN9" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1810,7 +1839,10 @@
         <v>0.21</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="11">
@@ -1940,6 +1972,9 @@
       <c r="AN11" t="n">
         <v>0.66</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2066,7 +2101,10 @@
         <v>0.16</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="13">
@@ -2194,7 +2232,10 @@
         <v>0.14</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="14">
@@ -2324,6 +2365,9 @@
       <c r="AN14" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2452,6 +2496,9 @@
       <c r="AN15" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2578,7 +2625,10 @@
         <v>0.15</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="17">
@@ -2706,7 +2756,10 @@
         <v>0.37</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="18">
@@ -2836,6 +2889,9 @@
       <c r="AN18" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2962,7 +3018,10 @@
         <v>0.18</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
@@ -3092,6 +3151,9 @@
       <c r="AN20" t="n">
         <v>0.57</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3218,7 +3280,10 @@
         <v>0.32</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22">
@@ -3348,6 +3413,9 @@
       <c r="AN22" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3476,6 +3544,9 @@
       <c r="AN23" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3604,6 +3675,9 @@
       <c r="AN24" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3732,6 +3806,9 @@
       <c r="AN25" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3858,7 +3935,10 @@
         <v>0.26</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="27">
@@ -3988,6 +4068,9 @@
       <c r="AN27" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4114,6 +4197,9 @@
         <v>0.19</v>
       </c>
       <c r="AN28" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AO28" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -4244,6 +4330,9 @@
       <c r="AN29" t="n">
         <v>0.45</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4372,6 +4461,9 @@
       <c r="AN30" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4498,6 +4590,9 @@
         <v>0.2</v>
       </c>
       <c r="AN31" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AO31" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4626,7 +4721,10 @@
         <v>0.47</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="33">
@@ -4756,6 +4854,9 @@
       <c r="AN33" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4884,6 +4985,9 @@
       <c r="AN34" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO34" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5012,6 +5116,9 @@
       <c r="AN35" t="n">
         <v>0.78</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5140,6 +5247,9 @@
       <c r="AN36" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5268,6 +5378,9 @@
       <c r="AN37" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5394,6 +5507,9 @@
         <v>0.77</v>
       </c>
       <c r="AN38" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AO38" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -5524,6 +5640,9 @@
       <c r="AN39" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5650,6 +5769,9 @@
         <v>0.08</v>
       </c>
       <c r="AN40" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO40" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -5780,6 +5902,9 @@
       <c r="AN41" t="n">
         <v>0.3</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5908,6 +6033,9 @@
       <c r="AN42" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6034,7 +6162,10 @@
         <v>0.2</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="44">
@@ -6164,6 +6295,9 @@
       <c r="AN44" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO44" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -6290,7 +6424,10 @@
         <v>0.32</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="46">
@@ -6420,6 +6557,9 @@
       <c r="AN46" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO46" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6546,7 +6686,10 @@
         <v>0.38</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="48">
@@ -6674,7 +6817,10 @@
         <v>0.32</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="49">
@@ -6804,6 +6950,9 @@
       <c r="AN49" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO49" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6932,6 +7081,9 @@
       <c r="AN50" t="n">
         <v>0.52</v>
       </c>
+      <c r="AO50" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -7060,6 +7212,9 @@
       <c r="AN51" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO51" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -7186,7 +7341,10 @@
         <v>0.18</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="53">
@@ -7313,6 +7471,9 @@
       <c r="AN53" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO53" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -7438,6 +7599,9 @@
       <c r="AN54" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO54" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7561,7 +7725,10 @@
         <v>0.21</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="56">
@@ -7686,7 +7853,10 @@
         <v>0.4</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -7813,6 +7983,9 @@
       <c r="AN57" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO57" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7936,7 +8109,10 @@
         <v>0.18</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="59">
@@ -8063,6 +8239,9 @@
       <c r="AN59" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO59" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -8188,6 +8367,9 @@
       <c r="AN60" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO60" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -8311,7 +8493,10 @@
         <v>0.15</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
@@ -8436,7 +8621,10 @@
         <v>0.29</v>
       </c>
       <c r="AN62" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="63">
@@ -8563,6 +8751,9 @@
       <c r="AN63" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO63" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8688,6 +8879,9 @@
       <c r="AN64" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO64" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8816,6 +9010,9 @@
       <c r="AN65" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO65" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8944,6 +9141,9 @@
       <c r="AN66" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO66" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9072,6 +9272,9 @@
       <c r="AN67" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO67" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9198,7 +9401,10 @@
         <v>0.37</v>
       </c>
       <c r="AN68" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="69">
@@ -9328,6 +9534,9 @@
       <c r="AN69" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO69" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9454,7 +9663,10 @@
         <v>0.17</v>
       </c>
       <c r="AN70" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="71">
@@ -9584,6 +9796,9 @@
       <c r="AN71" t="n">
         <v>0.44</v>
       </c>
+      <c r="AO71" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9710,7 +9925,10 @@
         <v>0.27</v>
       </c>
       <c r="AN72" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="73">
@@ -9840,6 +10058,9 @@
       <c r="AN73" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO73" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9968,6 +10189,9 @@
       <c r="AN74" t="n">
         <v>0.52</v>
       </c>
+      <c r="AO74" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10096,6 +10320,9 @@
       <c r="AN75" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO75" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10224,6 +10451,9 @@
       <c r="AN76" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO76" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10352,6 +10582,9 @@
       <c r="AN77" t="n">
         <v>0.52</v>
       </c>
+      <c r="AO77" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10480,6 +10713,9 @@
       <c r="AN78" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO78" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10608,6 +10844,9 @@
       <c r="AN79" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO79" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10736,6 +10975,9 @@
       <c r="AN80" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO80" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10862,7 +11104,10 @@
         <v>0.33</v>
       </c>
       <c r="AN81" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="82">
@@ -10992,6 +11237,9 @@
       <c r="AN82" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO82" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -11120,6 +11368,9 @@
       <c r="AN83" t="n">
         <v>0.34</v>
       </c>
+      <c r="AO83" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -11248,6 +11499,9 @@
       <c r="AN84" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO84" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -11374,7 +11628,10 @@
         <v>0.11</v>
       </c>
       <c r="AN85" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="86">
@@ -11504,6 +11761,9 @@
       <c r="AN86" t="n">
         <v>0.41</v>
       </c>
+      <c r="AO86" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11630,7 +11890,10 @@
         <v>0.35</v>
       </c>
       <c r="AN87" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="88">
@@ -11760,6 +12023,9 @@
       <c r="AN88" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO88" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11888,6 +12154,9 @@
       <c r="AN89" t="n">
         <v>0.76</v>
       </c>
+      <c r="AO89" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -12016,6 +12285,9 @@
       <c r="AN90" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO90" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -12142,7 +12414,10 @@
         <v>0.1</v>
       </c>
       <c r="AN91" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="92">
@@ -12272,6 +12547,9 @@
       <c r="AN92" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO92" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -12400,6 +12678,9 @@
       <c r="AN93" t="n">
         <v>0.46</v>
       </c>
+      <c r="AO93" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -12526,7 +12807,10 @@
         <v>0.16</v>
       </c>
       <c r="AN94" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="95">
@@ -12656,6 +12940,9 @@
       <c r="AN95" t="n">
         <v>0.36</v>
       </c>
+      <c r="AO95" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12784,6 +13071,9 @@
       <c r="AN96" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO96" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -12910,7 +13200,10 @@
         <v>0.26</v>
       </c>
       <c r="AN97" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="98">
@@ -13040,6 +13333,9 @@
       <c r="AN98" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO98" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -13168,6 +13464,9 @@
       <c r="AN99" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO99" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -13296,6 +13595,9 @@
       <c r="AN100" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO100" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -13424,6 +13726,9 @@
       <c r="AN101" t="n">
         <v>0.44</v>
       </c>
+      <c r="AO101" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -13552,6 +13857,9 @@
       <c r="AN102" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO102" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -13678,7 +13986,10 @@
         <v>0.16</v>
       </c>
       <c r="AN103" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="104">
@@ -13806,7 +14117,10 @@
         <v>0.3</v>
       </c>
       <c r="AN104" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="105">
@@ -13934,7 +14248,10 @@
         <v>0.34</v>
       </c>
       <c r="AN105" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="106">
@@ -14062,7 +14379,10 @@
         <v>0.2</v>
       </c>
       <c r="AN106" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="107">
@@ -14190,7 +14510,10 @@
         <v>0.38</v>
       </c>
       <c r="AN107" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="108">
@@ -14320,6 +14643,9 @@
       <c r="AN108" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO108" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -14448,6 +14774,9 @@
       <c r="AN109" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO109" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -14576,6 +14905,9 @@
       <c r="AN110" t="n">
         <v>0.68</v>
       </c>
+      <c r="AO110" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -14704,6 +15036,9 @@
       <c r="AN111" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO111" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14830,7 +15165,10 @@
         <v>0.13</v>
       </c>
       <c r="AN112" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="113">
@@ -14960,6 +15298,9 @@
       <c r="AN113" t="n">
         <v>0.52</v>
       </c>
+      <c r="AO113" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -15088,6 +15429,9 @@
       <c r="AN114" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO114" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -15216,6 +15560,9 @@
       <c r="AN115" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO115" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -15344,6 +15691,9 @@
       <c r="AN116" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO116" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -15472,6 +15822,9 @@
       <c r="AN117" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO117" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -15600,6 +15953,9 @@
       <c r="AN118" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO118" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -15726,7 +16082,10 @@
         <v>0.31</v>
       </c>
       <c r="AN119" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="120">
@@ -15854,7 +16213,10 @@
         <v>0.35</v>
       </c>
       <c r="AN120" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="121">
@@ -15982,7 +16344,10 @@
         <v>0.16</v>
       </c>
       <c r="AN121" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="122">
@@ -16112,6 +16477,9 @@
       <c r="AN122" t="n">
         <v>0.57</v>
       </c>
+      <c r="AO122" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16238,7 +16606,10 @@
         <v>0.3</v>
       </c>
       <c r="AN123" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="124">
@@ -16366,7 +16737,10 @@
         <v>0.17</v>
       </c>
       <c r="AN124" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="125">
@@ -16496,6 +16870,9 @@
       <c r="AN125" t="n">
         <v>0.4</v>
       </c>
+      <c r="AO125" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16622,7 +16999,10 @@
         <v>0.35</v>
       </c>
       <c r="AN126" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="127">
@@ -16750,7 +17130,10 @@
         <v>0.18</v>
       </c>
       <c r="AN127" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="128">
@@ -16880,6 +17263,9 @@
       <c r="AN128" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO128" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -17006,7 +17392,10 @@
         <v>0.34</v>
       </c>
       <c r="AN129" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="130">
@@ -17136,6 +17525,9 @@
       <c r="AN130" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO130" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -17264,6 +17656,9 @@
       <c r="AN131" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO131" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -17390,7 +17785,10 @@
         <v>0.32</v>
       </c>
       <c r="AN132" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="133">
@@ -17520,6 +17918,9 @@
       <c r="AN133" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO133" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -17646,7 +18047,10 @@
         <v>0.32</v>
       </c>
       <c r="AN134" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="135">
@@ -17776,6 +18180,9 @@
       <c r="AN135" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO135" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -17902,13 +18309,16 @@
         <v>0.17</v>
       </c>
       <c r="AN136" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Imunizace, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -17923,7 +18333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18127,6 +18537,11 @@
           <t>25. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>22. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -18248,7 +18663,10 @@
         <v>1767</v>
       </c>
       <c r="AM2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -18371,7 +18789,10 @@
         <v>442</v>
       </c>
       <c r="AM3" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="4">
@@ -18494,7 +18915,10 @@
         <v>647</v>
       </c>
       <c r="AM4" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="5">
@@ -18617,7 +19041,10 @@
         <v>678</v>
       </c>
       <c r="AM5" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="6">
@@ -18740,7 +19167,10 @@
         <v>818</v>
       </c>
       <c r="AM6" t="n">
-        <v>838</v>
+        <v>848</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>827</v>
       </c>
     </row>
     <row r="7">
@@ -18863,7 +19293,10 @@
         <v>606</v>
       </c>
       <c r="AM7" t="n">
-        <v>619</v>
+        <v>637</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>610</v>
       </c>
     </row>
     <row r="8">
@@ -18986,7 +19419,10 @@
         <v>343</v>
       </c>
       <c r="AM8" t="n">
-        <v>358</v>
+        <v>363</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="9">
@@ -19109,6 +19545,9 @@
         <v>427</v>
       </c>
       <c r="AM9" t="n">
+        <v>437</v>
+      </c>
+      <c r="AN9" t="n">
         <v>435</v>
       </c>
     </row>
@@ -19232,7 +19671,10 @@
         <v>429</v>
       </c>
       <c r="AM10" t="n">
-        <v>437</v>
+        <v>451</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="11">
@@ -19355,7 +19797,10 @@
         <v>234</v>
       </c>
       <c r="AM11" t="n">
-        <v>248</v>
+        <v>253</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="12">
@@ -19478,7 +19923,10 @@
         <v>391</v>
       </c>
       <c r="AM12" t="n">
-        <v>403</v>
+        <v>411</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="13">
@@ -19601,7 +20049,10 @@
         <v>177</v>
       </c>
       <c r="AM13" t="n">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>179</v>
       </c>
     </row>
     <row r="14">
@@ -19726,6 +20177,9 @@
       <c r="AM14" t="n">
         <v>110</v>
       </c>
+      <c r="AN14" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -19847,7 +20301,10 @@
         <v>190</v>
       </c>
       <c r="AM15" t="n">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="16">
@@ -19970,7 +20427,10 @@
         <v>640</v>
       </c>
       <c r="AM16" t="n">
-        <v>630</v>
+        <v>642</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>588</v>
       </c>
     </row>
     <row r="17">
@@ -20093,7 +20553,10 @@
         <v>596</v>
       </c>
       <c r="AM17" t="n">
-        <v>605</v>
+        <v>619</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>623</v>
       </c>
     </row>
     <row r="18">
@@ -20216,7 +20679,10 @@
         <v>244</v>
       </c>
       <c r="AM18" t="n">
-        <v>302</v>
+        <v>307</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>297</v>
       </c>
     </row>
     <row r="19">
@@ -20337,7 +20803,10 @@
         <v>567</v>
       </c>
       <c r="AM19" t="n">
-        <v>740</v>
+        <v>759</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="20">
@@ -20458,7 +20927,10 @@
         <v>126</v>
       </c>
       <c r="AM20" t="n">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="21">
@@ -20579,7 +21051,10 @@
         <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="22">
@@ -20700,7 +21175,10 @@
         <v>221</v>
       </c>
       <c r="AM22" t="n">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -20823,7 +21301,10 @@
         <v>817</v>
       </c>
       <c r="AM23" t="n">
-        <v>834</v>
+        <v>846</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>820</v>
       </c>
     </row>
     <row r="24">
@@ -20946,7 +21427,10 @@
         <v>143</v>
       </c>
       <c r="AM24" t="n">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -21069,7 +21553,10 @@
         <v>112</v>
       </c>
       <c r="AM25" t="n">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -21192,7 +21679,10 @@
         <v>695</v>
       </c>
       <c r="AM26" t="n">
-        <v>721</v>
+        <v>736</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>711</v>
       </c>
     </row>
     <row r="27">
@@ -21315,7 +21805,10 @@
         <v>862</v>
       </c>
       <c r="AM27" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="28">
@@ -21438,7 +21931,10 @@
         <v>905</v>
       </c>
       <c r="AM28" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="29">
@@ -21561,7 +22057,10 @@
         <v>228</v>
       </c>
       <c r="AM29" t="n">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="30">
@@ -21684,7 +22183,10 @@
         <v>331</v>
       </c>
       <c r="AM30" t="n">
-        <v>338</v>
+        <v>341</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="31">
@@ -21807,7 +22309,10 @@
         <v>304</v>
       </c>
       <c r="AM31" t="n">
-        <v>310</v>
+        <v>316</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>308</v>
       </c>
     </row>
     <row r="32">
@@ -21930,6 +22435,9 @@
         <v>215</v>
       </c>
       <c r="AM32" t="n">
+        <v>216</v>
+      </c>
+      <c r="AN32" t="n">
         <v>212</v>
       </c>
     </row>
@@ -22053,7 +22561,10 @@
         <v>316</v>
       </c>
       <c r="AM33" t="n">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="34">
@@ -22176,7 +22687,10 @@
         <v>373</v>
       </c>
       <c r="AM34" t="n">
-        <v>385</v>
+        <v>392</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>370</v>
       </c>
     </row>
     <row r="35">
@@ -22299,7 +22813,10 @@
         <v>916</v>
       </c>
       <c r="AM35" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="36">
@@ -22422,6 +22939,9 @@
         <v>413</v>
       </c>
       <c r="AM36" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN36" t="n">
         <v>413</v>
       </c>
     </row>
@@ -22545,7 +23065,10 @@
         <v>205</v>
       </c>
       <c r="AM37" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -22668,7 +23191,10 @@
         <v>233</v>
       </c>
       <c r="AM38" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="39">
@@ -22793,6 +23319,9 @@
       <c r="AM39" t="n">
         <v>334</v>
       </c>
+      <c r="AN39" t="n">
+        <v>294</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -22914,7 +23443,10 @@
         <v>228</v>
       </c>
       <c r="AM40" t="n">
-        <v>255</v>
+        <v>263</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="41">
@@ -23037,7 +23569,10 @@
         <v>334</v>
       </c>
       <c r="AM41" t="n">
-        <v>270</v>
+        <v>283</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="42">
@@ -23160,7 +23695,10 @@
         <v>243</v>
       </c>
       <c r="AM42" t="n">
-        <v>237</v>
+        <v>242</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="43">
@@ -23283,7 +23821,10 @@
         <v>444</v>
       </c>
       <c r="AM43" t="n">
-        <v>487</v>
+        <v>492</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>510</v>
       </c>
     </row>
     <row r="44">
@@ -23406,7 +23947,10 @@
         <v>579</v>
       </c>
       <c r="AM44" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="45">
@@ -23529,7 +24073,10 @@
         <v>447</v>
       </c>
       <c r="AM45" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="46">
@@ -23652,13 +24199,16 @@
         <v>741</v>
       </c>
       <c r="AM46" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Imunizace, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -23699,6 +24249,7 @@
       <c r="AK47" t="inlineStr"/>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
